--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R998"/>
+  <dimension ref="A1:R1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56013,7 +56013,7 @@
         <v>22</v>
       </c>
       <c r="O992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P992" t="n">
         <v>0</v>
@@ -56301,7 +56301,9 @@
       <c r="Q997" t="n">
         <v>0</v>
       </c>
-      <c r="R997" t="inlineStr"/>
+      <c r="R997" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
@@ -56355,7 +56357,225 @@
       <c r="Q998" t="n">
         <v>0</v>
       </c>
-      <c r="R998" t="inlineStr"/>
+      <c r="R998" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="B999" t="n">
+        <v>351</v>
+      </c>
+      <c r="C999" t="n">
+        <v>352.9500122070312</v>
+      </c>
+      <c r="D999" t="n">
+        <v>350.7999877929688</v>
+      </c>
+      <c r="E999" t="n">
+        <v>351.4500122070312</v>
+      </c>
+      <c r="F999" t="n">
+        <v>351.4500122070312</v>
+      </c>
+      <c r="G999" t="n">
+        <v>27692</v>
+      </c>
+      <c r="H999" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I999" t="n">
+        <v>6</v>
+      </c>
+      <c r="J999" t="n">
+        <v>3</v>
+      </c>
+      <c r="K999" t="n">
+        <v>11</v>
+      </c>
+      <c r="L999" t="n">
+        <v>15</v>
+      </c>
+      <c r="M999" t="n">
+        <v>0</v>
+      </c>
+      <c r="N999" t="n">
+        <v>23</v>
+      </c>
+      <c r="O999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>0</v>
+      </c>
+      <c r="R999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>352</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>355.9500122070312</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>351.4500122070312</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>353.6000061035156</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>353.6000061035156</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>15668</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>353.9500122070312</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>354.3500061035156</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>349.3500061035156</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>19877</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>348.9500122070312</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>348.9500122070312</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>1141</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1002" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1002"/>
+  <dimension ref="A1:R1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56413,7 +56413,9 @@
       <c r="Q999" t="n">
         <v>0</v>
       </c>
-      <c r="R999" t="inlineStr"/>
+      <c r="R999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
@@ -56467,7 +56469,9 @@
       <c r="Q1000" t="n">
         <v>0</v>
       </c>
-      <c r="R1000" t="inlineStr"/>
+      <c r="R1000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
@@ -56521,7 +56525,9 @@
       <c r="Q1001" t="n">
         <v>0</v>
       </c>
-      <c r="R1001" t="inlineStr"/>
+      <c r="R1001" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
@@ -56575,7 +56581,63 @@
       <c r="Q1002" t="n">
         <v>0</v>
       </c>
-      <c r="R1002" t="inlineStr"/>
+      <c r="R1002" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45446.63541666666</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>349.3999938964844</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>353.2000122070312</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>348.7000122070312</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>350.7000122070312</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>350.7000122070312</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>174249</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1003" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -56637,7 +56637,9 @@
       <c r="Q1003" t="n">
         <v>1</v>
       </c>
-      <c r="R1003" t="inlineStr"/>
+      <c r="R1003" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1003"/>
+  <dimension ref="A1:R1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56293,7 +56293,7 @@
         <v>23</v>
       </c>
       <c r="O997" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P997" t="n">
         <v>0</v>
@@ -56640,6 +56640,384 @@
       <c r="R1003" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>350.3500061035156</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>350.3500061035156</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>334.4500122070312</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>346.9500122070312</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>346.9500122070312</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>67304</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>347.0499877929688</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>350.4500122070312</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>325.9500122070312</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>327.1499938964844</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>327.1499938964844</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>77528</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45447.46875</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>327.1000061035156</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>329.7000122070312</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>311.2999877929688</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>311.2999877929688</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>311.2999877929688</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>44490</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45447.51041666666</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>311.3999938964844</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>330.3999938964844</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>284</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>328.8500061035156</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>328.8500061035156</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>96742</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>329.1499938964844</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>340.4500122070312</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>325.1000061035156</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>337.8999938964844</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>337.8999938964844</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>50443</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>338.75</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>328.1000061035156</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>330.0499877929688</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>330.0499877929688</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>50499</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45447.63541666666</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>333</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>334.7000122070312</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>325.8999938964844</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>332.8500061035156</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>332.8500061035156</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>14380</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -57477,7 +57477,9 @@
       <c r="Q1018" t="n">
         <v>1</v>
       </c>
-      <c r="R1018" t="inlineStr"/>
+      <c r="R1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -57531,7 +57533,9 @@
       <c r="Q1019" t="n">
         <v>0</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
@@ -57585,7 +57589,9 @@
       <c r="Q1020" t="n">
         <v>0</v>
       </c>
-      <c r="R1020" t="inlineStr"/>
+      <c r="R1020" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
@@ -57639,7 +57645,9 @@
       <c r="Q1021" t="n">
         <v>0</v>
       </c>
-      <c r="R1021" t="inlineStr"/>
+      <c r="R1021" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
@@ -57693,7 +57701,9 @@
       <c r="Q1022" t="n">
         <v>0</v>
       </c>
-      <c r="R1022" t="inlineStr"/>
+      <c r="R1022" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
@@ -57747,7 +57757,9 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
@@ -57801,7 +57813,9 @@
       <c r="Q1024" t="n">
         <v>0</v>
       </c>
-      <c r="R1024" t="inlineStr"/>
+      <c r="R1024" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1024"/>
+  <dimension ref="A1:R1025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57817,6 +57817,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45450.38541666666</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>354.25</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>352.75</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>354.4500122070312</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>354.4500122070312</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>9062</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1025"/>
+  <dimension ref="A1:R1031"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57869,7 +57869,333 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45450.42708333334</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>355.0499877929688</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>378.8500061035156</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>355.0499877929688</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>366.1499938964844</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>366.1499938964844</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>73324</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>366.1499938964844</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>367.1000061035156</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>364.6000061035156</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>18953</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45450.51041666666</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>368</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>364.7999877929688</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>365</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>365</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>8727</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45450.55208333334</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>370.6499938964844</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>364.8999938964844</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>369.2000122070312</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>369.2000122070312</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>7838</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45450.59375</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>368.5</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>374.2999877929688</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>366</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>373.1499938964844</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>373.1499938964844</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>32383</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45450.63541666666</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>373.6499938964844</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>376.8999938964844</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>370.3500061035156</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>373.1499938964844</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>373.1499938964844</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>18719</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1037"/>
+  <dimension ref="A1:R1038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58261,7 +58261,9 @@
       <c r="Q1032" t="n">
         <v>0</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58315,7 +58317,9 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
@@ -58369,7 +58373,9 @@
       <c r="Q1034" t="n">
         <v>0</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
@@ -58423,7 +58429,9 @@
       <c r="Q1035" t="n">
         <v>0</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58477,7 +58485,9 @@
       <c r="Q1036" t="n">
         <v>0</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
@@ -58531,7 +58541,63 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45453.63541666666</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>367.25</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>371.8500061035156</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>367</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>368.75</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>368.75</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>6819</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1038"/>
+  <dimension ref="A1:R1045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="R154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="R280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="R296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="R300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -18558,7 +18558,7 @@
         <v>2</v>
       </c>
       <c r="R323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -23094,7 +23094,7 @@
         <v>2</v>
       </c>
       <c r="R404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="R413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -24550,7 +24550,7 @@
         <v>2</v>
       </c>
       <c r="R430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="R452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="R504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -31606,7 +31606,7 @@
         <v>1</v>
       </c>
       <c r="R556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -35078,7 +35078,7 @@
         <v>0</v>
       </c>
       <c r="R618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -37038,7 +37038,7 @@
         <v>0</v>
       </c>
       <c r="R653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -39054,7 +39054,7 @@
         <v>0</v>
       </c>
       <c r="R689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -39782,7 +39782,7 @@
         <v>0</v>
       </c>
       <c r="R702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -42806,7 +42806,7 @@
         <v>2</v>
       </c>
       <c r="R756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -44374,7 +44374,7 @@
         <v>1</v>
       </c>
       <c r="R784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -44822,7 +44822,7 @@
         <v>2</v>
       </c>
       <c r="R792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -45550,7 +45550,7 @@
         <v>1</v>
       </c>
       <c r="R805" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806">
@@ -48406,7 +48406,7 @@
         <v>1</v>
       </c>
       <c r="R856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857">
@@ -50030,7 +50030,7 @@
         <v>1</v>
       </c>
       <c r="R885" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -51318,7 +51318,7 @@
         <v>2</v>
       </c>
       <c r="R908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909">
@@ -52438,7 +52438,7 @@
         <v>0</v>
       </c>
       <c r="R928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -54398,7 +54398,7 @@
         <v>2</v>
       </c>
       <c r="R963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -56638,7 +56638,7 @@
         <v>1</v>
       </c>
       <c r="R1003" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004">
@@ -57478,7 +57478,7 @@
         <v>1</v>
       </c>
       <c r="R1018" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019">
@@ -58597,7 +58597,387 @@
       <c r="Q1038" t="n">
         <v>0</v>
       </c>
-      <c r="R1038" t="inlineStr"/>
+      <c r="R1038" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>368.75</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>396.7999877929688</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>368.75</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>395.4500122070312</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>395.4500122070312</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>55232</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45454.42708333334</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>395.1499938964844</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>409.7999877929688</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>395.1499938964844</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>407.8500061035156</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>407.8500061035156</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>231068</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45454.46875</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>407.8500061035156</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>416.3999938964844</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>407.5</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>413.7000122070312</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>413.7000122070312</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>122609</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45454.51041666666</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>413.6000061035156</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>414.9500122070312</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>406.5</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>411.9500122070312</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>411.9500122070312</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>79798</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>411.9500122070312</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>411.9500122070312</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>404.2000122070312</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>408.3500061035156</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>408.3500061035156</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>51107</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45454.59375</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>408.7999877929688</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>410</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>406.1000061035156</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>409.7999877929688</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>409.7999877929688</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>46352</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45454.63541666666</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>410</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>417</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>409.1499938964844</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>411.9500122070312</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>411.9500122070312</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>73048</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1045"/>
+  <dimension ref="A1:R1052"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="R109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="R122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="R154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="R280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="R296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="R300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -18558,7 +18558,7 @@
         <v>2</v>
       </c>
       <c r="R323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -23094,7 +23094,7 @@
         <v>2</v>
       </c>
       <c r="R404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="R413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -24550,7 +24550,7 @@
         <v>2</v>
       </c>
       <c r="R430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="R452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="R504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -31606,7 +31606,7 @@
         <v>1</v>
       </c>
       <c r="R556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -35078,7 +35078,7 @@
         <v>0</v>
       </c>
       <c r="R618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -37038,7 +37038,7 @@
         <v>0</v>
       </c>
       <c r="R653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -39054,7 +39054,7 @@
         <v>0</v>
       </c>
       <c r="R689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -39782,7 +39782,7 @@
         <v>0</v>
       </c>
       <c r="R702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -42806,7 +42806,7 @@
         <v>2</v>
       </c>
       <c r="R756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -44374,7 +44374,7 @@
         <v>1</v>
       </c>
       <c r="R784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -44822,7 +44822,7 @@
         <v>2</v>
       </c>
       <c r="R792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793">
@@ -45550,7 +45550,7 @@
         <v>1</v>
       </c>
       <c r="R805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806">
@@ -48406,7 +48406,7 @@
         <v>1</v>
       </c>
       <c r="R856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857">
@@ -50030,7 +50030,7 @@
         <v>1</v>
       </c>
       <c r="R885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886">
@@ -51318,7 +51318,7 @@
         <v>2</v>
       </c>
       <c r="R908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909">
@@ -52438,7 +52438,7 @@
         <v>0</v>
       </c>
       <c r="R928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929">
@@ -54398,7 +54398,7 @@
         <v>2</v>
       </c>
       <c r="R963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964">
@@ -56638,7 +56638,7 @@
         <v>1</v>
       </c>
       <c r="R1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004">
@@ -57478,7 +57478,7 @@
         <v>1</v>
       </c>
       <c r="R1018" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019">
@@ -58653,7 +58653,9 @@
       <c r="Q1039" t="n">
         <v>0</v>
       </c>
-      <c r="R1039" t="inlineStr"/>
+      <c r="R1039" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
@@ -58707,7 +58709,9 @@
       <c r="Q1040" t="n">
         <v>0</v>
       </c>
-      <c r="R1040" t="inlineStr"/>
+      <c r="R1040" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
@@ -58761,7 +58765,9 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
@@ -58815,7 +58821,9 @@
       <c r="Q1042" t="n">
         <v>0</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58869,7 +58877,9 @@
       <c r="Q1043" t="n">
         <v>0</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
@@ -58923,7 +58933,9 @@
       <c r="Q1044" t="n">
         <v>0</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
@@ -58977,7 +58989,387 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>416.9500122070312</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>418.1499938964844</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>409.9500122070312</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>415.6499938964844</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>415.6499938964844</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>78857</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>415.5499877929688</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>416.7999877929688</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>411.75</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>411.75</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>34910</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>411.75</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>414.3999938964844</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>409.2999877929688</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>412.25</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>412.25</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>21382</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45455.51041666666</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>411.8500061035156</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>415.4500122070312</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>410.1000061035156</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>412.2000122070312</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>412.2000122070312</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>18268</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45455.55208333334</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>412.25</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>412.8999938964844</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>409</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>410.9500122070312</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>410.9500122070312</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>17520</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45455.59375</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>410.6499938964844</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>411.8999938964844</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>407.25</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>408.5499877929688</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>408.5499877929688</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>13782</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45455.63541666666</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>408.2999877929688</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>408.5499877929688</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>406.3999938964844</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>407.6499938964844</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>407.6499938964844</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>15493</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1052"/>
+  <dimension ref="A1:R1059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59045,7 +59045,9 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
@@ -59099,7 +59101,9 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
@@ -59153,7 +59157,9 @@
       <c r="Q1048" t="n">
         <v>0</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
@@ -59207,7 +59213,9 @@
       <c r="Q1049" t="n">
         <v>0</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59261,7 +59269,9 @@
       <c r="Q1050" t="n">
         <v>0</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
@@ -59315,7 +59325,9 @@
       <c r="Q1051" t="n">
         <v>0</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
@@ -59369,7 +59381,387 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>408</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>428.5</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>405</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>426.7000122070312</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>426.7000122070312</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>426.2000122070312</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>435</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>424.2999877929688</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>431.1000061035156</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>431.1000061035156</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>88319</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>431.2000122070312</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>431.25</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>427.1000061035156</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>429.3999938964844</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>429.3999938964844</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>29750</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45456.51041666666</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>429.5</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>434.8999938964844</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>429</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>433.0499877929688</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>433.0499877929688</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>37021</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>433.8500061035156</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>433.8500061035156</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>428.0499877929688</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>429.3999938964844</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>429.3999938964844</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>23221</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45456.59375</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>430</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>437.0499877929688</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>428.7999877929688</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>436</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>436</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>60593</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>435.3500061035156</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>440.9500122070312</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>433.1000061035156</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>437.6000061035156</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>437.6000061035156</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>38310</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1059"/>
+  <dimension ref="A1:R1066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59437,7 +59437,9 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59491,7 +59493,9 @@
       <c r="Q1054" t="n">
         <v>0</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
@@ -59545,7 +59549,9 @@
       <c r="Q1055" t="n">
         <v>0</v>
       </c>
-      <c r="R1055" t="inlineStr"/>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
@@ -59599,7 +59605,9 @@
       <c r="Q1056" t="n">
         <v>0</v>
       </c>
-      <c r="R1056" t="inlineStr"/>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
@@ -59653,7 +59661,9 @@
       <c r="Q1057" t="n">
         <v>0</v>
       </c>
-      <c r="R1057" t="inlineStr"/>
+      <c r="R1057" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
@@ -59707,7 +59717,9 @@
       <c r="Q1058" t="n">
         <v>0</v>
       </c>
-      <c r="R1058" t="inlineStr"/>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
@@ -59761,7 +59773,387 @@
       <c r="Q1059" t="n">
         <v>0</v>
       </c>
-      <c r="R1059" t="inlineStr"/>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45457.38541666666</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>435.1000061035156</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>451.3999938964844</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>434.2000122070312</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>443.6499938964844</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>443.6499938964844</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45457.42708333334</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>443.7000122070312</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>451.4500122070312</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>443.0499877929688</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>448.75</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>448.75</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45457.46875</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>447.1499938964844</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>453</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>447.1499938964844</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>450.2999877929688</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>450.2999877929688</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>30742</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45457.51041666666</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>450</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>451.9500122070312</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>449</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>449.75</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>449.75</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>10661</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45457.55208333334</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>449.6499938964844</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>449.9500122070312</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>447.0499877929688</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>448.7000122070312</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>448.7000122070312</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>11493</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45457.59375</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>447.8500061035156</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>451.25</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>447.0499877929688</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>449</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>449</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>18196</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45457.63541666666</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>449</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>450</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>446</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>448.9500122070312</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>448.9500122070312</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>18391</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -59829,7 +59829,9 @@
       <c r="Q1060" t="n">
         <v>0</v>
       </c>
-      <c r="R1060" t="inlineStr"/>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
@@ -59883,7 +59885,9 @@
       <c r="Q1061" t="n">
         <v>0</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
@@ -59937,7 +59941,9 @@
       <c r="Q1062" t="n">
         <v>0</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
@@ -59991,7 +59997,9 @@
       <c r="Q1063" t="n">
         <v>0</v>
       </c>
-      <c r="R1063" t="inlineStr"/>
+      <c r="R1063" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
@@ -60045,7 +60053,9 @@
       <c r="Q1064" t="n">
         <v>0</v>
       </c>
-      <c r="R1064" t="inlineStr"/>
+      <c r="R1064" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
@@ -60099,7 +60109,9 @@
       <c r="Q1065" t="n">
         <v>0</v>
       </c>
-      <c r="R1065" t="inlineStr"/>
+      <c r="R1065" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
@@ -60153,7 +60165,9 @@
       <c r="Q1066" t="n">
         <v>0</v>
       </c>
-      <c r="R1066" t="inlineStr"/>
+      <c r="R1066" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1066"/>
+  <dimension ref="A1:R1073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60169,6 +60169,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45461.38541666666</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>451.5</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>469</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>449.5</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>465</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>465</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45461.42708333334</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>464.5</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>469</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>464</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>468.1000061035156</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>468.1000061035156</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>36854</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45461.46875</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>468.8500061035156</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>473</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>467</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>472.8500061035156</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>472.8500061035156</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>47957</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45461.51041666666</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>472.8500061035156</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>472.8500061035156</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>469</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>470</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>470</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>21849</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45461.55208333334</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>469.7000122070312</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>472.3500061035156</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>469.5499877929688</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>472.2999877929688</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>472.2999877929688</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>15016</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45461.59375</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>472.2999877929688</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>473</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>470.8500061035156</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>471.7999877929688</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>471.7999877929688</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>22497</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45461.63541666666</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>473</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>474.9500122070312</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>470.1000061035156</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>472.8500061035156</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>472.8500061035156</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>25574</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1073"/>
+  <dimension ref="A1:R1080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60221,7 +60221,9 @@
       <c r="Q1067" t="n">
         <v>0</v>
       </c>
-      <c r="R1067" t="inlineStr"/>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
@@ -60275,7 +60277,9 @@
       <c r="Q1068" t="n">
         <v>0</v>
       </c>
-      <c r="R1068" t="inlineStr"/>
+      <c r="R1068" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
@@ -60329,7 +60333,9 @@
       <c r="Q1069" t="n">
         <v>0</v>
       </c>
-      <c r="R1069" t="inlineStr"/>
+      <c r="R1069" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
@@ -60383,7 +60389,9 @@
       <c r="Q1070" t="n">
         <v>0</v>
       </c>
-      <c r="R1070" t="inlineStr"/>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
@@ -60437,7 +60445,9 @@
       <c r="Q1071" t="n">
         <v>0</v>
       </c>
-      <c r="R1071" t="inlineStr"/>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
@@ -60491,7 +60501,9 @@
       <c r="Q1072" t="n">
         <v>0</v>
       </c>
-      <c r="R1072" t="inlineStr"/>
+      <c r="R1072" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
@@ -60545,7 +60557,387 @@
       <c r="Q1073" t="n">
         <v>0</v>
       </c>
-      <c r="R1073" t="inlineStr"/>
+      <c r="R1073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45462.38541666666</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>471.9500122070312</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>476.9500122070312</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>452.6499938964844</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>463.2000122070312</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>463.2000122070312</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>72665</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45462.42708333334</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>464.2999877929688</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>465.6000061035156</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>458.2000122070312</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>464.25</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>464.25</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>20677</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45462.46875</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>463.3500061035156</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>469.3999938964844</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>461.7999877929688</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>469.0499877929688</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>469.0499877929688</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>9725</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45462.51041666666</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>468</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>469.7000122070312</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>459.7999877929688</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>461.0499877929688</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>461.0499877929688</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>15287</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45462.55208333334</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>461.25</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>463.7000122070312</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>459</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>463.7000122070312</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>463.7000122070312</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>19894</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45462.59375</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>463.8999938964844</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>463.8999938964844</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>457</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>458.7000122070312</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>458.7000122070312</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>18165</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45462.63541666666</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>456.75</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>459.6499938964844</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>454.6499938964844</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>457.2000122070312</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>457.2000122070312</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>12833</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1080"/>
+  <dimension ref="A1:R1101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="R154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="R280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="R296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="R300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -18558,7 +18558,7 @@
         <v>2</v>
       </c>
       <c r="R323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -23094,7 +23094,7 @@
         <v>2</v>
       </c>
       <c r="R404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="R413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -24550,7 +24550,7 @@
         <v>2</v>
       </c>
       <c r="R430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="R452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="R504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -31606,7 +31606,7 @@
         <v>1</v>
       </c>
       <c r="R556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -35078,7 +35078,7 @@
         <v>0</v>
       </c>
       <c r="R618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -37038,7 +37038,7 @@
         <v>0</v>
       </c>
       <c r="R653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -39054,7 +39054,7 @@
         <v>0</v>
       </c>
       <c r="R689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -39782,7 +39782,7 @@
         <v>0</v>
       </c>
       <c r="R702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -42806,7 +42806,7 @@
         <v>2</v>
       </c>
       <c r="R756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -44374,7 +44374,7 @@
         <v>1</v>
       </c>
       <c r="R784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -44822,7 +44822,7 @@
         <v>2</v>
       </c>
       <c r="R792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -45550,7 +45550,7 @@
         <v>1</v>
       </c>
       <c r="R805" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806">
@@ -48406,7 +48406,7 @@
         <v>1</v>
       </c>
       <c r="R856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857">
@@ -50030,7 +50030,7 @@
         <v>1</v>
       </c>
       <c r="R885" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -51318,7 +51318,7 @@
         <v>2</v>
       </c>
       <c r="R908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909">
@@ -52438,7 +52438,7 @@
         <v>0</v>
       </c>
       <c r="R928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -54398,7 +54398,7 @@
         <v>2</v>
       </c>
       <c r="R963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -56638,7 +56638,7 @@
         <v>1</v>
       </c>
       <c r="R1003" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004">
@@ -57478,7 +57478,7 @@
         <v>1</v>
       </c>
       <c r="R1018" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019">
@@ -60605,7 +60605,7 @@
         <v>25</v>
       </c>
       <c r="O1074" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1074" t="n">
         <v>0</v>
@@ -60613,7 +60613,9 @@
       <c r="Q1074" t="n">
         <v>0</v>
       </c>
-      <c r="R1074" t="inlineStr"/>
+      <c r="R1074" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
@@ -60667,7 +60669,9 @@
       <c r="Q1075" t="n">
         <v>0</v>
       </c>
-      <c r="R1075" t="inlineStr"/>
+      <c r="R1075" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
@@ -60721,7 +60725,9 @@
       <c r="Q1076" t="n">
         <v>0</v>
       </c>
-      <c r="R1076" t="inlineStr"/>
+      <c r="R1076" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
@@ -60775,7 +60781,9 @@
       <c r="Q1077" t="n">
         <v>0</v>
       </c>
-      <c r="R1077" t="inlineStr"/>
+      <c r="R1077" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
@@ -60829,7 +60837,9 @@
       <c r="Q1078" t="n">
         <v>0</v>
       </c>
-      <c r="R1078" t="inlineStr"/>
+      <c r="R1078" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
@@ -60883,7 +60893,9 @@
       <c r="Q1079" t="n">
         <v>0</v>
       </c>
-      <c r="R1079" t="inlineStr"/>
+      <c r="R1079" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
@@ -60937,7 +60949,1143 @@
       <c r="Q1080" t="n">
         <v>0</v>
       </c>
-      <c r="R1080" t="inlineStr"/>
+      <c r="R1080" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45463.38541666666</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>455.2000122070312</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>466.8500061035156</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>450.0499877929688</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>466.25</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>466.25</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45463.42708333334</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>466.5</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>472.2000122070312</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>463.25</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>463.3999938964844</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>463.3999938964844</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>15221</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>45463.46875</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>463.6000061035156</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>466.6000061035156</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>454.25</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>460</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>460</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>10743</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>45463.51041666666</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>458.6499938964844</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>461.9500122070312</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>457.3999938964844</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>460.9500122070312</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>460.9500122070312</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>3400</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>45463.55208333334</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>461.5</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>463.6000061035156</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>460.2000122070312</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>461</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>461</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>2888</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45463.59375</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>461</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>468</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>459.8500061035156</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>462</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>462</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>10929</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45463.63541666666</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>462</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>462.9500122070312</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>456.0499877929688</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>459.4500122070312</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>459.4500122070312</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>10328</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45464.38541666666</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>460.7999877929688</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>460.7999877929688</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>455.6499938964844</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>456.9500122070312</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>456.9500122070312</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45464.42708333334</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>456.9500122070312</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>460.2000122070312</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>455.9500122070312</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>460.0499877929688</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>460.0499877929688</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>8001</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="n">
+        <v>45464.46875</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>460</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>460.2999877929688</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>456.8500061035156</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>458.1000061035156</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>458.1000061035156</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>3719</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2" t="n">
+        <v>45464.51041666666</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>459.1000061035156</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>459.5499877929688</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>451.2000122070312</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>455.25</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>455.25</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>7098</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2" t="n">
+        <v>45464.55208333334</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>456.3500061035156</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>459.5499877929688</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>456.3500061035156</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>459.5499877929688</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>459.5499877929688</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>3592</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2" t="n">
+        <v>45464.59375</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>458.3999938964844</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>461</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>455</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>456</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>456</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>11213</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2" t="n">
+        <v>45464.63541666666</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>455.7999877929688</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>458.9500122070312</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>454.8999938964844</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>5222</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45467.38541666666</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>472</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>456.0499877929688</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>472</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>472</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>7868</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45467.42708333334</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>472</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>466.3500061035156</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>22010</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45467.46875</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>468.5</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>465.5</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>468.7000122070312</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>468.7000122070312</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>16385</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45467.51041666666</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>468.8500061035156</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>470.5</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>465.6000061035156</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>466.8500061035156</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>466.8500061035156</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>6203</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2" t="n">
+        <v>45467.55208333334</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>465.5</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>475.5</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>464.0499877929688</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>473.7999877929688</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>473.7999877929688</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>42775</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45467.59375</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>473.75</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>482.3999938964844</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>471.2999877929688</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>480</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>480</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>50895</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45467.63541666666</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>480</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>481</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>472</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>477.5499877929688</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>477.5499877929688</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>16360</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1101"/>
+  <dimension ref="A1:R1115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5171,10 +5171,10 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="R109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="R122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="R154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="R280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="R296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="R300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -18558,7 +18558,7 @@
         <v>2</v>
       </c>
       <c r="R323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -23094,7 +23094,7 @@
         <v>2</v>
       </c>
       <c r="R404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="R413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -24550,7 +24550,7 @@
         <v>2</v>
       </c>
       <c r="R430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="R452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="R504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -31606,7 +31606,7 @@
         <v>1</v>
       </c>
       <c r="R556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -35078,7 +35078,7 @@
         <v>0</v>
       </c>
       <c r="R618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -37038,7 +37038,7 @@
         <v>0</v>
       </c>
       <c r="R653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -39054,7 +39054,7 @@
         <v>0</v>
       </c>
       <c r="R689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -39782,7 +39782,7 @@
         <v>0</v>
       </c>
       <c r="R702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -42806,7 +42806,7 @@
         <v>2</v>
       </c>
       <c r="R756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -44374,7 +44374,7 @@
         <v>1</v>
       </c>
       <c r="R784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -44822,7 +44822,7 @@
         <v>2</v>
       </c>
       <c r="R792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793">
@@ -45550,7 +45550,7 @@
         <v>1</v>
       </c>
       <c r="R805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806">
@@ -48406,7 +48406,7 @@
         <v>1</v>
       </c>
       <c r="R856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857">
@@ -50030,7 +50030,7 @@
         <v>1</v>
       </c>
       <c r="R885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886">
@@ -51318,7 +51318,7 @@
         <v>2</v>
       </c>
       <c r="R908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909">
@@ -52438,7 +52438,7 @@
         <v>0</v>
       </c>
       <c r="R928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929">
@@ -54398,7 +54398,7 @@
         <v>2</v>
       </c>
       <c r="R963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964">
@@ -56638,7 +56638,7 @@
         <v>1</v>
       </c>
       <c r="R1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004">
@@ -57478,7 +57478,7 @@
         <v>1</v>
       </c>
       <c r="R1018" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019">
@@ -61005,7 +61005,9 @@
       <c r="Q1081" t="n">
         <v>0</v>
       </c>
-      <c r="R1081" t="inlineStr"/>
+      <c r="R1081" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
@@ -61059,7 +61061,9 @@
       <c r="Q1082" t="n">
         <v>0</v>
       </c>
-      <c r="R1082" t="inlineStr"/>
+      <c r="R1082" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
@@ -61113,7 +61117,9 @@
       <c r="Q1083" t="n">
         <v>0</v>
       </c>
-      <c r="R1083" t="inlineStr"/>
+      <c r="R1083" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
@@ -61167,7 +61173,9 @@
       <c r="Q1084" t="n">
         <v>0</v>
       </c>
-      <c r="R1084" t="inlineStr"/>
+      <c r="R1084" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
@@ -61221,7 +61229,9 @@
       <c r="Q1085" t="n">
         <v>0</v>
       </c>
-      <c r="R1085" t="inlineStr"/>
+      <c r="R1085" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
@@ -61275,7 +61285,9 @@
       <c r="Q1086" t="n">
         <v>0</v>
       </c>
-      <c r="R1086" t="inlineStr"/>
+      <c r="R1086" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
@@ -61329,7 +61341,9 @@
       <c r="Q1087" t="n">
         <v>0</v>
       </c>
-      <c r="R1087" t="inlineStr"/>
+      <c r="R1087" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
@@ -61383,7 +61397,9 @@
       <c r="Q1088" t="n">
         <v>0</v>
       </c>
-      <c r="R1088" t="inlineStr"/>
+      <c r="R1088" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
@@ -61437,7 +61453,9 @@
       <c r="Q1089" t="n">
         <v>0</v>
       </c>
-      <c r="R1089" t="inlineStr"/>
+      <c r="R1089" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
@@ -61491,7 +61509,9 @@
       <c r="Q1090" t="n">
         <v>0</v>
       </c>
-      <c r="R1090" t="inlineStr"/>
+      <c r="R1090" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
@@ -61545,7 +61565,9 @@
       <c r="Q1091" t="n">
         <v>0</v>
       </c>
-      <c r="R1091" t="inlineStr"/>
+      <c r="R1091" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
@@ -61599,7 +61621,9 @@
       <c r="Q1092" t="n">
         <v>0</v>
       </c>
-      <c r="R1092" t="inlineStr"/>
+      <c r="R1092" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
@@ -61653,7 +61677,9 @@
       <c r="Q1093" t="n">
         <v>0</v>
       </c>
-      <c r="R1093" t="inlineStr"/>
+      <c r="R1093" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
@@ -61707,7 +61733,9 @@
       <c r="Q1094" t="n">
         <v>0</v>
       </c>
-      <c r="R1094" t="inlineStr"/>
+      <c r="R1094" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
@@ -61761,7 +61789,9 @@
       <c r="Q1095" t="n">
         <v>0</v>
       </c>
-      <c r="R1095" t="inlineStr"/>
+      <c r="R1095" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
@@ -61815,7 +61845,9 @@
       <c r="Q1096" t="n">
         <v>0</v>
       </c>
-      <c r="R1096" t="inlineStr"/>
+      <c r="R1096" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
@@ -61869,7 +61901,9 @@
       <c r="Q1097" t="n">
         <v>0</v>
       </c>
-      <c r="R1097" t="inlineStr"/>
+      <c r="R1097" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
@@ -61923,7 +61957,9 @@
       <c r="Q1098" t="n">
         <v>0</v>
       </c>
-      <c r="R1098" t="inlineStr"/>
+      <c r="R1098" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
@@ -61977,7 +62013,9 @@
       <c r="Q1099" t="n">
         <v>0</v>
       </c>
-      <c r="R1099" t="inlineStr"/>
+      <c r="R1099" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
@@ -62023,7 +62061,7 @@
         <v>26</v>
       </c>
       <c r="O1100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1100" t="n">
         <v>0</v>
@@ -62031,7 +62069,9 @@
       <c r="Q1100" t="n">
         <v>0</v>
       </c>
-      <c r="R1100" t="inlineStr"/>
+      <c r="R1100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
@@ -62085,7 +62125,765 @@
       <c r="Q1101" t="n">
         <v>0</v>
       </c>
-      <c r="R1101" t="inlineStr"/>
+      <c r="R1101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45468.38541666666</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>471</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>476.75</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>466.2999877929688</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>471.6000061035156</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>471.6000061035156</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>23119</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2" t="n">
+        <v>45468.42708333334</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>471.4500122070312</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>475</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>470.1499938964844</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>473.8500061035156</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>473.8500061035156</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>18577</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45468.46875</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>473.7000122070312</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>475</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>472</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>475</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>475</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>8331</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45468.51041666666</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>475</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>475</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>472</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>473.2999877929688</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>473.2999877929688</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>5999</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45468.55208333334</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>473.5499877929688</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>473.3999938964844</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>474.6000061035156</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>474.6000061035156</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>11266</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45468.59375</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>474.7000122070312</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>475</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>472.5499877929688</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>473.8999938964844</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>473.8999938964844</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>11662</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45468.63541666666</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>473.3500061035156</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>475</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>473</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>473.6000061035156</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>473.6000061035156</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45469.38541666666</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>475</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>474</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>474</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>474</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>25100</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45469.42708333334</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>473</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>477.5499877929688</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>472.2000122070312</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>15038</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2" t="n">
+        <v>45469.46875</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>480</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>479.8999938964844</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>479.8999938964844</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>17699</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2" t="n">
+        <v>45469.51041666666</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>479.8999938964844</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>484</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>479.8999938964844</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>483.7000122070312</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>483.7000122070312</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>22058</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>45469.55208333334</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>484</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>484.9500122070312</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>478</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>479.8500061035156</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>479.8500061035156</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>10770</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45469.59375</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>479.8999938964844</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>484.8500061035156</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>476.5</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>18414</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45469.63541666666</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>474</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>480.4500122070312</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>480.4500122070312</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>8648</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1115"/>
+  <dimension ref="A1:R1122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -62181,7 +62181,9 @@
       <c r="Q1102" t="n">
         <v>0</v>
       </c>
-      <c r="R1102" t="inlineStr"/>
+      <c r="R1102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
@@ -62235,7 +62237,9 @@
       <c r="Q1103" t="n">
         <v>0</v>
       </c>
-      <c r="R1103" t="inlineStr"/>
+      <c r="R1103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
@@ -62289,7 +62293,9 @@
       <c r="Q1104" t="n">
         <v>0</v>
       </c>
-      <c r="R1104" t="inlineStr"/>
+      <c r="R1104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
@@ -62343,7 +62349,9 @@
       <c r="Q1105" t="n">
         <v>0</v>
       </c>
-      <c r="R1105" t="inlineStr"/>
+      <c r="R1105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
@@ -62397,7 +62405,9 @@
       <c r="Q1106" t="n">
         <v>0</v>
       </c>
-      <c r="R1106" t="inlineStr"/>
+      <c r="R1106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
@@ -62451,7 +62461,9 @@
       <c r="Q1107" t="n">
         <v>0</v>
       </c>
-      <c r="R1107" t="inlineStr"/>
+      <c r="R1107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
@@ -62505,7 +62517,9 @@
       <c r="Q1108" t="n">
         <v>0</v>
       </c>
-      <c r="R1108" t="inlineStr"/>
+      <c r="R1108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
@@ -62559,7 +62573,9 @@
       <c r="Q1109" t="n">
         <v>0</v>
       </c>
-      <c r="R1109" t="inlineStr"/>
+      <c r="R1109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
@@ -62613,7 +62629,9 @@
       <c r="Q1110" t="n">
         <v>0</v>
       </c>
-      <c r="R1110" t="inlineStr"/>
+      <c r="R1110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
@@ -62667,7 +62685,9 @@
       <c r="Q1111" t="n">
         <v>0</v>
       </c>
-      <c r="R1111" t="inlineStr"/>
+      <c r="R1111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
@@ -62721,7 +62741,9 @@
       <c r="Q1112" t="n">
         <v>0</v>
       </c>
-      <c r="R1112" t="inlineStr"/>
+      <c r="R1112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
@@ -62775,7 +62797,9 @@
       <c r="Q1113" t="n">
         <v>0</v>
       </c>
-      <c r="R1113" t="inlineStr"/>
+      <c r="R1113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
@@ -62829,7 +62853,9 @@
       <c r="Q1114" t="n">
         <v>0</v>
       </c>
-      <c r="R1114" t="inlineStr"/>
+      <c r="R1114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
@@ -62883,7 +62909,387 @@
       <c r="Q1115" t="n">
         <v>0</v>
       </c>
-      <c r="R1115" t="inlineStr"/>
+      <c r="R1115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45470.38541666666</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>479.7999877929688</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>482.2000122070312</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>477.1000061035156</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>481.8500061035156</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>481.8500061035156</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45470.42708333334</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>481.9500122070312</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>472.9500122070312</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>476.8500061035156</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>476.8500061035156</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>13937</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45470.46875</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>478.25</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>483.7999877929688</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>476.8999938964844</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>482</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>482</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>5814</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45470.51041666666</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>479</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>481</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>481</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>12446</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45470.55208333334</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>480.9500122070312</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>464.0499877929688</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>464.0499877929688</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>464.0499877929688</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>19055</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45470.59375</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>465</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>468.2000122070312</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>458.2999877929688</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>464.1000061035156</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>464.1000061035156</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>29263</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45470.63541666666</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>464.2000122070312</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>469.9500122070312</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>462.2000122070312</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>464.3500061035156</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>464.3500061035156</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>6295</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1122"/>
+  <dimension ref="A1:R1129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62789,7 +62789,7 @@
         <v>26</v>
       </c>
       <c r="O1113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1113" t="n">
         <v>0</v>
@@ -62965,7 +62965,9 @@
       <c r="Q1116" t="n">
         <v>0</v>
       </c>
-      <c r="R1116" t="inlineStr"/>
+      <c r="R1116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
@@ -63019,7 +63021,9 @@
       <c r="Q1117" t="n">
         <v>0</v>
       </c>
-      <c r="R1117" t="inlineStr"/>
+      <c r="R1117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
@@ -63073,7 +63077,9 @@
       <c r="Q1118" t="n">
         <v>0</v>
       </c>
-      <c r="R1118" t="inlineStr"/>
+      <c r="R1118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
@@ -63127,7 +63133,9 @@
       <c r="Q1119" t="n">
         <v>0</v>
       </c>
-      <c r="R1119" t="inlineStr"/>
+      <c r="R1119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
@@ -63181,7 +63189,9 @@
       <c r="Q1120" t="n">
         <v>0</v>
       </c>
-      <c r="R1120" t="inlineStr"/>
+      <c r="R1120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
@@ -63235,7 +63245,9 @@
       <c r="Q1121" t="n">
         <v>0</v>
       </c>
-      <c r="R1121" t="inlineStr"/>
+      <c r="R1121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
@@ -63289,7 +63301,387 @@
       <c r="Q1122" t="n">
         <v>0</v>
       </c>
-      <c r="R1122" t="inlineStr"/>
+      <c r="R1122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45471.38541666666</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>469.8500061035156</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>478</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>462.3500061035156</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>474.5499877929688</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>474.5499877929688</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45471.42708333334</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>474.0499877929688</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>475</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>471.5499877929688</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>472.7999877929688</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>472.7999877929688</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>2866</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45471.46875</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>473.2000122070312</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>474.3999938964844</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>470.5499877929688</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>471.0499877929688</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>471.0499877929688</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>8317</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45471.51041666666</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>470.75</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>472.6499938964844</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>468.4500122070312</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>472</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>472</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>10148</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45471.55208333334</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>471.75</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>471.75</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>477.3999938964844</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>477.3999938964844</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>17232</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45471.59375</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>476.5499877929688</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>476.5499877929688</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>461.1000061035156</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>465.7999877929688</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>465.7999877929688</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>20947</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45471.63541666666</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>465.8500061035156</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>473</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>464.0499877929688</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>464.6499938964844</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>464.6499938964844</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>5893</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -63357,7 +63357,9 @@
       <c r="Q1123" t="n">
         <v>0</v>
       </c>
-      <c r="R1123" t="inlineStr"/>
+      <c r="R1123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
@@ -63411,7 +63413,9 @@
       <c r="Q1124" t="n">
         <v>2</v>
       </c>
-      <c r="R1124" t="inlineStr"/>
+      <c r="R1124" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
@@ -63465,7 +63469,9 @@
       <c r="Q1125" t="n">
         <v>0</v>
       </c>
-      <c r="R1125" t="inlineStr"/>
+      <c r="R1125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
@@ -63519,7 +63525,9 @@
       <c r="Q1126" t="n">
         <v>0</v>
       </c>
-      <c r="R1126" t="inlineStr"/>
+      <c r="R1126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
@@ -63573,7 +63581,9 @@
       <c r="Q1127" t="n">
         <v>0</v>
       </c>
-      <c r="R1127" t="inlineStr"/>
+      <c r="R1127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
@@ -63627,7 +63637,9 @@
       <c r="Q1128" t="n">
         <v>0</v>
       </c>
-      <c r="R1128" t="inlineStr"/>
+      <c r="R1128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
@@ -63681,7 +63693,9 @@
       <c r="Q1129" t="n">
         <v>0</v>
       </c>
-      <c r="R1129" t="inlineStr"/>
+      <c r="R1129" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1129"/>
+  <dimension ref="A1:R1136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63237,7 +63237,7 @@
         <v>26</v>
       </c>
       <c r="O1121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1121" t="n">
         <v>0</v>
@@ -63696,6 +63696,384 @@
       <c r="R1129" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45474.38541666666</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>468.7000122070312</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>472.4500122070312</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>464.8500061035156</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>469.5499877929688</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>469.5499877929688</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45474.42708333334</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>469.75</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>469.9500122070312</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>465.7000122070312</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>466.8500061035156</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>466.8500061035156</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>5468</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45474.46875</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>466.9500122070312</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>469.5499877929688</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>465.0499877929688</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>468.6499938964844</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>468.6499938964844</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>4870</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45474.51041666666</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>469.25</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>468.6499938964844</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>15351</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45474.55208333334</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>476.6499938964844</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>478</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>471.1000061035156</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>476.2999877929688</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>476.2999877929688</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>9805</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45474.59375</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>476.1499938964844</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>479.8500061035156</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>473.6000061035156</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>478.9500122070312</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>478.9500122070312</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>20035</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45474.63541666666</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>478.9500122070312</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>479.5</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>474.1000061035156</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>478.4500122070312</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>478.4500122070312</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>5759</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1136"/>
+  <dimension ref="A1:R1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63749,7 +63749,9 @@
       <c r="Q1130" t="n">
         <v>0</v>
       </c>
-      <c r="R1130" t="inlineStr"/>
+      <c r="R1130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
@@ -63803,7 +63805,9 @@
       <c r="Q1131" t="n">
         <v>0</v>
       </c>
-      <c r="R1131" t="inlineStr"/>
+      <c r="R1131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
@@ -63857,7 +63861,9 @@
       <c r="Q1132" t="n">
         <v>0</v>
       </c>
-      <c r="R1132" t="inlineStr"/>
+      <c r="R1132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
@@ -63911,7 +63917,9 @@
       <c r="Q1133" t="n">
         <v>0</v>
       </c>
-      <c r="R1133" t="inlineStr"/>
+      <c r="R1133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
@@ -63965,7 +63973,9 @@
       <c r="Q1134" t="n">
         <v>0</v>
       </c>
-      <c r="R1134" t="inlineStr"/>
+      <c r="R1134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1135">
       <c r="A1135" s="2" t="n">
@@ -64019,7 +64029,9 @@
       <c r="Q1135" t="n">
         <v>0</v>
       </c>
-      <c r="R1135" t="inlineStr"/>
+      <c r="R1135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
@@ -64073,7 +64085,387 @@
       <c r="Q1136" t="n">
         <v>0</v>
       </c>
-      <c r="R1136" t="inlineStr"/>
+      <c r="R1136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45475.38541666666</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>475</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>492.9500122070312</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>475</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>484.0499877929688</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>484.0499877929688</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45475.42708333334</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>484.1000061035156</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>484.9500122070312</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>482</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>483</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>483</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>7293</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45475.46875</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>482.5499877929688</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>484.9500122070312</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>480.7999877929688</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>480.7999877929688</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>480.7999877929688</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>7175</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45475.51041666666</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>480.7999877929688</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>480.7999877929688</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>473.7999877929688</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>473.8999938964844</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>473.8999938964844</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>5242</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45475.55208333334</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>473.2999877929688</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>480</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>473.0499877929688</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>479.75</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>479.75</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>9429</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45475.59375</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>478.0499877929688</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>486.3999938964844</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>478.0499877929688</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>482.2000122070312</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>482.2000122070312</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>22182</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45475.63541666666</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>482.6499938964844</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>486.8500061035156</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>478</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>482.6000061035156</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>482.6000061035156</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>9826</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1143"/>
+  <dimension ref="A1:R1150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64133,7 +64133,7 @@
         <v>27</v>
       </c>
       <c r="O1137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1137" t="n">
         <v>0</v>
@@ -64141,7 +64141,9 @@
       <c r="Q1137" t="n">
         <v>0</v>
       </c>
-      <c r="R1137" t="inlineStr"/>
+      <c r="R1137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
@@ -64195,7 +64197,9 @@
       <c r="Q1138" t="n">
         <v>0</v>
       </c>
-      <c r="R1138" t="inlineStr"/>
+      <c r="R1138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
@@ -64249,7 +64253,9 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
@@ -64303,7 +64309,9 @@
       <c r="Q1140" t="n">
         <v>0</v>
       </c>
-      <c r="R1140" t="inlineStr"/>
+      <c r="R1140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
@@ -64357,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
@@ -64411,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64465,7 +64477,387 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45476.38541666666</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>482.6000061035156</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>489.3500061035156</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>473.5499877929688</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>483.7999877929688</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>483.7999877929688</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45476.42708333334</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>484.5499877929688</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>485</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>480.6499938964844</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>482.7000122070312</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>482.7000122070312</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>6626</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45476.46875</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>482.7000122070312</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>482.75</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>480</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>481.3999938964844</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>481.3999938964844</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>3837</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45476.51041666666</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>481.25</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>489.8999938964844</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>481.25</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>487.7999877929688</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>487.7999877929688</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>27420</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45476.55208333334</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>488.75</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>489</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>488</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>488</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>6931</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45476.59375</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>488</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>489.8999938964844</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>486.9500122070312</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>488</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>488</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>15447</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45476.63541666666</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>488</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>488</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>484.6499938964844</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>487.8500061035156</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>487.8500061035156</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>8993</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1150"/>
+  <dimension ref="A1:R1157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64533,7 +64533,9 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64587,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64641,7 +64645,9 @@
       <c r="Q1146" t="n">
         <v>0</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64695,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64749,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>2</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64803,7 +64813,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64857,7 +64869,387 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45477.38541666666</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>489.8999938964844</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>493.9500122070312</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>487.0499877929688</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>491.5</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>491.5</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>29131</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45477.42708333334</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>491.1499938964844</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>492</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>488</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>488.6000061035156</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>488.6000061035156</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>12982</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45477.46875</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>488.5499877929688</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>498.8999938964844</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>488.5499877929688</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>494.6499938964844</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>494.6499938964844</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>83601</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45477.51041666666</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>495.4500122070312</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>496</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>492.25</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>493.1000061035156</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>493.1000061035156</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>12339</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45477.55208333334</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>493.5</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>500</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>492.8999938964844</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>498.8500061035156</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>498.8500061035156</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>22951</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45477.59375</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>498.6000061035156</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>489.3500061035156</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>491.5</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>491.5</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>19814</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45477.63541666666</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>491.75</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>493.8500061035156</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>489.0499877929688</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>491.2999877929688</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>491.2999877929688</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>11847</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1157"/>
+  <dimension ref="A1:R1164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64925,7 +64925,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64979,7 +64981,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65033,7 +65037,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65087,7 +65093,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65141,7 +65149,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65195,7 +65205,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65249,7 +65261,387 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45478.38541666666</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>499</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>499</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>478.2000122070312</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>480.4500122070312</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>480.4500122070312</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45478.42708333334</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>480.9500122070312</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>481.4500122070312</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>475.25</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>480</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>480</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>16407</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45478.46875</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>479.7999877929688</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>481.9500122070312</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>478.9500122070312</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>481.9500122070312</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>481.9500122070312</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>6875</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45478.51041666666</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>481.6000061035156</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>486.5</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>481.2999877929688</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>485.7999877929688</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>485.7999877929688</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>11311</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45478.55208333334</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>485.1000061035156</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>485.1000061035156</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>482.0499877929688</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>482.8999938964844</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>482.8999938964844</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>3868</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45478.59375</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>482.9500122070312</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>480</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>481.1000061035156</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>481.1000061035156</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>10141</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45478.63541666666</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>480.2999877929688</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>484.8999938964844</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>479.1000061035156</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>480.4500122070312</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>480.4500122070312</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>7839</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1164"/>
+  <dimension ref="A1:R1171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65141,7 +65141,7 @@
         <v>27</v>
       </c>
       <c r="O1155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1155" t="n">
         <v>0</v>
@@ -65317,7 +65317,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65371,7 +65373,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65425,7 +65429,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65479,7 +65485,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65533,7 +65541,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65587,7 +65597,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65641,7 +65653,387 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45481.38541666666</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>474.0499877929688</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>478</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>459.3999938964844</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>461.25</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>461.25</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45481.42708333334</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>461.25</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>463.75</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>459.25</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>460.3500061035156</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>460.3500061035156</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>21564</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45481.46875</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>461.3999938964844</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>484.2999877929688</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>461.3999938964844</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>483.1499938964844</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>483.1499938964844</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>35602</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45481.51041666666</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>483.1000061035156</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>492.3500061035156</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>482.9500122070312</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>489.5</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>489.5</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>31756</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45481.55208333334</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>489.6000061035156</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>490.6499938964844</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>484.9500122070312</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>488.1499938964844</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>488.1499938964844</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>16960</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45481.59375</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>488</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>492.9500122070312</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>482.75</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>492.9500122070312</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>492.9500122070312</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>28322</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45481.63541666666</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>492.6000061035156</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>492.7999877929688</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>490</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>491.2999877929688</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>491.2999877929688</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>14257</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1171"/>
+  <dimension ref="A1:R1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65709,7 +65709,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65755,7 +65757,7 @@
         <v>28</v>
       </c>
       <c r="O1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1166" t="n">
         <v>0</v>
@@ -65763,7 +65765,9 @@
       <c r="Q1166" t="n">
         <v>2</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65817,7 +65821,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65871,7 +65877,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65925,7 +65933,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65979,7 +65989,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -66033,7 +66045,387 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45482.38541666666</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>492.0499877929688</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>504.6000061035156</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>491.2999877929688</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>503</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>503</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>40850</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45482.42708333334</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>501.8500061035156</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>501.8500061035156</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>495</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>496.9500122070312</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>496.9500122070312</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>11789</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45482.46875</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>497.4500122070312</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>500</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>493.75</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>493.75</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>493.75</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>17809</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45482.51041666666</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>494</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>494.7999877929688</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>486.6499938964844</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>487.8999938964844</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>487.8999938964844</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>14598</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45482.55208333334</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>487.25</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>487.3500061035156</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>483.6000061035156</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>485.6499938964844</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>485.6499938964844</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>10008</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45482.59375</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>484.9500122070312</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>490.1499938964844</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>484.8999938964844</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>487.1499938964844</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>487.1499938964844</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>12993</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45482.63541666666</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>489</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>486.4500122070312</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>487.4500122070312</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>487.4500122070312</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>5982</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1178"/>
+  <dimension ref="A1:R1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66101,7 +66101,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66155,7 +66157,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66209,7 +66213,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66263,7 +66269,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66317,7 +66325,9 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66371,7 +66381,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66425,7 +66437,387 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45483.38541666666</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>490.0499877929688</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>509</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>490.0499877929688</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>501.7000122070312</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>501.7000122070312</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>69699</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45483.42708333334</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>500.3500061035156</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>503.9500122070312</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>492.5</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>496.3500061035156</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>496.3500061035156</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>44810</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45483.46875</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>496.6000061035156</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>525</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>496.6000061035156</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>515.2999877929688</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>515.2999877929688</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>111977</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45483.51041666666</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>514.3499755859375</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>516.25</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>511.0499877929688</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>515.0499877929688</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>515.0499877929688</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>35672</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45483.55208333334</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>515.0499877929688</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>521</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>511.1000061035156</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>515</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>515</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>36699</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45483.59375</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>515.4000244140625</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>536</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>514.25</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>522.9500122070312</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>522.9500122070312</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>119435</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45483.63541666666</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>522.3499755859375</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>529.9500122070312</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>522.3499755859375</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>528.3499755859375</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>528.3499755859375</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>26693</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1185"/>
+  <dimension ref="A1:R1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66493,7 +66493,9 @@
       <c r="Q1179" t="n">
         <v>0</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66547,7 +66549,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66601,7 +66605,9 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66655,7 +66661,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66709,7 +66717,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66763,7 +66773,9 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
@@ -66817,7 +66829,387 @@
       <c r="Q1185" t="n">
         <v>0</v>
       </c>
-      <c r="R1185" t="inlineStr"/>
+      <c r="R1185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45484.38541666666</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>528.25</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>528.25</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>520.0999755859375</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>522.9000244140625</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>522.9000244140625</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>113099</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45484.42708333334</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>522.5499877929688</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>523.4000244140625</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>517</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>517.5</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>517.5</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>23426</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45484.46875</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>517.5</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>521.9500122070312</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>507.9500122070312</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>510</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>510</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>33633</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45484.51041666666</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>509.25</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>512.5</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>505.1499938964844</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>510.5</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>510.5</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>44096</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45484.55208333334</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>511</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>513.7999877929688</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>508.2000122070312</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>508.2000122070312</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>13854</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45484.59375</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>508.1000061035156</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>514.7000122070312</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>508.1000061035156</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>513.0499877929688</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>513.0499877929688</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>16753</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45484.63541666666</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>512.1500244140625</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>520.7999877929688</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>506</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>512.75</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>512.75</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>23538</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1192"/>
+  <dimension ref="A1:R1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66765,7 +66765,7 @@
         <v>28</v>
       </c>
       <c r="O1184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1184" t="n">
         <v>0</v>
@@ -66885,7 +66885,9 @@
       <c r="Q1186" t="n">
         <v>0</v>
       </c>
-      <c r="R1186" t="inlineStr"/>
+      <c r="R1186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
@@ -66939,7 +66941,9 @@
       <c r="Q1187" t="n">
         <v>0</v>
       </c>
-      <c r="R1187" t="inlineStr"/>
+      <c r="R1187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
@@ -66993,7 +66997,9 @@
       <c r="Q1188" t="n">
         <v>0</v>
       </c>
-      <c r="R1188" t="inlineStr"/>
+      <c r="R1188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
@@ -67047,7 +67053,9 @@
       <c r="Q1189" t="n">
         <v>0</v>
       </c>
-      <c r="R1189" t="inlineStr"/>
+      <c r="R1189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
@@ -67101,7 +67109,9 @@
       <c r="Q1190" t="n">
         <v>0</v>
       </c>
-      <c r="R1190" t="inlineStr"/>
+      <c r="R1190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
@@ -67155,7 +67165,9 @@
       <c r="Q1191" t="n">
         <v>0</v>
       </c>
-      <c r="R1191" t="inlineStr"/>
+      <c r="R1191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
@@ -67209,7 +67221,387 @@
       <c r="Q1192" t="n">
         <v>0</v>
       </c>
-      <c r="R1192" t="inlineStr"/>
+      <c r="R1192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45485.38541666666</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>506</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>531.9000244140625</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>502.8500061035156</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>519.3499755859375</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>519.3499755859375</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2" t="n">
+        <v>45485.42708333334</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>520</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>523</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>518.1500244140625</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>519.3499755859375</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>519.3499755859375</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>20842</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2" t="n">
+        <v>45485.46875</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>519.4000244140625</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>524.9000244140625</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>513.0999755859375</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>522.75</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>522.75</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>23353</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1195" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2" t="n">
+        <v>45485.51041666666</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>522.7000122070312</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>523.9500122070312</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>518.2000122070312</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>520.5499877929688</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>520.5499877929688</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>6041</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1196" t="inlineStr"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2" t="n">
+        <v>45485.55208333334</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>520.5499877929688</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>532</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>519.5499877929688</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>524.3499755859375</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>524.3499755859375</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>43893</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2" t="n">
+        <v>45485.59375</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>524.9000244140625</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>525</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>521.2000122070312</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>524.3499755859375</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>524.3499755859375</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>14039</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2" t="n">
+        <v>45485.63541666666</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>524.4000244140625</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>525</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>515</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>521.4000244140625</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>521.4000244140625</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>16051</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1199"/>
+  <dimension ref="A1:R1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67269,7 +67269,7 @@
         <v>28</v>
       </c>
       <c r="O1193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1193" t="n">
         <v>0</v>
@@ -67277,7 +67277,9 @@
       <c r="Q1193" t="n">
         <v>0</v>
       </c>
-      <c r="R1193" t="inlineStr"/>
+      <c r="R1193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
@@ -67331,7 +67333,9 @@
       <c r="Q1194" t="n">
         <v>0</v>
       </c>
-      <c r="R1194" t="inlineStr"/>
+      <c r="R1194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
@@ -67385,7 +67389,9 @@
       <c r="Q1195" t="n">
         <v>2</v>
       </c>
-      <c r="R1195" t="inlineStr"/>
+      <c r="R1195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
@@ -67439,7 +67445,9 @@
       <c r="Q1196" t="n">
         <v>0</v>
       </c>
-      <c r="R1196" t="inlineStr"/>
+      <c r="R1196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
@@ -67493,7 +67501,9 @@
       <c r="Q1197" t="n">
         <v>0</v>
       </c>
-      <c r="R1197" t="inlineStr"/>
+      <c r="R1197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
@@ -67547,7 +67557,9 @@
       <c r="Q1198" t="n">
         <v>0</v>
       </c>
-      <c r="R1198" t="inlineStr"/>
+      <c r="R1198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
@@ -67601,7 +67613,387 @@
       <c r="Q1199" t="n">
         <v>0</v>
       </c>
-      <c r="R1199" t="inlineStr"/>
+      <c r="R1199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45488.38541666666</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>518</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>505.1499938964844</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>513.4000244140625</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>513.4000244140625</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45488.42708333334</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>513.4000244140625</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>517</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>509.1499938964844</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>517</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>517</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>13218</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45488.46875</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>517.9500122070312</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>524.6500244140625</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>517.0999755859375</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>519.7999877929688</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>519.7999877929688</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>21342</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45488.51041666666</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>519.7999877929688</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>519.7999877929688</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>6113</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45488.55208333334</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>514.5499877929688</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>520.2999877929688</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>518.4500122070312</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>518.4500122070312</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>9365</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45488.59375</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>524</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>517.2999877929688</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>517.2999877929688</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>517.2999877929688</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>18644</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45488.63541666666</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>518.3499755859375</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>521.9500122070312</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>516</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>518.5</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>518.5</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>5196</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1206" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1206"/>
+  <dimension ref="A1:R1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="R154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="R280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="R296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="R300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -18558,7 +18558,7 @@
         <v>2</v>
       </c>
       <c r="R323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -23094,7 +23094,7 @@
         <v>2</v>
       </c>
       <c r="R404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="R413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -24550,7 +24550,7 @@
         <v>2</v>
       </c>
       <c r="R430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="R452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="R504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -31606,7 +31606,7 @@
         <v>1</v>
       </c>
       <c r="R556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -35078,7 +35078,7 @@
         <v>0</v>
       </c>
       <c r="R618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -37038,7 +37038,7 @@
         <v>0</v>
       </c>
       <c r="R653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -39054,7 +39054,7 @@
         <v>0</v>
       </c>
       <c r="R689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -39782,7 +39782,7 @@
         <v>0</v>
       </c>
       <c r="R702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -42806,7 +42806,7 @@
         <v>2</v>
       </c>
       <c r="R756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -44374,7 +44374,7 @@
         <v>1</v>
       </c>
       <c r="R784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -44822,7 +44822,7 @@
         <v>2</v>
       </c>
       <c r="R792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -45550,7 +45550,7 @@
         <v>1</v>
       </c>
       <c r="R805" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806">
@@ -48406,7 +48406,7 @@
         <v>1</v>
       </c>
       <c r="R856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857">
@@ -50030,7 +50030,7 @@
         <v>1</v>
       </c>
       <c r="R885" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -51318,7 +51318,7 @@
         <v>2</v>
       </c>
       <c r="R908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909">
@@ -52438,7 +52438,7 @@
         <v>0</v>
       </c>
       <c r="R928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -54398,7 +54398,7 @@
         <v>2</v>
       </c>
       <c r="R963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -56638,7 +56638,7 @@
         <v>1</v>
       </c>
       <c r="R1003" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004">
@@ -57478,7 +57478,7 @@
         <v>1</v>
       </c>
       <c r="R1018" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019">
@@ -65766,7 +65766,7 @@
         <v>2</v>
       </c>
       <c r="R1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167">
@@ -66382,7 +66382,7 @@
         <v>0</v>
       </c>
       <c r="R1177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178">
@@ -67390,7 +67390,7 @@
         <v>2</v>
       </c>
       <c r="R1195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196">
@@ -67669,7 +67669,9 @@
       <c r="Q1200" t="n">
         <v>0</v>
       </c>
-      <c r="R1200" t="inlineStr"/>
+      <c r="R1200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
@@ -67723,7 +67725,9 @@
       <c r="Q1201" t="n">
         <v>0</v>
       </c>
-      <c r="R1201" t="inlineStr"/>
+      <c r="R1201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
@@ -67777,7 +67781,9 @@
       <c r="Q1202" t="n">
         <v>0</v>
       </c>
-      <c r="R1202" t="inlineStr"/>
+      <c r="R1202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
@@ -67831,7 +67837,9 @@
       <c r="Q1203" t="n">
         <v>0</v>
       </c>
-      <c r="R1203" t="inlineStr"/>
+      <c r="R1203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
@@ -67885,7 +67893,9 @@
       <c r="Q1204" t="n">
         <v>0</v>
       </c>
-      <c r="R1204" t="inlineStr"/>
+      <c r="R1204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
@@ -67939,7 +67949,9 @@
       <c r="Q1205" t="n">
         <v>0</v>
       </c>
-      <c r="R1205" t="inlineStr"/>
+      <c r="R1205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
@@ -67993,7 +68005,387 @@
       <c r="Q1206" t="n">
         <v>0</v>
       </c>
-      <c r="R1206" t="inlineStr"/>
+      <c r="R1206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45489.38541666666</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>523.0499877929688</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>547</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>523.0499877929688</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>540.25</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>540.25</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45489.42708333334</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>540.2999877929688</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>553.1500244140625</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>540.2999877929688</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>547.2000122070312</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>547.2000122070312</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>136995</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45489.46875</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>548.0499877929688</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>549.0999755859375</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>537</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>538.5499877929688</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>538.5499877929688</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>26939</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45489.51041666666</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>539.5</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>541</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>534</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>534</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>534</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>9768</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45489.55208333334</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>534</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>541</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>530.5</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>536.9000244140625</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>536.9000244140625</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>20972</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45489.59375</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>535.2999877929688</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>536.4000244140625</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>531.7000122070312</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>532.25</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>532.25</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>8497</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45489.63541666666</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>531.2000122070312</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>540</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>530.0999755859375</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>536.0999755859375</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>536.0999755859375</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>20629</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1213" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="R109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="R122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="R154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="R280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="R296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="R300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -18558,7 +18558,7 @@
         <v>2</v>
       </c>
       <c r="R323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -23094,7 +23094,7 @@
         <v>2</v>
       </c>
       <c r="R404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="R413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -24550,7 +24550,7 @@
         <v>2</v>
       </c>
       <c r="R430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="R452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="R504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -31606,7 +31606,7 @@
         <v>1</v>
       </c>
       <c r="R556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -35078,7 +35078,7 @@
         <v>0</v>
       </c>
       <c r="R618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -37038,7 +37038,7 @@
         <v>0</v>
       </c>
       <c r="R653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -39054,7 +39054,7 @@
         <v>0</v>
       </c>
       <c r="R689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -39782,7 +39782,7 @@
         <v>0</v>
       </c>
       <c r="R702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -42806,7 +42806,7 @@
         <v>2</v>
       </c>
       <c r="R756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -44374,7 +44374,7 @@
         <v>1</v>
       </c>
       <c r="R784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -44822,7 +44822,7 @@
         <v>2</v>
       </c>
       <c r="R792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793">
@@ -45550,7 +45550,7 @@
         <v>1</v>
       </c>
       <c r="R805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806">
@@ -48406,7 +48406,7 @@
         <v>1</v>
       </c>
       <c r="R856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857">
@@ -50030,7 +50030,7 @@
         <v>1</v>
       </c>
       <c r="R885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886">
@@ -51318,7 +51318,7 @@
         <v>2</v>
       </c>
       <c r="R908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909">
@@ -52438,7 +52438,7 @@
         <v>0</v>
       </c>
       <c r="R928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929">
@@ -54398,7 +54398,7 @@
         <v>2</v>
       </c>
       <c r="R963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964">
@@ -56638,7 +56638,7 @@
         <v>1</v>
       </c>
       <c r="R1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004">
@@ -57478,7 +57478,7 @@
         <v>1</v>
       </c>
       <c r="R1018" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019">
@@ -65766,7 +65766,7 @@
         <v>2</v>
       </c>
       <c r="R1166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167">
@@ -66382,7 +66382,7 @@
         <v>0</v>
       </c>
       <c r="R1177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178">
@@ -67390,7 +67390,7 @@
         <v>2</v>
       </c>
       <c r="R1195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196">
@@ -67894,7 +67894,7 @@
         <v>0</v>
       </c>
       <c r="R1204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205">
@@ -68061,7 +68061,9 @@
       <c r="Q1207" t="n">
         <v>0</v>
       </c>
-      <c r="R1207" t="inlineStr"/>
+      <c r="R1207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
@@ -68115,7 +68117,9 @@
       <c r="Q1208" t="n">
         <v>0</v>
       </c>
-      <c r="R1208" t="inlineStr"/>
+      <c r="R1208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
@@ -68169,7 +68173,9 @@
       <c r="Q1209" t="n">
         <v>0</v>
       </c>
-      <c r="R1209" t="inlineStr"/>
+      <c r="R1209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
@@ -68223,7 +68229,9 @@
       <c r="Q1210" t="n">
         <v>0</v>
       </c>
-      <c r="R1210" t="inlineStr"/>
+      <c r="R1210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
@@ -68277,7 +68285,9 @@
       <c r="Q1211" t="n">
         <v>0</v>
       </c>
-      <c r="R1211" t="inlineStr"/>
+      <c r="R1211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
@@ -68331,7 +68341,9 @@
       <c r="Q1212" t="n">
         <v>0</v>
       </c>
-      <c r="R1212" t="inlineStr"/>
+      <c r="R1212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
@@ -68385,7 +68397,9 @@
       <c r="Q1213" t="n">
         <v>0</v>
       </c>
-      <c r="R1213" t="inlineStr"/>
+      <c r="R1213" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1213"/>
+  <dimension ref="A1:R1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68401,6 +68401,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45491.38541666666</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>536.0999755859375</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>546.7999877929688</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>532.4500122070312</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>542.6500244140625</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>542.6500244140625</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45491.42708333334</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>543.3499755859375</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>543.6500244140625</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>539</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>542.7999877929688</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>542.7999877929688</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>24692</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45491.46875</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>542</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>579.9500122070312</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>540.3499755859375</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>559.2999877929688</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>559.2999877929688</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>154828</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45491.51041666666</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>560</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>563.6500244140625</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>554</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>558.4500122070312</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>558.4500122070312</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>26169</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1217" t="inlineStr"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45491.55208333334</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>559.5</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>562.8499755859375</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>557.25</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>559</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>559</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>13365</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45491.59375</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>559</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>569</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>555.75</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>565.9000244140625</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>565.9000244140625</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>20765</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45491.63541666666</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>565.25</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>565.25</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>556.9500122070312</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>561.9500122070312</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>561.9500122070312</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>28621</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1220" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1220"/>
+  <dimension ref="A1:R1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68453,7 +68453,9 @@
       <c r="Q1214" t="n">
         <v>0</v>
       </c>
-      <c r="R1214" t="inlineStr"/>
+      <c r="R1214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
@@ -68507,7 +68509,9 @@
       <c r="Q1215" t="n">
         <v>0</v>
       </c>
-      <c r="R1215" t="inlineStr"/>
+      <c r="R1215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
@@ -68553,7 +68557,7 @@
         <v>29</v>
       </c>
       <c r="O1216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1216" t="n">
         <v>0</v>
@@ -68561,7 +68565,9 @@
       <c r="Q1216" t="n">
         <v>0</v>
       </c>
-      <c r="R1216" t="inlineStr"/>
+      <c r="R1216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
@@ -68615,7 +68621,9 @@
       <c r="Q1217" t="n">
         <v>0</v>
       </c>
-      <c r="R1217" t="inlineStr"/>
+      <c r="R1217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
@@ -68669,7 +68677,9 @@
       <c r="Q1218" t="n">
         <v>0</v>
       </c>
-      <c r="R1218" t="inlineStr"/>
+      <c r="R1218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
@@ -68723,7 +68733,9 @@
       <c r="Q1219" t="n">
         <v>0</v>
       </c>
-      <c r="R1219" t="inlineStr"/>
+      <c r="R1219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
@@ -68777,7 +68789,387 @@
       <c r="Q1220" t="n">
         <v>0</v>
       </c>
-      <c r="R1220" t="inlineStr"/>
+      <c r="R1220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2" t="n">
+        <v>45492.38541666666</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>553.5</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>560.75</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>540</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>540</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>540</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>38292</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2" t="n">
+        <v>45492.42708333334</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>540</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>549.3499755859375</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>532.0499877929688</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>532.0499877929688</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>532.0499877929688</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>38836</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2" t="n">
+        <v>45492.46875</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>531.5499877929688</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>539.9500122070312</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>529.7000122070312</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>535.5499877929688</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>535.5499877929688</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>28344</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2" t="n">
+        <v>45492.51041666666</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>535.25</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>547</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>534.0499877929688</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>542.3499755859375</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>542.3499755859375</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>16086</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2" t="n">
+        <v>45492.55208333334</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>542.7999877929688</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>549.5</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>540.4000244140625</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>542.7999877929688</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>542.7999877929688</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>9999</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2" t="n">
+        <v>45492.59375</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>543.6500244140625</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>546.5999755859375</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>533.7000122070312</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>533.9000244140625</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>533.9000244140625</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>13851</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2" t="n">
+        <v>45492.63541666666</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>534</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>545</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>533.7000122070312</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>537.7999877929688</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>537.7999877929688</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>9926</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1227"/>
+  <dimension ref="A1:R1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68845,7 +68845,9 @@
       <c r="Q1221" t="n">
         <v>0</v>
       </c>
-      <c r="R1221" t="inlineStr"/>
+      <c r="R1221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
@@ -68899,7 +68901,9 @@
       <c r="Q1222" t="n">
         <v>0</v>
       </c>
-      <c r="R1222" t="inlineStr"/>
+      <c r="R1222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
@@ -68945,7 +68949,7 @@
         <v>29</v>
       </c>
       <c r="O1223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1223" t="n">
         <v>0</v>
@@ -68953,7 +68957,9 @@
       <c r="Q1223" t="n">
         <v>0</v>
       </c>
-      <c r="R1223" t="inlineStr"/>
+      <c r="R1223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
@@ -69007,7 +69013,9 @@
       <c r="Q1224" t="n">
         <v>0</v>
       </c>
-      <c r="R1224" t="inlineStr"/>
+      <c r="R1224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
@@ -69061,7 +69069,9 @@
       <c r="Q1225" t="n">
         <v>0</v>
       </c>
-      <c r="R1225" t="inlineStr"/>
+      <c r="R1225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
@@ -69115,7 +69125,9 @@
       <c r="Q1226" t="n">
         <v>0</v>
       </c>
-      <c r="R1226" t="inlineStr"/>
+      <c r="R1226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
@@ -69169,7 +69181,387 @@
       <c r="Q1227" t="n">
         <v>2</v>
       </c>
-      <c r="R1227" t="inlineStr"/>
+      <c r="R1227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2" t="n">
+        <v>45495.38541666666</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>537.75</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>564</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>530.0499877929688</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>561.4500122070312</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>561.4500122070312</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2" t="n">
+        <v>45495.42708333334</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>561.5499877929688</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>565.75</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>554.0499877929688</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>556.5499877929688</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>556.5499877929688</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>20125</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45495.46875</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>555.7999877929688</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>560</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>545.3499755859375</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>550.5499877929688</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>550.5499877929688</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>12839</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2" t="n">
+        <v>45495.51041666666</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>550.25</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>553.9500122070312</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>547.1500244140625</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>551.6500244140625</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>551.6500244140625</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>10484</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2" t="n">
+        <v>45495.55208333334</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>551</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>553</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>544.7999877929688</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>550</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>550</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>12049</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2" t="n">
+        <v>45495.59375</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>550</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>550.4500122070312</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>537.7000122070312</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>541.9000244140625</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>541.9000244140625</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>14379</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2" t="n">
+        <v>45495.63541666666</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>541.9500122070312</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>541.9500122070312</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>535.0999755859375</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>538.9500122070312</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>538.9500122070312</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>9672</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1234" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1234"/>
+  <dimension ref="A1:R1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69237,7 +69237,9 @@
       <c r="Q1228" t="n">
         <v>0</v>
       </c>
-      <c r="R1228" t="inlineStr"/>
+      <c r="R1228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
@@ -69291,7 +69293,9 @@
       <c r="Q1229" t="n">
         <v>0</v>
       </c>
-      <c r="R1229" t="inlineStr"/>
+      <c r="R1229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
@@ -69345,7 +69349,9 @@
       <c r="Q1230" t="n">
         <v>0</v>
       </c>
-      <c r="R1230" t="inlineStr"/>
+      <c r="R1230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
@@ -69399,7 +69405,9 @@
       <c r="Q1231" t="n">
         <v>0</v>
       </c>
-      <c r="R1231" t="inlineStr"/>
+      <c r="R1231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
@@ -69453,7 +69461,9 @@
       <c r="Q1232" t="n">
         <v>0</v>
       </c>
-      <c r="R1232" t="inlineStr"/>
+      <c r="R1232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
@@ -69507,7 +69517,9 @@
       <c r="Q1233" t="n">
         <v>0</v>
       </c>
-      <c r="R1233" t="inlineStr"/>
+      <c r="R1233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
@@ -69561,7 +69573,387 @@
       <c r="Q1234" t="n">
         <v>0</v>
       </c>
-      <c r="R1234" t="inlineStr"/>
+      <c r="R1234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2" t="n">
+        <v>45496.38541666666</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>537.0499877929688</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>543.1500244140625</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>534.2999877929688</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>536.0999755859375</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>536.0999755859375</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>19651</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2" t="n">
+        <v>45496.42708333334</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>535</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>543.9500122070312</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>532.5499877929688</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>543.3499755859375</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>543.3499755859375</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>25359</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2" t="n">
+        <v>45496.46875</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>544</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>544</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>537.1500244140625</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>543.3499755859375</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>543.3499755859375</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>7364</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2" t="n">
+        <v>45496.51041666666</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>543.4500122070312</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>552.0999755859375</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>520.0499877929688</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>543.6500244140625</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>543.6500244140625</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>61959</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
+        <v>45496.55208333334</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>542.9500122070312</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>547.5499877929688</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>519.1500244140625</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>529.4500122070312</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>529.4500122070312</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>70430</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
+        <v>45496.59375</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>528.7000122070312</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>532.7999877929688</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>521.3499755859375</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>529.1500244140625</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>529.1500244140625</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>24950</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2" t="n">
+        <v>45496.63541666666</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>529.1500244140625</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>539</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>523.9500122070312</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>528.7999877929688</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>528.7999877929688</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>7721</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1241" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1241" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1241"/>
+  <dimension ref="A1:R1248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69629,7 +69629,9 @@
       <c r="Q1235" t="n">
         <v>0</v>
       </c>
-      <c r="R1235" t="inlineStr"/>
+      <c r="R1235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
@@ -69683,7 +69685,9 @@
       <c r="Q1236" t="n">
         <v>0</v>
       </c>
-      <c r="R1236" t="inlineStr"/>
+      <c r="R1236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
@@ -69737,7 +69741,9 @@
       <c r="Q1237" t="n">
         <v>0</v>
       </c>
-      <c r="R1237" t="inlineStr"/>
+      <c r="R1237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
@@ -69791,7 +69797,9 @@
       <c r="Q1238" t="n">
         <v>0</v>
       </c>
-      <c r="R1238" t="inlineStr"/>
+      <c r="R1238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
@@ -69845,7 +69853,9 @@
       <c r="Q1239" t="n">
         <v>0</v>
       </c>
-      <c r="R1239" t="inlineStr"/>
+      <c r="R1239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
@@ -69899,7 +69909,9 @@
       <c r="Q1240" t="n">
         <v>0</v>
       </c>
-      <c r="R1240" t="inlineStr"/>
+      <c r="R1240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" s="2" t="n">
@@ -69953,7 +69965,387 @@
       <c r="Q1241" t="n">
         <v>0</v>
       </c>
-      <c r="R1241" t="inlineStr"/>
+      <c r="R1241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2" t="n">
+        <v>45497.38541666666</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>534</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>555</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>530.0499877929688</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>545.9500122070312</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>545.9500122070312</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>43547</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2" t="n">
+        <v>45497.42708333334</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>545.0999755859375</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>551.6500244140625</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>542.0999755859375</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>551.6500244140625</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>551.6500244140625</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>25982</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2" t="n">
+        <v>45497.46875</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>551.7000122070312</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>551.7000122070312</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>548.6500244140625</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>550.4000244140625</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>550.4000244140625</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>11249</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2" t="n">
+        <v>45497.51041666666</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>550.4000244140625</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>551.25</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>540.75</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>545.8499755859375</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>545.8499755859375</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>13792</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2" t="n">
+        <v>45497.55208333334</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>545.0999755859375</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>545.8499755859375</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>536.6500244140625</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>536.6500244140625</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>536.6500244140625</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>12630</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2" t="n">
+        <v>45497.59375</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>536</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>540.2000122070312</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>531.2999877929688</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>531.2999877929688</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>531.2999877929688</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>22582</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45497.63541666666</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>531.5999755859375</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>539.9500122070312</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>530</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>533.1500244140625</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>533.1500244140625</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>11174</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1248" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1248"/>
+  <dimension ref="A1:R1255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69845,7 +69845,7 @@
         <v>30</v>
       </c>
       <c r="O1239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1239" t="n">
         <v>0</v>
@@ -70013,7 +70013,7 @@
         <v>30</v>
       </c>
       <c r="O1242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1242" t="n">
         <v>0</v>
@@ -70021,7 +70021,9 @@
       <c r="Q1242" t="n">
         <v>0</v>
       </c>
-      <c r="R1242" t="inlineStr"/>
+      <c r="R1242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
@@ -70075,7 +70077,9 @@
       <c r="Q1243" t="n">
         <v>0</v>
       </c>
-      <c r="R1243" t="inlineStr"/>
+      <c r="R1243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
@@ -70129,7 +70133,9 @@
       <c r="Q1244" t="n">
         <v>0</v>
       </c>
-      <c r="R1244" t="inlineStr"/>
+      <c r="R1244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1245">
       <c r="A1245" s="2" t="n">
@@ -70183,7 +70189,9 @@
       <c r="Q1245" t="n">
         <v>0</v>
       </c>
-      <c r="R1245" t="inlineStr"/>
+      <c r="R1245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1246">
       <c r="A1246" s="2" t="n">
@@ -70237,7 +70245,9 @@
       <c r="Q1246" t="n">
         <v>0</v>
       </c>
-      <c r="R1246" t="inlineStr"/>
+      <c r="R1246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" s="2" t="n">
@@ -70291,7 +70301,9 @@
       <c r="Q1247" t="n">
         <v>0</v>
       </c>
-      <c r="R1247" t="inlineStr"/>
+      <c r="R1247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1248">
       <c r="A1248" s="2" t="n">
@@ -70345,7 +70357,387 @@
       <c r="Q1248" t="n">
         <v>0</v>
       </c>
-      <c r="R1248" t="inlineStr"/>
+      <c r="R1248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45498.38541666666</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>530.0499877929688</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>542.2999877929688</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>527.5999755859375</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>533.75</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>533.75</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45498.42708333334</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>533.5</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>538.25</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>531</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>536.8499755859375</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>536.8499755859375</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>4883</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45498.46875</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>539</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>543.9000244140625</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>539</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>541.4500122070312</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>541.4500122070312</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>9109</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45498.51041666666</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>541.9500122070312</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>543.7999877929688</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>540.4500122070312</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>541.4000244140625</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>541.4000244140625</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>4256</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45498.55208333334</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>540.5499877929688</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>542.1500244140625</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>540.0499877929688</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>540.0499877929688</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>540.0499877929688</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>20288</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45498.59375</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>540.0499877929688</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>543.9500122070312</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>540.0499877929688</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>541</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>541</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>7609</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2" t="n">
+        <v>45498.63541666666</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>541</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>543</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>540.0499877929688</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>540.2999877929688</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>540.2999877929688</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>5536</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1255" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1255"/>
+  <dimension ref="A1:R1262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70413,7 +70413,9 @@
       <c r="Q1249" t="n">
         <v>0</v>
       </c>
-      <c r="R1249" t="inlineStr"/>
+      <c r="R1249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" s="2" t="n">
@@ -70467,7 +70469,9 @@
       <c r="Q1250" t="n">
         <v>0</v>
       </c>
-      <c r="R1250" t="inlineStr"/>
+      <c r="R1250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
@@ -70521,7 +70525,9 @@
       <c r="Q1251" t="n">
         <v>0</v>
       </c>
-      <c r="R1251" t="inlineStr"/>
+      <c r="R1251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
@@ -70575,7 +70581,9 @@
       <c r="Q1252" t="n">
         <v>0</v>
       </c>
-      <c r="R1252" t="inlineStr"/>
+      <c r="R1252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2" t="n">
@@ -70629,7 +70637,9 @@
       <c r="Q1253" t="n">
         <v>2</v>
       </c>
-      <c r="R1253" t="inlineStr"/>
+      <c r="R1253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
@@ -70683,7 +70693,9 @@
       <c r="Q1254" t="n">
         <v>0</v>
       </c>
-      <c r="R1254" t="inlineStr"/>
+      <c r="R1254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2" t="n">
@@ -70737,7 +70749,387 @@
       <c r="Q1255" t="n">
         <v>0</v>
       </c>
-      <c r="R1255" t="inlineStr"/>
+      <c r="R1255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2" t="n">
+        <v>45499.38541666666</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>542.9500122070312</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>550.75</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>542.9500122070312</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>549.4500122070312</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>549.4500122070312</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>8812</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2" t="n">
+        <v>45499.42708333334</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>549.7999877929688</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>555</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>547</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>547.5499877929688</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>547.5499877929688</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>16941</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2" t="n">
+        <v>45499.46875</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>547.0999755859375</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>549.3499755859375</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>545.9500122070312</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>547.2000122070312</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>547.2000122070312</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>3172</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1258" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2" t="n">
+        <v>45499.51041666666</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>546.7000122070312</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>549.25</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>546.0999755859375</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>548.9000244140625</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>548.9000244140625</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>2877</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1259" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2" t="n">
+        <v>45499.55208333334</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>548.9000244140625</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>553.4500122070312</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>547.3499755859375</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>550.4500122070312</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>550.4500122070312</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>7893</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1260" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2" t="n">
+        <v>45499.59375</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>550.5</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>550.5</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>543.9500122070312</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>546.0499877929688</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>546.0499877929688</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>13356</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1261" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2" t="n">
+        <v>45499.63541666666</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>545.2999877929688</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>550.4000244140625</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>540</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>547.1500244140625</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>547.1500244140625</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>8393</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1262" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1262"/>
+  <dimension ref="A1:R1269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70805,7 +70805,9 @@
       <c r="Q1256" t="n">
         <v>0</v>
       </c>
-      <c r="R1256" t="inlineStr"/>
+      <c r="R1256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
@@ -70859,7 +70861,9 @@
       <c r="Q1257" t="n">
         <v>0</v>
       </c>
-      <c r="R1257" t="inlineStr"/>
+      <c r="R1257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
@@ -70913,7 +70917,9 @@
       <c r="Q1258" t="n">
         <v>0</v>
       </c>
-      <c r="R1258" t="inlineStr"/>
+      <c r="R1258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
@@ -70967,7 +70973,9 @@
       <c r="Q1259" t="n">
         <v>0</v>
       </c>
-      <c r="R1259" t="inlineStr"/>
+      <c r="R1259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" s="2" t="n">
@@ -71021,7 +71029,9 @@
       <c r="Q1260" t="n">
         <v>0</v>
       </c>
-      <c r="R1260" t="inlineStr"/>
+      <c r="R1260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" s="2" t="n">
@@ -71075,7 +71085,9 @@
       <c r="Q1261" t="n">
         <v>0</v>
       </c>
-      <c r="R1261" t="inlineStr"/>
+      <c r="R1261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1262">
       <c r="A1262" s="2" t="n">
@@ -71129,7 +71141,387 @@
       <c r="Q1262" t="n">
         <v>0</v>
       </c>
-      <c r="R1262" t="inlineStr"/>
+      <c r="R1262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2" t="n">
+        <v>45502.38541666666</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>551</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>556.9500122070312</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>550.3499755859375</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>552</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>552</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2" t="n">
+        <v>45502.42708333334</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>551.9500122070312</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>559.7000122070312</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>551.2999877929688</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>559.7000122070312</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>559.7000122070312</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>10451</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45502.46875</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>559.75</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>573.1500244140625</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>558.6500244140625</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>569</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>569</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>36019</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45502.51041666666</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>567.5499877929688</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>568.2000122070312</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>556.75</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>561.9000244140625</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>561.9000244140625</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>22767</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45502.55208333334</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>561.9000244140625</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>563.8499755859375</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>555.9000244140625</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>557.75</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>557.75</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>7437</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45502.59375</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>557.0499877929688</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>564.9500122070312</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>555.7999877929688</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>564.6500244140625</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>564.6500244140625</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>8724</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45502.63541666666</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>564.8499755859375</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>568.0499877929688</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>564.25</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>565.0499877929688</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>565.0499877929688</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>3516</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1269"/>
+  <dimension ref="A1:R1276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71133,7 +71133,7 @@
         <v>30</v>
       </c>
       <c r="O1262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1262" t="n">
         <v>0</v>
@@ -71197,7 +71197,9 @@
       <c r="Q1263" t="n">
         <v>0</v>
       </c>
-      <c r="R1263" t="inlineStr"/>
+      <c r="R1263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1264">
       <c r="A1264" s="2" t="n">
@@ -71251,7 +71253,9 @@
       <c r="Q1264" t="n">
         <v>0</v>
       </c>
-      <c r="R1264" t="inlineStr"/>
+      <c r="R1264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1265">
       <c r="A1265" s="2" t="n">
@@ -71297,7 +71301,7 @@
         <v>31</v>
       </c>
       <c r="O1265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1265" t="n">
         <v>0</v>
@@ -71305,7 +71309,9 @@
       <c r="Q1265" t="n">
         <v>0</v>
       </c>
-      <c r="R1265" t="inlineStr"/>
+      <c r="R1265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
@@ -71359,7 +71365,9 @@
       <c r="Q1266" t="n">
         <v>0</v>
       </c>
-      <c r="R1266" t="inlineStr"/>
+      <c r="R1266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1267">
       <c r="A1267" s="2" t="n">
@@ -71413,7 +71421,9 @@
       <c r="Q1267" t="n">
         <v>0</v>
       </c>
-      <c r="R1267" t="inlineStr"/>
+      <c r="R1267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1268">
       <c r="A1268" s="2" t="n">
@@ -71467,7 +71477,9 @@
       <c r="Q1268" t="n">
         <v>0</v>
       </c>
-      <c r="R1268" t="inlineStr"/>
+      <c r="R1268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1269">
       <c r="A1269" s="2" t="n">
@@ -71521,7 +71533,387 @@
       <c r="Q1269" t="n">
         <v>0</v>
       </c>
-      <c r="R1269" t="inlineStr"/>
+      <c r="R1269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45503.38541666666</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>565.3499755859375</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>567</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>562.25</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>564.5999755859375</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>564.5999755859375</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>17283</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45503.42708333334</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>564.6500244140625</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>568</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>564.6500244140625</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>567.0999755859375</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>567.0999755859375</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>10781</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45503.46875</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>566.5499877929688</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>567.0499877929688</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>561.4500122070312</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>562.9500122070312</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>562.9500122070312</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>3739</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45503.51041666666</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>561.5</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>565.75</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>561.0499877929688</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>564.0999755859375</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>564.0999755859375</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>3383</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45503.55208333334</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>564.2000122070312</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>564.2999877929688</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>562.25</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>562.5</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>562.5</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>4554</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45503.59375</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>562.5</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>566</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>561.6500244140625</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>563.7999877929688</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>563.7999877929688</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>20556</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45503.63541666666</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>564.2999877929688</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>566</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>562.3499755859375</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>564.7999877929688</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>564.7999877929688</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>3459</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1276" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1276"/>
+  <dimension ref="A1:R1283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71589,7 +71589,9 @@
       <c r="Q1270" t="n">
         <v>0</v>
       </c>
-      <c r="R1270" t="inlineStr"/>
+      <c r="R1270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" s="2" t="n">
@@ -71643,7 +71645,9 @@
       <c r="Q1271" t="n">
         <v>0</v>
       </c>
-      <c r="R1271" t="inlineStr"/>
+      <c r="R1271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1272">
       <c r="A1272" s="2" t="n">
@@ -71697,7 +71701,9 @@
       <c r="Q1272" t="n">
         <v>0</v>
       </c>
-      <c r="R1272" t="inlineStr"/>
+      <c r="R1272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1273">
       <c r="A1273" s="2" t="n">
@@ -71751,7 +71757,9 @@
       <c r="Q1273" t="n">
         <v>1</v>
       </c>
-      <c r="R1273" t="inlineStr"/>
+      <c r="R1273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1274">
       <c r="A1274" s="2" t="n">
@@ -71805,7 +71813,9 @@
       <c r="Q1274" t="n">
         <v>0</v>
       </c>
-      <c r="R1274" t="inlineStr"/>
+      <c r="R1274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1275">
       <c r="A1275" s="2" t="n">
@@ -71859,7 +71869,9 @@
       <c r="Q1275" t="n">
         <v>0</v>
       </c>
-      <c r="R1275" t="inlineStr"/>
+      <c r="R1275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" s="2" t="n">
@@ -71913,7 +71925,387 @@
       <c r="Q1276" t="n">
         <v>2</v>
       </c>
-      <c r="R1276" t="inlineStr"/>
+      <c r="R1276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45504.38541666666</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>574</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>574</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>562.2000122070312</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>563</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>563</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45504.42708333334</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>563.2000122070312</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>563.4000244140625</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>552</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>552.9500122070312</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>552.9500122070312</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>12108</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45504.46875</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>552.3499755859375</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>556.8499755859375</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>552.0499877929688</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>553.4500122070312</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>553.4500122070312</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>7764</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45504.51041666666</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>552.0999755859375</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>553.9000244140625</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>551.9500122070312</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>553.9000244140625</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>553.9000244140625</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>2968</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45504.55208333334</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>553.0999755859375</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>558.25</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>553</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>556.6500244140625</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>556.6500244140625</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>3712</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45504.59375</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>557.5999755859375</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>557.5999755859375</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>552</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>553.5</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>553.5</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>5869</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45504.63541666666</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>553.0499877929688</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>553.0499877929688</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>540</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>546.9000244140625</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>546.9000244140625</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>18186</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1283"/>
+  <dimension ref="A1:R1290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71973,7 +71973,7 @@
         <v>31</v>
       </c>
       <c r="O1277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1277" t="n">
         <v>0</v>
@@ -71981,7 +71981,9 @@
       <c r="Q1277" t="n">
         <v>0</v>
       </c>
-      <c r="R1277" t="inlineStr"/>
+      <c r="R1277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" s="2" t="n">
@@ -72035,7 +72037,9 @@
       <c r="Q1278" t="n">
         <v>0</v>
       </c>
-      <c r="R1278" t="inlineStr"/>
+      <c r="R1278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="2" t="n">
@@ -72089,7 +72093,9 @@
       <c r="Q1279" t="n">
         <v>0</v>
       </c>
-      <c r="R1279" t="inlineStr"/>
+      <c r="R1279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" s="2" t="n">
@@ -72143,7 +72149,9 @@
       <c r="Q1280" t="n">
         <v>0</v>
       </c>
-      <c r="R1280" t="inlineStr"/>
+      <c r="R1280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1281">
       <c r="A1281" s="2" t="n">
@@ -72197,7 +72205,9 @@
       <c r="Q1281" t="n">
         <v>0</v>
       </c>
-      <c r="R1281" t="inlineStr"/>
+      <c r="R1281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" s="2" t="n">
@@ -72251,7 +72261,9 @@
       <c r="Q1282" t="n">
         <v>0</v>
       </c>
-      <c r="R1282" t="inlineStr"/>
+      <c r="R1282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1283">
       <c r="A1283" s="2" t="n">
@@ -72305,7 +72317,387 @@
       <c r="Q1283" t="n">
         <v>0</v>
       </c>
-      <c r="R1283" t="inlineStr"/>
+      <c r="R1283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45505.38541666666</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>545</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>556.2999877929688</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>541.0499877929688</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>554.8499755859375</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>554.8499755859375</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>17332</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45505.42708333334</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>555.9500122070312</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>558.75</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>551</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>554.9500122070312</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>554.9500122070312</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>7865</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45505.46875</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>554.9000244140625</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>562</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>554.3499755859375</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>555.0499877929688</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>555.0499877929688</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45505.51041666666</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>554.7999877929688</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>554.7999877929688</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>550.0499877929688</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>550.0499877929688</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>550.0499877929688</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>35701</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45505.55208333334</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>550.25</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>554.0499877929688</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>547.6500244140625</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>554.0499877929688</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>554.0499877929688</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>6407</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45505.59375</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>555.4000244140625</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>558.75</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>551.3499755859375</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>557.9000244140625</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>557.9000244140625</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>2961</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45505.63541666666</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>556.7999877929688</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>557.5999755859375</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>552.0999755859375</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>554.3499755859375</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>554.3499755859375</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>58737</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1290" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1290"/>
+  <dimension ref="A1:R1297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72309,7 +72309,7 @@
         <v>31</v>
       </c>
       <c r="O1283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1283" t="n">
         <v>0</v>
@@ -72373,7 +72373,9 @@
       <c r="Q1284" t="n">
         <v>0</v>
       </c>
-      <c r="R1284" t="inlineStr"/>
+      <c r="R1284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" s="2" t="n">
@@ -72427,7 +72429,9 @@
       <c r="Q1285" t="n">
         <v>0</v>
       </c>
-      <c r="R1285" t="inlineStr"/>
+      <c r="R1285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" s="2" t="n">
@@ -72481,7 +72485,9 @@
       <c r="Q1286" t="n">
         <v>0</v>
       </c>
-      <c r="R1286" t="inlineStr"/>
+      <c r="R1286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" s="2" t="n">
@@ -72535,7 +72541,9 @@
       <c r="Q1287" t="n">
         <v>0</v>
       </c>
-      <c r="R1287" t="inlineStr"/>
+      <c r="R1287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" s="2" t="n">
@@ -72589,7 +72597,9 @@
       <c r="Q1288" t="n">
         <v>2</v>
       </c>
-      <c r="R1288" t="inlineStr"/>
+      <c r="R1288" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1289">
       <c r="A1289" s="2" t="n">
@@ -72643,7 +72653,9 @@
       <c r="Q1289" t="n">
         <v>0</v>
       </c>
-      <c r="R1289" t="inlineStr"/>
+      <c r="R1289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" s="2" t="n">
@@ -72697,7 +72709,387 @@
       <c r="Q1290" t="n">
         <v>0</v>
       </c>
-      <c r="R1290" t="inlineStr"/>
+      <c r="R1290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45506.38541666666</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>552.3499755859375</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>552.3499755859375</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>541.5</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>550.2999877929688</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>550.2999877929688</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45506.42708333334</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>550</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>588</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>550</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>566.7000122070312</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>566.7000122070312</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>34591</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45506.46875</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>565.2000122070312</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>567.0999755859375</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>554.5999755859375</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>560.0499877929688</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>560.0499877929688</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>10871</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45506.51041666666</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>559</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>560</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>555.0499877929688</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>557.8499755859375</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>557.8499755859375</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>2580</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45506.55208333334</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>558.2999877929688</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>559.9500122070312</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>549</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>549</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>549</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>16634</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45506.59375</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>549</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>551.4500122070312</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>547</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>551.3499755859375</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>551.3499755859375</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>8075</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45506.63541666666</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>551.3499755859375</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>551.3499755859375</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>547.2000122070312</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>549.4500122070312</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>549.4500122070312</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>5518</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1297"/>
+  <dimension ref="A1:R1304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72765,7 +72765,9 @@
       <c r="Q1291" t="n">
         <v>0</v>
       </c>
-      <c r="R1291" t="inlineStr"/>
+      <c r="R1291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" s="2" t="n">
@@ -72811,7 +72813,7 @@
         <v>31</v>
       </c>
       <c r="O1292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1292" t="n">
         <v>0</v>
@@ -72819,7 +72821,9 @@
       <c r="Q1292" t="n">
         <v>0</v>
       </c>
-      <c r="R1292" t="inlineStr"/>
+      <c r="R1292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" s="2" t="n">
@@ -72873,7 +72877,9 @@
       <c r="Q1293" t="n">
         <v>0</v>
       </c>
-      <c r="R1293" t="inlineStr"/>
+      <c r="R1293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" s="2" t="n">
@@ -72927,7 +72933,9 @@
       <c r="Q1294" t="n">
         <v>1</v>
       </c>
-      <c r="R1294" t="inlineStr"/>
+      <c r="R1294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" s="2" t="n">
@@ -72981,7 +72989,9 @@
       <c r="Q1295" t="n">
         <v>0</v>
       </c>
-      <c r="R1295" t="inlineStr"/>
+      <c r="R1295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" s="2" t="n">
@@ -73035,7 +73045,9 @@
       <c r="Q1296" t="n">
         <v>0</v>
       </c>
-      <c r="R1296" t="inlineStr"/>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1297">
       <c r="A1297" s="2" t="n">
@@ -73089,7 +73101,387 @@
       <c r="Q1297" t="n">
         <v>0</v>
       </c>
-      <c r="R1297" t="inlineStr"/>
+      <c r="R1297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45509.38541666666</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>521.0499877929688</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>535</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>516.0499877929688</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>529.9000244140625</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>529.9000244140625</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>18334</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45509.42708333334</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>529</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>529.4500122070312</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>516.0999755859375</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>517.5999755859375</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>517.5999755859375</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>28120</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45509.46875</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>516.9500122070312</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>518.7999877929688</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>494.5499877929688</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>511.7000122070312</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>511.7000122070312</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>77303</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45509.51041666666</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>512.9000244140625</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>517</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>504.4500122070312</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>506.25</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>506.25</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>32776</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45509.55208333334</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>506.2999877929688</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>513</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>505.7000122070312</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>512.25</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>512.25</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>19806</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45509.59375</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>511.2000122070312</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>505.3999938964844</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>506.2000122070312</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>506.2000122070312</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>21281</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45509.63541666666</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>507.2999877929688</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>510.4500122070312</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>505.1000061035156</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>508.3500061035156</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>508.3500061035156</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>15593</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1304"/>
+  <dimension ref="A1:R1311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73157,7 +73157,9 @@
       <c r="Q1298" t="n">
         <v>0</v>
       </c>
-      <c r="R1298" t="inlineStr"/>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
@@ -73211,7 +73213,9 @@
       <c r="Q1299" t="n">
         <v>0</v>
       </c>
-      <c r="R1299" t="inlineStr"/>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
@@ -73257,7 +73261,7 @@
         <v>32</v>
       </c>
       <c r="O1300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1300" t="n">
         <v>0</v>
@@ -73265,7 +73269,9 @@
       <c r="Q1300" t="n">
         <v>0</v>
       </c>
-      <c r="R1300" t="inlineStr"/>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1301">
       <c r="A1301" s="2" t="n">
@@ -73319,7 +73325,9 @@
       <c r="Q1301" t="n">
         <v>0</v>
       </c>
-      <c r="R1301" t="inlineStr"/>
+      <c r="R1301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1302">
       <c r="A1302" s="2" t="n">
@@ -73373,7 +73381,9 @@
       <c r="Q1302" t="n">
         <v>0</v>
       </c>
-      <c r="R1302" t="inlineStr"/>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1303">
       <c r="A1303" s="2" t="n">
@@ -73427,7 +73437,9 @@
       <c r="Q1303" t="n">
         <v>2</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1304">
       <c r="A1304" s="2" t="n">
@@ -73481,7 +73493,387 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45510.38541666666</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>529</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>538.7000122070312</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>517.2999877929688</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>529.5</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>529.5</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>46197</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45510.42708333334</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>529.3499755859375</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>530.7999877929688</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>525.8499755859375</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>527.9500122070312</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>527.9500122070312</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>11123</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45510.46875</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>527.9500122070312</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>540</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>525.9500122070312</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>538</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>538</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>25413</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45510.51041666666</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>538</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>538</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>529.0499877929688</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>530.5999755859375</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>530.5999755859375</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>31064</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45510.55208333334</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>530.7000122070312</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>531.75</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>528.1500244140625</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>528.1500244140625</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>528.1500244140625</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>11394</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45510.59375</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>528.0499877929688</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>534.5499877929688</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>524.4500122070312</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>524.5499877929688</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>524.5499877929688</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>24200</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45510.63541666666</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>524.5499877929688</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>528</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>524.0499877929688</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>525.5499877929688</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>525.5499877929688</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>4115</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1311"/>
+  <dimension ref="A1:R1318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73549,7 +73549,9 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" s="2" t="n">
@@ -73603,7 +73605,9 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1307">
       <c r="A1307" s="2" t="n">
@@ -73657,7 +73661,9 @@
       <c r="Q1307" t="n">
         <v>0</v>
       </c>
-      <c r="R1307" t="inlineStr"/>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1308">
       <c r="A1308" s="2" t="n">
@@ -73711,7 +73717,9 @@
       <c r="Q1308" t="n">
         <v>0</v>
       </c>
-      <c r="R1308" t="inlineStr"/>
+      <c r="R1308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" s="2" t="n">
@@ -73765,7 +73773,9 @@
       <c r="Q1309" t="n">
         <v>0</v>
       </c>
-      <c r="R1309" t="inlineStr"/>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" s="2" t="n">
@@ -73819,7 +73829,9 @@
       <c r="Q1310" t="n">
         <v>0</v>
       </c>
-      <c r="R1310" t="inlineStr"/>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1311">
       <c r="A1311" s="2" t="n">
@@ -73873,7 +73885,387 @@
       <c r="Q1311" t="n">
         <v>0</v>
       </c>
-      <c r="R1311" t="inlineStr"/>
+      <c r="R1311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45511.38541666666</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>533</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>561.9000244140625</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>531.2999877929688</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>534.6500244140625</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>534.6500244140625</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45511.42708333334</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>534.6500244140625</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>548.2000122070312</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>532.1500244140625</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>533.9000244140625</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>533.9000244140625</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>63227</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45511.46875</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>534.7999877929688</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>535</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>530</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>531</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>531</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>7088</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45511.51041666666</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>531.8499755859375</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>532.7999877929688</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>530</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>530</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>5109</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45511.55208333334</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>530.9500122070312</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>535</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>528</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>530.2999877929688</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>530.2999877929688</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>6762</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45511.59375</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>530.2000122070312</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>530.5999755859375</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>526</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>528.7999877929688</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>528.7999877929688</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>9684</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45511.63541666666</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>528.9500122070312</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>530.7000122070312</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>525</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>527.5999755859375</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>527.5999755859375</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>8994</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1318"/>
+  <dimension ref="A1:R1325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73933,7 +73933,7 @@
         <v>32</v>
       </c>
       <c r="O1312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1312" t="n">
         <v>0</v>
@@ -73941,7 +73941,9 @@
       <c r="Q1312" t="n">
         <v>0</v>
       </c>
-      <c r="R1312" t="inlineStr"/>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1313">
       <c r="A1313" s="2" t="n">
@@ -73995,7 +73997,9 @@
       <c r="Q1313" t="n">
         <v>0</v>
       </c>
-      <c r="R1313" t="inlineStr"/>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" s="2" t="n">
@@ -74049,7 +74053,9 @@
       <c r="Q1314" t="n">
         <v>0</v>
       </c>
-      <c r="R1314" t="inlineStr"/>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1315">
       <c r="A1315" s="2" t="n">
@@ -74103,7 +74109,9 @@
       <c r="Q1315" t="n">
         <v>0</v>
       </c>
-      <c r="R1315" t="inlineStr"/>
+      <c r="R1315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1316">
       <c r="A1316" s="2" t="n">
@@ -74157,7 +74165,9 @@
       <c r="Q1316" t="n">
         <v>0</v>
       </c>
-      <c r="R1316" t="inlineStr"/>
+      <c r="R1316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1317">
       <c r="A1317" s="2" t="n">
@@ -74211,7 +74221,9 @@
       <c r="Q1317" t="n">
         <v>0</v>
       </c>
-      <c r="R1317" t="inlineStr"/>
+      <c r="R1317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1318">
       <c r="A1318" s="2" t="n">
@@ -74265,7 +74277,387 @@
       <c r="Q1318" t="n">
         <v>0</v>
       </c>
-      <c r="R1318" t="inlineStr"/>
+      <c r="R1318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45512.38541666666</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>531.7000122070312</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>550.5</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>530.2000122070312</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>546.25</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>546.25</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>119118</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45512.42708333334</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>546.6500244140625</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>547.3499755859375</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>534.0999755859375</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>535.7999877929688</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>535.7999877929688</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>47604</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45512.46875</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>535.75</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>539.0999755859375</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>532.1500244140625</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>534</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>534</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>23126</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45512.51041666666</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>534</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>534</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>531.25</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>532.0499877929688</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>532.0499877929688</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>10821</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45512.55208333334</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>532.2000122070312</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>534.9500122070312</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>525.8499755859375</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>525.8499755859375</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>525.8499755859375</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>45845</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45512.59375</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>525.4000244140625</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>526.6500244140625</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>524.2000122070312</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>525.7000122070312</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>525.7000122070312</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>8450</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45512.63541666666</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>525.2000122070312</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>525.5499877929688</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>520</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>523.1500244140625</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>523.1500244140625</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>15599</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1325"/>
+  <dimension ref="A1:R1332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74333,7 +74333,9 @@
       <c r="Q1319" t="n">
         <v>0</v>
       </c>
-      <c r="R1319" t="inlineStr"/>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1320">
       <c r="A1320" s="2" t="n">
@@ -74387,7 +74389,9 @@
       <c r="Q1320" t="n">
         <v>0</v>
       </c>
-      <c r="R1320" t="inlineStr"/>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" s="2" t="n">
@@ -74441,7 +74445,9 @@
       <c r="Q1321" t="n">
         <v>0</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1322">
       <c r="A1322" s="2" t="n">
@@ -74495,7 +74501,9 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1323">
       <c r="A1323" s="2" t="n">
@@ -74549,7 +74557,9 @@
       <c r="Q1323" t="n">
         <v>2</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="2" t="n">
@@ -74603,7 +74613,9 @@
       <c r="Q1324" t="n">
         <v>0</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1325">
       <c r="A1325" s="2" t="n">
@@ -74657,7 +74669,387 @@
       <c r="Q1325" t="n">
         <v>0</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45513.38541666666</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>535</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>517.5499877929688</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>520.1500244140625</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>520.1500244140625</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45513.42708333334</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>520.6500244140625</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>525.7999877929688</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>517.2999877929688</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>520.7000122070312</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>520.7000122070312</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>20278</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45513.46875</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>521.5</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>527</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>521.0499877929688</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>522.7999877929688</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>522.7999877929688</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>14446</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45513.51041666666</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>522.7999877929688</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>527.2999877929688</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>520.25</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>525.2999877929688</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>525.2999877929688</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>19286</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45513.55208333334</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>527.5</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>527.75</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>524.0999755859375</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>526.9000244140625</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>526.9000244140625</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>5656</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45513.59375</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>526.7999877929688</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>532.7000122070312</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>524.2000122070312</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>532</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>532</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>14877</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45513.63541666666</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>532</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>533</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>527.8499755859375</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>530.75</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>530.75</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>14359</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1332"/>
+  <dimension ref="A1:R1339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74725,7 +74725,9 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1327">
       <c r="A1327" s="2" t="n">
@@ -74779,7 +74781,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" s="2" t="n">
@@ -74833,7 +74837,9 @@
       <c r="Q1328" t="n">
         <v>0</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1329">
       <c r="A1329" s="2" t="n">
@@ -74887,7 +74893,9 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1330">
       <c r="A1330" s="2" t="n">
@@ -74941,7 +74949,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -74995,7 +75005,9 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1332">
       <c r="A1332" s="2" t="n">
@@ -75049,7 +75061,387 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45516.38541666666</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>534.6500244140625</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>516</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>533.5</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>533.5</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45516.42708333334</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>534.75</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>549.2000122070312</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>533.9000244140625</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>543</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>543</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>56204</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45516.46875</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>543</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>545</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>540.6500244140625</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>542.6500244140625</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>542.6500244140625</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>16936</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45516.51041666666</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>542.2000122070312</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>542.2000122070312</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>537.7999877929688</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>539.5999755859375</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>539.5999755859375</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>8390</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45516.55208333334</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>539.5999755859375</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>541</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>538.8499755859375</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>540.4500122070312</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>540.4500122070312</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>10119</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45516.59375</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>540.4000244140625</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>541</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>535.1500244140625</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>539</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>539</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>15032</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45516.63541666666</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>538.75</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>538.8499755859375</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>532.9000244140625</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>536.7999877929688</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>536.7999877929688</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>9407</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1339"/>
+  <dimension ref="A1:R1346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75109,7 +75109,7 @@
         <v>33</v>
       </c>
       <c r="O1333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1333" t="n">
         <v>0</v>
@@ -75117,7 +75117,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75171,7 +75173,9 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" s="2" t="n">
@@ -75225,7 +75229,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75279,7 +75285,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75333,7 +75341,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75387,7 +75397,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75441,7 +75453,387 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45517.38541666666</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>537.2999877929688</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>564</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>537.2999877929688</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>553.9500122070312</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>553.9500122070312</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45517.42708333334</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>553.9500122070312</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>558.5999755859375</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>548.7999877929688</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>558.2000122070312</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>558.2000122070312</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>33454</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45517.46875</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>558.2000122070312</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>587.4000244140625</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>556.7999877929688</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>580.0499877929688</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>580.0499877929688</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>201740</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45517.51041666666</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>580.9000244140625</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>591.9000244140625</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>578.6500244140625</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>584.7000122070312</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>584.7000122070312</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>99223</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45517.55208333334</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>585</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>588.7999877929688</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>571.2999877929688</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>576</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>576</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>46181</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45517.59375</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>576</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>599.7999877929688</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>575.2000122070312</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>585.7000122070312</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>585.7000122070312</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>186047</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45517.63541666666</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>586.7000122070312</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>589.8499755859375</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>576.2999877929688</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>589.8499755859375</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>589.8499755859375</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>41152</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1346"/>
+  <dimension ref="A1:R1353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75509,7 +75509,9 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75563,7 +75565,9 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" s="2" t="n">
@@ -75617,7 +75621,9 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75671,7 +75677,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="2" t="n">
@@ -75725,7 +75733,9 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="2" t="n">
@@ -75779,7 +75789,9 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" s="2" t="n">
@@ -75833,7 +75845,387 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45518.38541666666</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>580.0999755859375</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>586.7999877929688</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>568.0499877929688</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>580.8499755859375</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>580.8499755859375</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>88891</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45518.42708333334</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>582.7000122070312</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>571.2000122070312</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>571.3499755859375</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>571.3499755859375</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>18741</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45518.46875</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>571</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>572.3499755859375</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>564.0499877929688</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>568.0999755859375</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>568.0999755859375</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>31097</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45518.51041666666</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>568.9500122070312</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>570.1500244140625</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>563.7999877929688</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>566.5</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>566.5</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>19699</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45518.55208333334</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>565.8499755859375</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>568.8499755859375</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>561.0499877929688</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>567.0999755859375</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>567.0999755859375</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>21235</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45518.59375</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>567</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>567.4000244140625</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>556.5</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>557.7000122070312</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>557.7000122070312</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>30247</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45518.63541666666</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>558.5999755859375</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>571</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>556.6500244140625</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>561.9500122070312</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>561.9500122070312</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>29282</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -75901,7 +75901,9 @@
       <c r="Q1347" t="n">
         <v>0</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75955,7 +75957,9 @@
       <c r="Q1348" t="n">
         <v>0</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -76009,7 +76013,9 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -76063,7 +76069,9 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" s="2" t="n">
@@ -76117,7 +76125,9 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" s="2" t="n">
@@ -76171,7 +76181,9 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" s="2" t="n">
@@ -76225,7 +76237,9 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1353"/>
+  <dimension ref="A1:R1360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75781,7 +75781,7 @@
         <v>33</v>
       </c>
       <c r="O1345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1345" t="n">
         <v>0</v>
@@ -76240,6 +76240,384 @@
       <c r="R1353" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45520.38541666666</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>575.4000244140625</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>575.4000244140625</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>560.1500244140625</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>562</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>562</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>35940</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45520.42708333334</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>562.0999755859375</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>579.3499755859375</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>558.9500122070312</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>569.4500122070312</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>569.4500122070312</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>41894</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45520.46875</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>568.7999877929688</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>582.7000122070312</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>568</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>575.3499755859375</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>575.3499755859375</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>21142</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45520.51041666666</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>575.4000244140625</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>575.4000244140625</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>568.25</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>568.25</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>568.25</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>10329</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45520.55208333334</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>568.1500244140625</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>576.9000244140625</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>568</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>574.25</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>574.25</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>11610</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45520.59375</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>573.6500244140625</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>577</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>571.4500122070312</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>573.25</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>573.25</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>10546</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45520.63541666666</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>572.75</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>573.6500244140625</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>565.9500122070312</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>570.0499877929688</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>570.0499877929688</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>16832</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1360"/>
+  <dimension ref="A1:R1367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76173,7 +76173,7 @@
         <v>33</v>
       </c>
       <c r="O1352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1352" t="n">
         <v>0</v>
@@ -76293,7 +76293,9 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" s="2" t="n">
@@ -76347,7 +76349,9 @@
       <c r="Q1355" t="n">
         <v>0</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1356">
       <c r="A1356" s="2" t="n">
@@ -76401,7 +76405,9 @@
       <c r="Q1356" t="n">
         <v>0</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76455,7 +76461,9 @@
       <c r="Q1357" t="n">
         <v>0</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" s="2" t="n">
@@ -76509,7 +76517,9 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" s="2" t="n">
@@ -76563,7 +76573,9 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" s="2" t="n">
@@ -76617,7 +76629,387 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45523.38541666666</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>575.0999755859375</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>604</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>575.0999755859375</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>603.5499877929688</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>603.5499877929688</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45523.42708333334</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>603</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>604</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>592.6500244140625</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>600.3499755859375</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>600.3499755859375</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>44640</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45523.46875</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>599.9000244140625</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>616.0999755859375</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>598.5999755859375</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>612.0499877929688</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>612.0499877929688</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>82875</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45523.51041666666</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>612.5499877929688</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>618</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>610.7999877929688</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>611</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>611</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>23540</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45523.55208333334</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>611</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>612.2999877929688</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>608.0999755859375</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>609.4000244140625</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>609.4000244140625</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>12552</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45523.59375</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>609.4000244140625</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>612.5999755859375</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>605.6500244140625</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>26725</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45523.63541666666</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>608.3499755859375</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>619</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>608.3499755859375</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>613</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>613</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>29337</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1367"/>
+  <dimension ref="A1:R1374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76685,7 +76685,9 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="2" t="n">
@@ -76739,7 +76741,9 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" s="2" t="n">
@@ -76793,7 +76797,9 @@
       <c r="Q1363" t="n">
         <v>0</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="2" t="n">
@@ -76847,7 +76853,9 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="2" t="n">
@@ -76901,7 +76909,9 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="2" t="n">
@@ -76955,7 +76965,9 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="2" t="n">
@@ -77009,7 +77021,387 @@
       <c r="Q1367" t="n">
         <v>0</v>
       </c>
-      <c r="R1367" t="inlineStr"/>
+      <c r="R1367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45524.38541666666</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>619</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>634.2999877929688</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>610.2999877929688</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>620.9000244140625</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>620.9000244140625</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45524.42708333334</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>620.9000244140625</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>621.4000244140625</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>616</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>616.5</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>616.5</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>25916</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45524.46875</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>616.5</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>616.8499755859375</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>600.5</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>604.9500122070312</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>604.9500122070312</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>52507</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45524.51041666666</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>604.1500244140625</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>605.9500122070312</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>600.0999755859375</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>601.8499755859375</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>601.8499755859375</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>13540</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45524.55208333334</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>600.75</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>601.9500122070312</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>595.2000122070312</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>595.2000122070312</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>595.2000122070312</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>16718</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45524.59375</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>595.25</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>598.8499755859375</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>592.3499755859375</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>596</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>596</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>32331</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45524.63541666666</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>596.5999755859375</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>597.5</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>590</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>594.5499877929688</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>594.5499877929688</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>24437</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1374"/>
+  <dimension ref="A1:R1381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77069,7 +77069,7 @@
         <v>34</v>
       </c>
       <c r="O1368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1368" t="n">
         <v>0</v>
@@ -77077,7 +77077,9 @@
       <c r="Q1368" t="n">
         <v>0</v>
       </c>
-      <c r="R1368" t="inlineStr"/>
+      <c r="R1368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
@@ -77131,7 +77133,9 @@
       <c r="Q1369" t="n">
         <v>0</v>
       </c>
-      <c r="R1369" t="inlineStr"/>
+      <c r="R1369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
@@ -77185,7 +77189,9 @@
       <c r="Q1370" t="n">
         <v>0</v>
       </c>
-      <c r="R1370" t="inlineStr"/>
+      <c r="R1370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" s="2" t="n">
@@ -77239,7 +77245,9 @@
       <c r="Q1371" t="n">
         <v>0</v>
       </c>
-      <c r="R1371" t="inlineStr"/>
+      <c r="R1371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="2" t="n">
@@ -77293,7 +77301,9 @@
       <c r="Q1372" t="n">
         <v>0</v>
       </c>
-      <c r="R1372" t="inlineStr"/>
+      <c r="R1372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" s="2" t="n">
@@ -77347,7 +77357,9 @@
       <c r="Q1373" t="n">
         <v>0</v>
       </c>
-      <c r="R1373" t="inlineStr"/>
+      <c r="R1373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" s="2" t="n">
@@ -77401,7 +77413,387 @@
       <c r="Q1374" t="n">
         <v>0</v>
       </c>
-      <c r="R1374" t="inlineStr"/>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45525.38541666666</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>595.7999877929688</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>595.4000244140625</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>612.0499877929688</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>612.0499877929688</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45525.42708333334</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>612.0499877929688</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>616.9000244140625</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>609.6500244140625</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>609.7999877929688</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>609.7999877929688</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>13641</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45525.46875</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>609.7999877929688</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>615.5499877929688</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>609.7999877929688</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>612.0499877929688</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>612.0499877929688</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>12320</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45525.51041666666</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>612</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>623.0499877929688</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>610.0999755859375</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>619.25</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>619.25</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>30527</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45525.55208333334</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>619.25</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>624.25</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>613.25</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>623.1500244140625</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>623.1500244140625</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>21625</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45525.59375</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>622.9500122070312</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>627.5999755859375</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>619</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>622</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>622</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>24932</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45525.63541666666</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>622.8499755859375</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>626</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>620.3499755859375</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>624.0499877929688</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>624.0499877929688</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>15844</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1381" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1381"/>
+  <dimension ref="A1:R1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77405,7 +77405,7 @@
         <v>34</v>
       </c>
       <c r="O1374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1374" t="n">
         <v>0</v>
@@ -77469,7 +77469,9 @@
       <c r="Q1375" t="n">
         <v>0</v>
       </c>
-      <c r="R1375" t="inlineStr"/>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
@@ -77523,7 +77525,9 @@
       <c r="Q1376" t="n">
         <v>0</v>
       </c>
-      <c r="R1376" t="inlineStr"/>
+      <c r="R1376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" s="2" t="n">
@@ -77577,7 +77581,9 @@
       <c r="Q1377" t="n">
         <v>0</v>
       </c>
-      <c r="R1377" t="inlineStr"/>
+      <c r="R1377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1378">
       <c r="A1378" s="2" t="n">
@@ -77631,7 +77637,9 @@
       <c r="Q1378" t="n">
         <v>0</v>
       </c>
-      <c r="R1378" t="inlineStr"/>
+      <c r="R1378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
@@ -77685,7 +77693,9 @@
       <c r="Q1379" t="n">
         <v>0</v>
       </c>
-      <c r="R1379" t="inlineStr"/>
+      <c r="R1379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1380">
       <c r="A1380" s="2" t="n">
@@ -77739,7 +77749,9 @@
       <c r="Q1380" t="n">
         <v>0</v>
       </c>
-      <c r="R1380" t="inlineStr"/>
+      <c r="R1380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1381">
       <c r="A1381" s="2" t="n">
@@ -77793,7 +77805,387 @@
       <c r="Q1381" t="n">
         <v>0</v>
       </c>
-      <c r="R1381" t="inlineStr"/>
+      <c r="R1381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45526.38541666666</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>626.0499877929688</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>647.5999755859375</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>626.0499877929688</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>641.7999877929688</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>641.7999877929688</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45526.42708333334</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>641.5499877929688</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>648.2000122070312</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>639.8499755859375</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>645.7000122070312</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>645.7000122070312</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>23906</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45526.46875</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>647</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>647.9500122070312</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>636.2000122070312</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>638.8499755859375</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>638.8499755859375</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>31561</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45526.51041666666</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>638</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>641</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>634.2000122070312</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>634.9500122070312</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>634.9500122070312</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>10007</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45526.55208333334</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>634.25</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>639.4000244140625</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>634.1500244140625</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>636.2000122070312</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>636.2000122070312</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>7872</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45526.59375</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>636.2000122070312</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>638.5999755859375</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>627.8499755859375</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>636.2999877929688</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>636.2999877929688</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>29481</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45526.63541666666</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>636.6500244140625</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>639.9000244140625</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>633</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>13233</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1388" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1388"/>
+  <dimension ref="A1:R1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77861,7 +77861,9 @@
       <c r="Q1382" t="n">
         <v>0</v>
       </c>
-      <c r="R1382" t="inlineStr"/>
+      <c r="R1382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1383">
       <c r="A1383" s="2" t="n">
@@ -77915,7 +77917,9 @@
       <c r="Q1383" t="n">
         <v>0</v>
       </c>
-      <c r="R1383" t="inlineStr"/>
+      <c r="R1383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1384">
       <c r="A1384" s="2" t="n">
@@ -77969,7 +77973,9 @@
       <c r="Q1384" t="n">
         <v>0</v>
       </c>
-      <c r="R1384" t="inlineStr"/>
+      <c r="R1384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" s="2" t="n">
@@ -78023,7 +78029,9 @@
       <c r="Q1385" t="n">
         <v>0</v>
       </c>
-      <c r="R1385" t="inlineStr"/>
+      <c r="R1385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1386">
       <c r="A1386" s="2" t="n">
@@ -78077,7 +78085,9 @@
       <c r="Q1386" t="n">
         <v>0</v>
       </c>
-      <c r="R1386" t="inlineStr"/>
+      <c r="R1386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1387">
       <c r="A1387" s="2" t="n">
@@ -78131,7 +78141,9 @@
       <c r="Q1387" t="n">
         <v>0</v>
       </c>
-      <c r="R1387" t="inlineStr"/>
+      <c r="R1387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1388">
       <c r="A1388" s="2" t="n">
@@ -78185,7 +78197,387 @@
       <c r="Q1388" t="n">
         <v>0</v>
       </c>
-      <c r="R1388" t="inlineStr"/>
+      <c r="R1388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45527.38541666666</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>639.9500122070312</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>646.1500244140625</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>628.75</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>645.3499755859375</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>645.3499755859375</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45527.42708333334</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>645.0499877929688</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>653</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>644.7000122070312</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>646.0999755859375</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>646.0999755859375</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>53170</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45527.46875</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>645.1500244140625</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>647.5499877929688</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>633.5499877929688</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>634.6500244140625</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>634.6500244140625</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>19099</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45527.51041666666</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>635.2000122070312</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>637.75</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>627</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>627</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>627</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>21171</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1392" t="inlineStr"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45527.55208333334</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>627</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>649.9000244140625</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>627</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>645.9500122070312</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>645.9500122070312</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>41108</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45527.59375</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>645.8499755859375</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>647.25</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>641</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>643.5</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>643.5</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>19954</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1394" t="inlineStr"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45527.63541666666</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>643.7000122070312</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>648.75</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>642.25</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>645</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>645</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>14537</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1395" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1395"/>
+  <dimension ref="A1:R1402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78253,7 +78253,9 @@
       <c r="Q1389" t="n">
         <v>0</v>
       </c>
-      <c r="R1389" t="inlineStr"/>
+      <c r="R1389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1390">
       <c r="A1390" s="2" t="n">
@@ -78307,7 +78309,9 @@
       <c r="Q1390" t="n">
         <v>0</v>
       </c>
-      <c r="R1390" t="inlineStr"/>
+      <c r="R1390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1391">
       <c r="A1391" s="2" t="n">
@@ -78361,7 +78365,9 @@
       <c r="Q1391" t="n">
         <v>0</v>
       </c>
-      <c r="R1391" t="inlineStr"/>
+      <c r="R1391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1392">
       <c r="A1392" s="2" t="n">
@@ -78415,7 +78421,9 @@
       <c r="Q1392" t="n">
         <v>0</v>
       </c>
-      <c r="R1392" t="inlineStr"/>
+      <c r="R1392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
@@ -78469,7 +78477,9 @@
       <c r="Q1393" t="n">
         <v>0</v>
       </c>
-      <c r="R1393" t="inlineStr"/>
+      <c r="R1393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1394">
       <c r="A1394" s="2" t="n">
@@ -78523,7 +78533,9 @@
       <c r="Q1394" t="n">
         <v>0</v>
       </c>
-      <c r="R1394" t="inlineStr"/>
+      <c r="R1394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1395">
       <c r="A1395" s="2" t="n">
@@ -78577,7 +78589,387 @@
       <c r="Q1395" t="n">
         <v>0</v>
       </c>
-      <c r="R1395" t="inlineStr"/>
+      <c r="R1395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45530.38541666666</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>661.2999877929688</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>686.5999755859375</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>661</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>683.9500122070312</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>683.9500122070312</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45530.42708333334</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>682.0499877929688</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>690.5</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>678.5499877929688</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>686</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>686</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>44959</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45530.46875</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>686</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>690</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>682.0499877929688</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>28522</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1398" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45530.51041666666</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>686.9500122070312</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>687.5999755859375</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>682.1500244140625</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>682.1500244140625</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>24737</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45530.55208333334</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>682.1500244140625</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>687.5999755859375</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>681.2999877929688</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>686.5499877929688</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>686.5499877929688</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>10141</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45530.59375</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>685.7999877929688</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>685.9000244140625</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>675.9000244140625</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>680.8499755859375</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>680.8499755859375</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>27540</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1401" t="inlineStr"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45530.63541666666</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>680</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>689.2000122070312</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>680</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>684.3499755859375</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>684.3499755859375</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>22076</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1402" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1402"/>
+  <dimension ref="A1:R1409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78469,7 +78469,7 @@
         <v>34</v>
       </c>
       <c r="O1393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1393" t="n">
         <v>0</v>
@@ -78645,7 +78645,9 @@
       <c r="Q1396" t="n">
         <v>0</v>
       </c>
-      <c r="R1396" t="inlineStr"/>
+      <c r="R1396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1397">
       <c r="A1397" s="2" t="n">
@@ -78699,7 +78701,9 @@
       <c r="Q1397" t="n">
         <v>0</v>
       </c>
-      <c r="R1397" t="inlineStr"/>
+      <c r="R1397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1398">
       <c r="A1398" s="2" t="n">
@@ -78753,7 +78757,9 @@
       <c r="Q1398" t="n">
         <v>0</v>
       </c>
-      <c r="R1398" t="inlineStr"/>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1399">
       <c r="A1399" s="2" t="n">
@@ -78807,7 +78813,9 @@
       <c r="Q1399" t="n">
         <v>0</v>
       </c>
-      <c r="R1399" t="inlineStr"/>
+      <c r="R1399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1400">
       <c r="A1400" s="2" t="n">
@@ -78861,7 +78869,9 @@
       <c r="Q1400" t="n">
         <v>0</v>
       </c>
-      <c r="R1400" t="inlineStr"/>
+      <c r="R1400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" s="2" t="n">
@@ -78915,7 +78925,9 @@
       <c r="Q1401" t="n">
         <v>0</v>
       </c>
-      <c r="R1401" t="inlineStr"/>
+      <c r="R1401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" s="2" t="n">
@@ -78969,7 +78981,387 @@
       <c r="Q1402" t="n">
         <v>0</v>
       </c>
-      <c r="R1402" t="inlineStr"/>
+      <c r="R1402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45531.38541666666</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>685.6500244140625</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>697.3499755859375</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>663.0999755859375</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>668.5</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>668.5</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45531.42708333334</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>668.5</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>684.9000244140625</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>668</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>672</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>672</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>67808</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45531.46875</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>671.7999877929688</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>672</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>666.25</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>668.1500244140625</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>668.1500244140625</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>12843</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45531.51041666666</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>668.1500244140625</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>671.4500122070312</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>665</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>666.1500244140625</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>666.1500244140625</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>12400</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45531.55208333334</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>666.1500244140625</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>666.1500244140625</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>659</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>662.5499877929688</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>662.5499877929688</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>24194</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45531.59375</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>662.5</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>663.3499755859375</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>657.0499877929688</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>660.2000122070312</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>660.2000122070312</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>30283</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2" t="n">
+        <v>45531.63541666666</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>659</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>664.7999877929688</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>655.5</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>659.8499755859375</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>659.8499755859375</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>10710</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1409" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1409"/>
+  <dimension ref="A1:R1416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79029,7 +79029,7 @@
         <v>35</v>
       </c>
       <c r="O1403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1403" t="n">
         <v>0</v>
@@ -79037,7 +79037,9 @@
       <c r="Q1403" t="n">
         <v>0</v>
       </c>
-      <c r="R1403" t="inlineStr"/>
+      <c r="R1403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1404">
       <c r="A1404" s="2" t="n">
@@ -79091,7 +79093,9 @@
       <c r="Q1404" t="n">
         <v>1</v>
       </c>
-      <c r="R1404" t="inlineStr"/>
+      <c r="R1404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1405">
       <c r="A1405" s="2" t="n">
@@ -79145,7 +79149,9 @@
       <c r="Q1405" t="n">
         <v>0</v>
       </c>
-      <c r="R1405" t="inlineStr"/>
+      <c r="R1405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" s="2" t="n">
@@ -79199,7 +79205,9 @@
       <c r="Q1406" t="n">
         <v>0</v>
       </c>
-      <c r="R1406" t="inlineStr"/>
+      <c r="R1406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1407">
       <c r="A1407" s="2" t="n">
@@ -79253,7 +79261,9 @@
       <c r="Q1407" t="n">
         <v>0</v>
       </c>
-      <c r="R1407" t="inlineStr"/>
+      <c r="R1407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1408">
       <c r="A1408" s="2" t="n">
@@ -79307,7 +79317,9 @@
       <c r="Q1408" t="n">
         <v>0</v>
       </c>
-      <c r="R1408" t="inlineStr"/>
+      <c r="R1408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1409">
       <c r="A1409" s="2" t="n">
@@ -79361,7 +79373,387 @@
       <c r="Q1409" t="n">
         <v>0</v>
       </c>
-      <c r="R1409" t="inlineStr"/>
+      <c r="R1409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45532.38541666666</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>654.6500244140625</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>666.25</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>651.2999877929688</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>661.75</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>661.75</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>49079</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45532.42708333334</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>662.9500122070312</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>678.8499755859375</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>661.4000244140625</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>676.0999755859375</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>676.0999755859375</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>33108</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45532.46875</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>676.1500244140625</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>678.0999755859375</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>662.1500244140625</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>671</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>671</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>79033</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45532.51041666666</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>672.0499877929688</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>662.0499877929688</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>664.2999877929688</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>664.2999877929688</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>26374</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45532.55208333334</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>664.4000244140625</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>669.5999755859375</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>664.3499755859375</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>666</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>666</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>14461</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45532.59375</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>665.7000122070312</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>672.2999877929688</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>660.0999755859375</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>665.5499877929688</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>665.5499877929688</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>22189</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45532.63541666666</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>666.2000122070312</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>667.9000244140625</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>663</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>664</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>664</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>7691</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1416" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1416"/>
+  <dimension ref="A1:R1423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79421,7 +79421,7 @@
         <v>35</v>
       </c>
       <c r="O1410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1410" t="n">
         <v>0</v>
@@ -79429,7 +79429,9 @@
       <c r="Q1410" t="n">
         <v>0</v>
       </c>
-      <c r="R1410" t="inlineStr"/>
+      <c r="R1410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1411">
       <c r="A1411" s="2" t="n">
@@ -79483,7 +79485,9 @@
       <c r="Q1411" t="n">
         <v>0</v>
       </c>
-      <c r="R1411" t="inlineStr"/>
+      <c r="R1411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1412">
       <c r="A1412" s="2" t="n">
@@ -79537,7 +79541,9 @@
       <c r="Q1412" t="n">
         <v>0</v>
       </c>
-      <c r="R1412" t="inlineStr"/>
+      <c r="R1412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" s="2" t="n">
@@ -79591,7 +79597,9 @@
       <c r="Q1413" t="n">
         <v>0</v>
       </c>
-      <c r="R1413" t="inlineStr"/>
+      <c r="R1413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1414">
       <c r="A1414" s="2" t="n">
@@ -79645,7 +79653,9 @@
       <c r="Q1414" t="n">
         <v>0</v>
       </c>
-      <c r="R1414" t="inlineStr"/>
+      <c r="R1414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1415">
       <c r="A1415" s="2" t="n">
@@ -79699,7 +79709,9 @@
       <c r="Q1415" t="n">
         <v>0</v>
       </c>
-      <c r="R1415" t="inlineStr"/>
+      <c r="R1415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1416">
       <c r="A1416" s="2" t="n">
@@ -79753,7 +79765,387 @@
       <c r="Q1416" t="n">
         <v>0</v>
       </c>
-      <c r="R1416" t="inlineStr"/>
+      <c r="R1416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45533.38541666666</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>675.0999755859375</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>691.8499755859375</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>675.0999755859375</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>678.7000122070312</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>678.7000122070312</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45533.42708333334</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>678</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>679</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>668.6500244140625</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>676.4000244140625</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>676.4000244140625</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>26880</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45533.46875</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>677</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>695</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>674.7000122070312</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>684.5</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>684.5</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>71107</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45533.51041666666</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>683.7999877929688</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>688</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>680</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>681.25</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>681.25</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>10656</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45533.55208333334</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>681.2000122070312</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>682.75</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>676.0999755859375</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>676.5</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>676.5</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>9338</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1421" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45533.59375</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>676.5</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>685</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>676.25</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>684</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>684</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>22026</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45533.63541666666</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>683.4500122070312</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>684</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>680.0999755859375</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>682</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>682</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>9456</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1423" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1423"/>
+  <dimension ref="A1:R1430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79821,7 +79821,9 @@
       <c r="Q1417" t="n">
         <v>0</v>
       </c>
-      <c r="R1417" t="inlineStr"/>
+      <c r="R1417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1418">
       <c r="A1418" s="2" t="n">
@@ -79875,7 +79877,9 @@
       <c r="Q1418" t="n">
         <v>0</v>
       </c>
-      <c r="R1418" t="inlineStr"/>
+      <c r="R1418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1419">
       <c r="A1419" s="2" t="n">
@@ -79921,7 +79925,7 @@
         <v>35</v>
       </c>
       <c r="O1419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1419" t="n">
         <v>0</v>
@@ -79929,7 +79933,9 @@
       <c r="Q1419" t="n">
         <v>0</v>
       </c>
-      <c r="R1419" t="inlineStr"/>
+      <c r="R1419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1420">
       <c r="A1420" s="2" t="n">
@@ -79983,7 +79989,9 @@
       <c r="Q1420" t="n">
         <v>0</v>
       </c>
-      <c r="R1420" t="inlineStr"/>
+      <c r="R1420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1421">
       <c r="A1421" s="2" t="n">
@@ -80037,7 +80045,9 @@
       <c r="Q1421" t="n">
         <v>1</v>
       </c>
-      <c r="R1421" t="inlineStr"/>
+      <c r="R1421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" s="2" t="n">
@@ -80091,7 +80101,9 @@
       <c r="Q1422" t="n">
         <v>0</v>
       </c>
-      <c r="R1422" t="inlineStr"/>
+      <c r="R1422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1423">
       <c r="A1423" s="2" t="n">
@@ -80145,7 +80157,387 @@
       <c r="Q1423" t="n">
         <v>0</v>
       </c>
-      <c r="R1423" t="inlineStr"/>
+      <c r="R1423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45534.38541666666</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>677.9000244140625</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>677.9000244140625</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>658.0499877929688</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>663.2000122070312</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>663.2000122070312</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>149077</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45534.42708333334</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>663.5499877929688</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>685</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>663.0999755859375</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>684.0999755859375</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>684.0999755859375</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>51953</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45534.46875</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>683.4500122070312</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>695</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>681.2999877929688</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>693.5</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>693.5</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>105278</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45534.51041666666</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>693.0999755859375</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>694.4500122070312</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>679.9000244140625</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>683.75</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>683.75</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>35826</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45534.55208333334</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>683.7000122070312</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>692.5999755859375</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>683.0499877929688</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>690.5</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>690.5</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>46596</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45534.59375</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>690.5499877929688</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>691.75</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>667</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>677.4500122070312</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>677.4500122070312</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>436935</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1429" t="inlineStr"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45534.63541666666</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>676.9500122070312</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>680.5499877929688</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>670</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>670</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>670</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>405491</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1430" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1430"/>
+  <dimension ref="A1:R1437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80213,7 +80213,9 @@
       <c r="Q1424" t="n">
         <v>0</v>
       </c>
-      <c r="R1424" t="inlineStr"/>
+      <c r="R1424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" s="2" t="n">
@@ -80267,7 +80269,9 @@
       <c r="Q1425" t="n">
         <v>0</v>
       </c>
-      <c r="R1425" t="inlineStr"/>
+      <c r="R1425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1426">
       <c r="A1426" s="2" t="n">
@@ -80313,7 +80317,7 @@
         <v>35</v>
       </c>
       <c r="O1426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1426" t="n">
         <v>0</v>
@@ -80321,7 +80325,9 @@
       <c r="Q1426" t="n">
         <v>0</v>
       </c>
-      <c r="R1426" t="inlineStr"/>
+      <c r="R1426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" s="2" t="n">
@@ -80375,7 +80381,9 @@
       <c r="Q1427" t="n">
         <v>0</v>
       </c>
-      <c r="R1427" t="inlineStr"/>
+      <c r="R1427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1428">
       <c r="A1428" s="2" t="n">
@@ -80429,7 +80437,9 @@
       <c r="Q1428" t="n">
         <v>0</v>
       </c>
-      <c r="R1428" t="inlineStr"/>
+      <c r="R1428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" s="2" t="n">
@@ -80483,7 +80493,9 @@
       <c r="Q1429" t="n">
         <v>0</v>
       </c>
-      <c r="R1429" t="inlineStr"/>
+      <c r="R1429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" s="2" t="n">
@@ -80537,7 +80549,387 @@
       <c r="Q1430" t="n">
         <v>0</v>
       </c>
-      <c r="R1430" t="inlineStr"/>
+      <c r="R1430" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45537.38541666666</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>678.9500122070312</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>678.9500122070312</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>651.5999755859375</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>660</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>660</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45537.42708333334</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>659.0499877929688</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>662.6500244140625</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>657.2999877929688</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>661.9500122070312</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>661.9500122070312</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>10051</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45537.46875</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>661.9500122070312</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>662.4500122070312</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>655</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>655.8499755859375</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>655.8499755859375</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>30565</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45537.51041666666</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>655.5999755859375</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>659.25</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>651.25</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>652.4000244140625</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>652.4000244140625</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>20485</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1434" t="inlineStr"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45537.55208333334</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>652.5999755859375</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>653</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>644.7999877929688</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>649.9500122070312</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>649.9500122070312</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>32766</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45537.59375</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>649.9500122070312</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>652.5499877929688</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>641.0499877929688</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>650</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>650</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>46090</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45537.63541666666</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>650.7000122070312</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>652.5499877929688</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>644.5499877929688</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>645</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>645</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>29433</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1437" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1437"/>
+  <dimension ref="A1:R1444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80605,7 +80605,9 @@
       <c r="Q1431" t="n">
         <v>0</v>
       </c>
-      <c r="R1431" t="inlineStr"/>
+      <c r="R1431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2" t="n">
@@ -80659,7 +80661,9 @@
       <c r="Q1432" t="n">
         <v>0</v>
       </c>
-      <c r="R1432" t="inlineStr"/>
+      <c r="R1432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1433">
       <c r="A1433" s="2" t="n">
@@ -80713,7 +80717,9 @@
       <c r="Q1433" t="n">
         <v>0</v>
       </c>
-      <c r="R1433" t="inlineStr"/>
+      <c r="R1433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" s="2" t="n">
@@ -80767,7 +80773,9 @@
       <c r="Q1434" t="n">
         <v>0</v>
       </c>
-      <c r="R1434" t="inlineStr"/>
+      <c r="R1434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1435">
       <c r="A1435" s="2" t="n">
@@ -80821,7 +80829,9 @@
       <c r="Q1435" t="n">
         <v>0</v>
       </c>
-      <c r="R1435" t="inlineStr"/>
+      <c r="R1435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1436">
       <c r="A1436" s="2" t="n">
@@ -80875,7 +80885,9 @@
       <c r="Q1436" t="n">
         <v>0</v>
       </c>
-      <c r="R1436" t="inlineStr"/>
+      <c r="R1436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1437">
       <c r="A1437" s="2" t="n">
@@ -80929,7 +80941,387 @@
       <c r="Q1437" t="n">
         <v>2</v>
       </c>
-      <c r="R1437" t="inlineStr"/>
+      <c r="R1437" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45538.38541666666</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>646.4500122070312</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>651.4000244140625</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>639.25</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>640.75</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>640.75</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45538.42708333334</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>640.7999877929688</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>644.9500122070312</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>638</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>641.9500122070312</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>641.9500122070312</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>8177</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1439" t="inlineStr"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45538.46875</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>641.0999755859375</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>644.9000244140625</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>640.25</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>641.3499755859375</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>641.3499755859375</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>5425</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45538.51041666666</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>640.9000244140625</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>647.8499755859375</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>637.5999755859375</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>647.8499755859375</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>647.8499755859375</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>8074</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1441" t="inlineStr"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2" t="n">
+        <v>45538.55208333334</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>647.8499755859375</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>663.4000244140625</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>647.8499755859375</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>653.7000122070312</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>653.7000122070312</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1442" t="inlineStr"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2" t="n">
+        <v>45538.59375</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>653.7999877929688</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>659.4500122070312</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>648.5999755859375</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>658.7999877929688</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>658.7999877929688</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>17356</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1443" t="inlineStr"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2" t="n">
+        <v>45538.63541666666</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>658.7999877929688</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>652.3499755859375</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>652.9000244140625</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>652.9000244140625</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>19950</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1444" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1444"/>
+  <dimension ref="A1:R1451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80997,7 +80997,9 @@
       <c r="Q1438" t="n">
         <v>0</v>
       </c>
-      <c r="R1438" t="inlineStr"/>
+      <c r="R1438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1439">
       <c r="A1439" s="2" t="n">
@@ -81051,7 +81053,9 @@
       <c r="Q1439" t="n">
         <v>0</v>
       </c>
-      <c r="R1439" t="inlineStr"/>
+      <c r="R1439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1440">
       <c r="A1440" s="2" t="n">
@@ -81105,7 +81109,9 @@
       <c r="Q1440" t="n">
         <v>0</v>
       </c>
-      <c r="R1440" t="inlineStr"/>
+      <c r="R1440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1441">
       <c r="A1441" s="2" t="n">
@@ -81151,7 +81157,7 @@
         <v>36</v>
       </c>
       <c r="O1441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1441" t="n">
         <v>0</v>
@@ -81159,7 +81165,9 @@
       <c r="Q1441" t="n">
         <v>0</v>
       </c>
-      <c r="R1441" t="inlineStr"/>
+      <c r="R1441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1442">
       <c r="A1442" s="2" t="n">
@@ -81213,7 +81221,9 @@
       <c r="Q1442" t="n">
         <v>0</v>
       </c>
-      <c r="R1442" t="inlineStr"/>
+      <c r="R1442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1443">
       <c r="A1443" s="2" t="n">
@@ -81267,7 +81277,9 @@
       <c r="Q1443" t="n">
         <v>0</v>
       </c>
-      <c r="R1443" t="inlineStr"/>
+      <c r="R1443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1444">
       <c r="A1444" s="2" t="n">
@@ -81321,7 +81333,387 @@
       <c r="Q1444" t="n">
         <v>0</v>
       </c>
-      <c r="R1444" t="inlineStr"/>
+      <c r="R1444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>45539.38541666666</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>645.1500244140625</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>680</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>645.1500244140625</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>679.6500244140625</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>679.6500244140625</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>93778</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
+        <v>45539.42708333334</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>679.4500122070312</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>679.9500122070312</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>673.75</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>677.9000244140625</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>677.9000244140625</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>36641</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2" t="n">
+        <v>45539.46875</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>677.9000244140625</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>677.9500122070312</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>673.3499755859375</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>674.5499877929688</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>674.5499877929688</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>22936</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1447" t="inlineStr"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2" t="n">
+        <v>45539.51041666666</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>674.5499877929688</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>670.4000244140625</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>672.4500122070312</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>672.4500122070312</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>17918</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1448" t="inlineStr"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2" t="n">
+        <v>45539.55208333334</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>672.4500122070312</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>673.4000244140625</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>654.0499877929688</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>656.5999755859375</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>656.5999755859375</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>28578</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1449" t="inlineStr"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2" t="n">
+        <v>45539.59375</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>656.5</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>659.9500122070312</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>655</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>657.4000244140625</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>657.4000244140625</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>11714</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1450" t="inlineStr"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2" t="n">
+        <v>45539.63541666666</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>657.4000244140625</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>658.8499755859375</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>651.9000244140625</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>658.8499755859375</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>658.8499755859375</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>10055</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1451" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1451"/>
+  <dimension ref="A1:R1458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81381,7 +81381,7 @@
         <v>36</v>
       </c>
       <c r="O1445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1445" t="n">
         <v>0</v>
@@ -81389,7 +81389,9 @@
       <c r="Q1445" t="n">
         <v>0</v>
       </c>
-      <c r="R1445" t="inlineStr"/>
+      <c r="R1445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1446">
       <c r="A1446" s="2" t="n">
@@ -81443,7 +81445,9 @@
       <c r="Q1446" t="n">
         <v>0</v>
       </c>
-      <c r="R1446" t="inlineStr"/>
+      <c r="R1446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" s="2" t="n">
@@ -81497,7 +81501,9 @@
       <c r="Q1447" t="n">
         <v>0</v>
       </c>
-      <c r="R1447" t="inlineStr"/>
+      <c r="R1447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" s="2" t="n">
@@ -81551,7 +81557,9 @@
       <c r="Q1448" t="n">
         <v>0</v>
       </c>
-      <c r="R1448" t="inlineStr"/>
+      <c r="R1448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1449">
       <c r="A1449" s="2" t="n">
@@ -81605,7 +81613,9 @@
       <c r="Q1449" t="n">
         <v>0</v>
       </c>
-      <c r="R1449" t="inlineStr"/>
+      <c r="R1449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1450">
       <c r="A1450" s="2" t="n">
@@ -81659,7 +81669,9 @@
       <c r="Q1450" t="n">
         <v>0</v>
       </c>
-      <c r="R1450" t="inlineStr"/>
+      <c r="R1450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1451">
       <c r="A1451" s="2" t="n">
@@ -81713,7 +81725,387 @@
       <c r="Q1451" t="n">
         <v>0</v>
       </c>
-      <c r="R1451" t="inlineStr"/>
+      <c r="R1451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2" t="n">
+        <v>45540.38541666666</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>646</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>646</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>615.9500122070312</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>618</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>618</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>563757</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1452" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2" t="n">
+        <v>45540.42708333334</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>618</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>620.0499877929688</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>617.0499877929688</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>617.9500122070312</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>617.9500122070312</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>58611</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1453" t="inlineStr"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2" t="n">
+        <v>45540.46875</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>617.9500122070312</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>621.9500122070312</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>615.7000122070312</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>618.4500122070312</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>618.4500122070312</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>79321</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2" t="n">
+        <v>45540.51041666666</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>618.4500122070312</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>625.4000244140625</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>616.6500244140625</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>625.4000244140625</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>625.4000244140625</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>115685</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1455" t="inlineStr"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2" t="n">
+        <v>45540.55208333334</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>625.7999877929688</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>626</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>620.0499877929688</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>620.9500122070312</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>620.9500122070312</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>155894</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1456" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1456" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1456" t="inlineStr"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2" t="n">
+        <v>45540.59375</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>621.25</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>622.25</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>617</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>618.4000244140625</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>618.4000244140625</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>80471</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1457" t="inlineStr"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2" t="n">
+        <v>45540.63541666666</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>618.4000244140625</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>615</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>615.5</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>615.5</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>111407</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1458" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1458"/>
+  <dimension ref="A1:R1465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81781,7 +81781,9 @@
       <c r="Q1452" t="n">
         <v>1</v>
       </c>
-      <c r="R1452" t="inlineStr"/>
+      <c r="R1452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" s="2" t="n">
@@ -81835,7 +81837,9 @@
       <c r="Q1453" t="n">
         <v>0</v>
       </c>
-      <c r="R1453" t="inlineStr"/>
+      <c r="R1453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" s="2" t="n">
@@ -81889,7 +81893,9 @@
       <c r="Q1454" t="n">
         <v>0</v>
       </c>
-      <c r="R1454" t="inlineStr"/>
+      <c r="R1454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" s="2" t="n">
@@ -81943,7 +81949,9 @@
       <c r="Q1455" t="n">
         <v>0</v>
       </c>
-      <c r="R1455" t="inlineStr"/>
+      <c r="R1455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1456">
       <c r="A1456" s="2" t="n">
@@ -81997,7 +82005,9 @@
       <c r="Q1456" t="n">
         <v>2</v>
       </c>
-      <c r="R1456" t="inlineStr"/>
+      <c r="R1456" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" s="2" t="n">
@@ -82051,7 +82061,9 @@
       <c r="Q1457" t="n">
         <v>0</v>
       </c>
-      <c r="R1457" t="inlineStr"/>
+      <c r="R1457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1458">
       <c r="A1458" s="2" t="n">
@@ -82105,7 +82117,387 @@
       <c r="Q1458" t="n">
         <v>0</v>
       </c>
-      <c r="R1458" t="inlineStr"/>
+      <c r="R1458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2" t="n">
+        <v>45541.38541666666</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>619.3499755859375</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>625.9000244140625</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>612</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>615.7000122070312</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>615.7000122070312</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>88481</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2" t="n">
+        <v>45541.42708333334</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>616.2999877929688</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>616.2999877929688</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>618.2000122070312</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>618.2000122070312</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>19471</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2" t="n">
+        <v>45541.46875</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>618.2000122070312</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>615.7999877929688</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>618.1500244140625</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>618.1500244140625</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>128722</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1461" t="inlineStr"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="2" t="n">
+        <v>45541.51041666666</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>617.9000244140625</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>619</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>611.0499877929688</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>612.5499877929688</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>612.5499877929688</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>29416</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1462" t="inlineStr"/>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="2" t="n">
+        <v>45541.55208333334</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>612.2999877929688</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>614.4500122070312</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>608.0999755859375</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>608.1500244140625</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>608.1500244140625</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>24307</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1463" t="inlineStr"/>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="2" t="n">
+        <v>45541.59375</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>608.1500244140625</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>609</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>603.8499755859375</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>606</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>606</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>39868</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1464" t="inlineStr"/>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="2" t="n">
+        <v>45541.63541666666</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>606.1500244140625</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>606.4000244140625</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>597.0499877929688</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>597.9500122070312</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>597.9500122070312</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>24271</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1465" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1465"/>
+  <dimension ref="A1:R1472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82173,7 +82173,9 @@
       <c r="Q1459" t="n">
         <v>0</v>
       </c>
-      <c r="R1459" t="inlineStr"/>
+      <c r="R1459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" s="2" t="n">
@@ -82227,7 +82229,9 @@
       <c r="Q1460" t="n">
         <v>0</v>
       </c>
-      <c r="R1460" t="inlineStr"/>
+      <c r="R1460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" s="2" t="n">
@@ -82281,7 +82285,9 @@
       <c r="Q1461" t="n">
         <v>0</v>
       </c>
-      <c r="R1461" t="inlineStr"/>
+      <c r="R1461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1462">
       <c r="A1462" s="2" t="n">
@@ -82335,7 +82341,9 @@
       <c r="Q1462" t="n">
         <v>0</v>
       </c>
-      <c r="R1462" t="inlineStr"/>
+      <c r="R1462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1463">
       <c r="A1463" s="2" t="n">
@@ -82389,7 +82397,9 @@
       <c r="Q1463" t="n">
         <v>0</v>
       </c>
-      <c r="R1463" t="inlineStr"/>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1464">
       <c r="A1464" s="2" t="n">
@@ -82443,7 +82453,9 @@
       <c r="Q1464" t="n">
         <v>0</v>
       </c>
-      <c r="R1464" t="inlineStr"/>
+      <c r="R1464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" s="2" t="n">
@@ -82497,7 +82509,387 @@
       <c r="Q1465" t="n">
         <v>0</v>
       </c>
-      <c r="R1465" t="inlineStr"/>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45544.38541666666</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>599.2999877929688</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>599.2999877929688</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>577</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>582</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>582</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1466" t="inlineStr"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45544.42708333334</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>582</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>576</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>584.9500122070312</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>584.9500122070312</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>60654</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1467" t="inlineStr"/>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="2" t="n">
+        <v>45544.46875</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>585</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>598.8499755859375</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>584</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>591.75</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>591.75</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>73757</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1468" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1468" t="inlineStr"/>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45544.51041666666</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>590.9500122070312</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>595.0999755859375</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>586</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>591.5999755859375</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>591.5999755859375</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>20488</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1469" t="inlineStr"/>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45544.55208333334</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>592.0499877929688</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>593.7000122070312</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>590.7999877929688</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>590.7999877929688</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>11126</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1470" t="inlineStr"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45544.59375</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>591.0499877929688</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>593.75</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>588</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>591.0499877929688</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>591.0499877929688</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>23386</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1471" t="inlineStr"/>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45544.63541666666</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>590.8499755859375</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>594</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>590</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>590.7999877929688</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>590.7999877929688</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>22125</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1472" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1472"/>
+  <dimension ref="A1:R1479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82565,7 +82565,9 @@
       <c r="Q1466" t="n">
         <v>0</v>
       </c>
-      <c r="R1466" t="inlineStr"/>
+      <c r="R1466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1467">
       <c r="A1467" s="2" t="n">
@@ -82611,7 +82613,7 @@
         <v>37</v>
       </c>
       <c r="O1467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1467" t="n">
         <v>0</v>
@@ -82619,7 +82621,9 @@
       <c r="Q1467" t="n">
         <v>0</v>
       </c>
-      <c r="R1467" t="inlineStr"/>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1468">
       <c r="A1468" s="2" t="n">
@@ -82673,7 +82677,9 @@
       <c r="Q1468" t="n">
         <v>0</v>
       </c>
-      <c r="R1468" t="inlineStr"/>
+      <c r="R1468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1469">
       <c r="A1469" s="2" t="n">
@@ -82727,7 +82733,9 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" s="2" t="n">
@@ -82781,7 +82789,9 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
@@ -82835,7 +82845,9 @@
       <c r="Q1471" t="n">
         <v>0</v>
       </c>
-      <c r="R1471" t="inlineStr"/>
+      <c r="R1471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1472">
       <c r="A1472" s="2" t="n">
@@ -82889,7 +82901,387 @@
       <c r="Q1472" t="n">
         <v>0</v>
       </c>
-      <c r="R1472" t="inlineStr"/>
+      <c r="R1472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45545.38541666666</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>592.0999755859375</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>598</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>591.5</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>595.0999755859375</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>595.0999755859375</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>45331</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1473" t="inlineStr"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45545.42708333334</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>595.0999755859375</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>596.4500122070312</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>594</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>594.7000122070312</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>594.7000122070312</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>14343</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1474" t="inlineStr"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45545.46875</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>595.1500244140625</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>596.3499755859375</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>594</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>595.9500122070312</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>595.9500122070312</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>11867</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1475" t="inlineStr"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45545.51041666666</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>595.7000122070312</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>603.2999877929688</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>595.7000122070312</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>601.8499755859375</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>601.8499755859375</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>31573</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1476" t="inlineStr"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45545.55208333334</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>601.1500244140625</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>624.9000244140625</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>601</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>620.0999755859375</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>620.0999755859375</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>86970</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45545.59375</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>620</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>624</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>618</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>623.3499755859375</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>623.3499755859375</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>40739</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1478" t="inlineStr"/>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45545.63541666666</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>623.3499755859375</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>624.9000244140625</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>619.0499877929688</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>623.4000244140625</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>623.4000244140625</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>22518</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1479" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1479"/>
+  <dimension ref="A1:R1486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82957,7 +82957,9 @@
       <c r="Q1473" t="n">
         <v>0</v>
       </c>
-      <c r="R1473" t="inlineStr"/>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
@@ -83011,7 +83013,9 @@
       <c r="Q1474" t="n">
         <v>0</v>
       </c>
-      <c r="R1474" t="inlineStr"/>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
@@ -83065,7 +83069,9 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
@@ -83119,7 +83125,9 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
@@ -83173,7 +83181,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -83227,7 +83237,9 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
@@ -83281,7 +83293,387 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45546.38541666666</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>628.9000244140625</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>629</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>613.1500244140625</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>620.2999877929688</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>620.2999877929688</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45546.42708333334</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>619.9500122070312</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>617.1500244140625</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>618.7999877929688</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>618.7999877929688</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>49778</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45546.46875</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>618.6500244140625</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>618.6500244140625</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>607.5</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>617.0999755859375</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>617.0999755859375</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>55104</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45546.51041666666</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>617.0999755859375</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>617.25</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>615.9500122070312</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>616</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>616</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>34255</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45546.55208333334</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>616</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>618</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>608.6500244140625</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>610.9500122070312</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>610.9500122070312</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>114834</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45546.59375</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>610.9500122070312</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>613.25</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>609.5</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>610</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>610</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>46061</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45546.63541666666</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>611.0499877929688</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>608</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>610.0999755859375</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>610.0999755859375</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>31289</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1486"/>
+  <dimension ref="A1:R1493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="R154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="R280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="R296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="R300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -18558,7 +18558,7 @@
         <v>2</v>
       </c>
       <c r="R323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -23094,7 +23094,7 @@
         <v>2</v>
       </c>
       <c r="R404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="R413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -24550,7 +24550,7 @@
         <v>2</v>
       </c>
       <c r="R430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="R452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="R504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -31606,7 +31606,7 @@
         <v>1</v>
       </c>
       <c r="R556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -35078,7 +35078,7 @@
         <v>0</v>
       </c>
       <c r="R618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -37038,7 +37038,7 @@
         <v>0</v>
       </c>
       <c r="R653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -39054,7 +39054,7 @@
         <v>0</v>
       </c>
       <c r="R689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -39782,7 +39782,7 @@
         <v>0</v>
       </c>
       <c r="R702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -42806,7 +42806,7 @@
         <v>2</v>
       </c>
       <c r="R756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -44374,7 +44374,7 @@
         <v>1</v>
       </c>
       <c r="R784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -44822,7 +44822,7 @@
         <v>2</v>
       </c>
       <c r="R792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793">
@@ -45550,7 +45550,7 @@
         <v>1</v>
       </c>
       <c r="R805" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806">
@@ -48406,7 +48406,7 @@
         <v>1</v>
       </c>
       <c r="R856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857">
@@ -50030,7 +50030,7 @@
         <v>1</v>
       </c>
       <c r="R885" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -51318,7 +51318,7 @@
         <v>2</v>
       </c>
       <c r="R908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909">
@@ -52438,7 +52438,7 @@
         <v>0</v>
       </c>
       <c r="R928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -54398,7 +54398,7 @@
         <v>2</v>
       </c>
       <c r="R963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964">
@@ -56638,7 +56638,7 @@
         <v>1</v>
       </c>
       <c r="R1003" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004">
@@ -57478,7 +57478,7 @@
         <v>1</v>
       </c>
       <c r="R1018" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019">
@@ -65766,7 +65766,7 @@
         <v>2</v>
       </c>
       <c r="R1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167">
@@ -66382,7 +66382,7 @@
         <v>0</v>
       </c>
       <c r="R1177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178">
@@ -67390,7 +67390,7 @@
         <v>2</v>
       </c>
       <c r="R1195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196">
@@ -67894,7 +67894,7 @@
         <v>0</v>
       </c>
       <c r="R1204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205">
@@ -69182,7 +69182,7 @@
         <v>2</v>
       </c>
       <c r="R1227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1228">
@@ -70638,7 +70638,7 @@
         <v>2</v>
       </c>
       <c r="R1253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1254">
@@ -71758,7 +71758,7 @@
         <v>1</v>
       </c>
       <c r="R1273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274">
@@ -71926,7 +71926,7 @@
         <v>2</v>
       </c>
       <c r="R1276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1277">
@@ -73886,7 +73886,7 @@
         <v>0</v>
       </c>
       <c r="R1311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312">
@@ -74558,7 +74558,7 @@
         <v>2</v>
       </c>
       <c r="R1323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1324">
@@ -79094,7 +79094,7 @@
         <v>1</v>
       </c>
       <c r="R1404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405">
@@ -80046,7 +80046,7 @@
         <v>1</v>
       </c>
       <c r="R1421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1422">
@@ -80550,7 +80550,7 @@
         <v>0</v>
       </c>
       <c r="R1430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1431">
@@ -81782,7 +81782,7 @@
         <v>1</v>
       </c>
       <c r="R1452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1453">
@@ -83341,7 +83341,7 @@
         <v>37</v>
       </c>
       <c r="O1480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1480" t="n">
         <v>0</v>
@@ -83349,7 +83349,9 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
@@ -83403,7 +83405,9 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
@@ -83457,7 +83461,9 @@
       <c r="Q1482" t="n">
         <v>0</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
@@ -83511,7 +83517,9 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
@@ -83565,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
@@ -83619,7 +83629,9 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
@@ -83673,7 +83685,387 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45547.38541666666</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>611.4000244140625</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>613</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>607.3499755859375</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45547.42708333334</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>613.2000122070312</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>610.2000122070312</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>612.5499877929688</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>612.5499877929688</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>11777</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45547.46875</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>611.9000244140625</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>613.3499755859375</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>611.2999877929688</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>613.3499755859375</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>613.3499755859375</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>2557</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45547.51041666666</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>613</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>613.3499755859375</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>612.4500122070312</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>612.4500122070312</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>6821</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45547.55208333334</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>612.8499755859375</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>614.9500122070312</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>605.8499755859375</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>605.8499755859375</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>605.8499755859375</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>21288</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45547.59375</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>606.0999755859375</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>605.25</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>609.7999877929688</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>609.7999877929688</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>21044</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45547.63541666666</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>609.7999877929688</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>609.8499755859375</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>605</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>609.2999877929688</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>609.2999877929688</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>17681</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1493"/>
+  <dimension ref="A1:R1500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="R109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="R122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="R154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="R280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="R296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="R300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -18558,7 +18558,7 @@
         <v>2</v>
       </c>
       <c r="R323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -23094,7 +23094,7 @@
         <v>2</v>
       </c>
       <c r="R404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="R413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -24550,7 +24550,7 @@
         <v>2</v>
       </c>
       <c r="R430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="R452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="R504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -31606,7 +31606,7 @@
         <v>1</v>
       </c>
       <c r="R556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -35078,7 +35078,7 @@
         <v>0</v>
       </c>
       <c r="R618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -37038,7 +37038,7 @@
         <v>0</v>
       </c>
       <c r="R653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -39054,7 +39054,7 @@
         <v>0</v>
       </c>
       <c r="R689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -39782,7 +39782,7 @@
         <v>0</v>
       </c>
       <c r="R702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -42806,7 +42806,7 @@
         <v>2</v>
       </c>
       <c r="R756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -44374,7 +44374,7 @@
         <v>1</v>
       </c>
       <c r="R784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -44822,7 +44822,7 @@
         <v>2</v>
       </c>
       <c r="R792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793">
@@ -45550,7 +45550,7 @@
         <v>1</v>
       </c>
       <c r="R805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806">
@@ -48406,7 +48406,7 @@
         <v>1</v>
       </c>
       <c r="R856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857">
@@ -50030,7 +50030,7 @@
         <v>1</v>
       </c>
       <c r="R885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886">
@@ -51318,7 +51318,7 @@
         <v>2</v>
       </c>
       <c r="R908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909">
@@ -52438,7 +52438,7 @@
         <v>0</v>
       </c>
       <c r="R928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929">
@@ -54398,7 +54398,7 @@
         <v>2</v>
       </c>
       <c r="R963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964">
@@ -56638,7 +56638,7 @@
         <v>1</v>
       </c>
       <c r="R1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004">
@@ -57478,7 +57478,7 @@
         <v>1</v>
       </c>
       <c r="R1018" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019">
@@ -65766,7 +65766,7 @@
         <v>2</v>
       </c>
       <c r="R1166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167">
@@ -66382,7 +66382,7 @@
         <v>0</v>
       </c>
       <c r="R1177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178">
@@ -67390,7 +67390,7 @@
         <v>2</v>
       </c>
       <c r="R1195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196">
@@ -67894,7 +67894,7 @@
         <v>0</v>
       </c>
       <c r="R1204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205">
@@ -69182,7 +69182,7 @@
         <v>2</v>
       </c>
       <c r="R1227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228">
@@ -70638,7 +70638,7 @@
         <v>2</v>
       </c>
       <c r="R1253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254">
@@ -71758,7 +71758,7 @@
         <v>1</v>
       </c>
       <c r="R1273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274">
@@ -71926,7 +71926,7 @@
         <v>2</v>
       </c>
       <c r="R1276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277">
@@ -73886,7 +73886,7 @@
         <v>0</v>
       </c>
       <c r="R1311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312">
@@ -74558,7 +74558,7 @@
         <v>2</v>
       </c>
       <c r="R1323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324">
@@ -79094,7 +79094,7 @@
         <v>1</v>
       </c>
       <c r="R1404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1405">
@@ -80046,7 +80046,7 @@
         <v>1</v>
       </c>
       <c r="R1421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1422">
@@ -80550,7 +80550,7 @@
         <v>0</v>
       </c>
       <c r="R1430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1431">
@@ -81782,7 +81782,7 @@
         <v>1</v>
       </c>
       <c r="R1452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1453">
@@ -83741,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83795,7 +83797,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
@@ -83849,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83903,7 +83909,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83957,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>2</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84011,7 +84021,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84065,7 +84077,387 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45548.38541666666</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>615.5999755859375</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>615.5999755859375</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>606.2000122070312</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>608.0499877929688</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>608.0499877929688</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>18652</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45548.42708333334</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>607.6500244140625</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>613.4500122070312</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>606.9000244140625</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>610.2999877929688</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>610.2999877929688</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>18620</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45548.46875</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>610.2999877929688</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>615.5</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>609.0499877929688</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>613.8499755859375</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>613.8499755859375</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>15888</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45548.51041666666</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>613.8499755859375</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>615.5</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>610.7999877929688</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>612.7000122070312</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>612.7000122070312</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>16662</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45548.55208333334</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>612.6500244140625</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>613.2000122070312</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>610</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>610.3499755859375</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>610.3499755859375</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>3540</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45548.59375</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>610.3499755859375</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>612.5</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>599.3499755859375</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>599.6500244140625</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>599.6500244140625</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>26626</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45548.63541666666</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>599.5</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>609.7000122070312</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>599.5</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>609</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>609</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>18314</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1500"/>
+  <dimension ref="A1:R1507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84133,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84187,7 +84189,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84241,7 +84245,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84295,7 +84301,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84349,7 +84357,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84403,7 +84413,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84457,7 +84469,387 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45551.38541666666</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>605.75</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>612.8499755859375</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>600.0999755859375</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>601</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>601</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45551.42708333334</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>601</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>604.5999755859375</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>600.25</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>600.25</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>7582</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45551.46875</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>600.9000244140625</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>603.9500122070312</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>593.5999755859375</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>594.9500122070312</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>594.9500122070312</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>20415</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45551.51041666666</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>594.9500122070312</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>595.7999877929688</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>582.5999755859375</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>585.25</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>585.25</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>35251</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45551.55208333334</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>585.7000122070312</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>594</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>585.7000122070312</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>592.4000244140625</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>592.4000244140625</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>13513</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45551.59375</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>592.4000244140625</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>592.4000244140625</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>584.4500122070312</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>585.5</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>585.5</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>41883</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45551.63541666666</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>585.5499877929688</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>587.0999755859375</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>582.3499755859375</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>583</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>583</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>10044</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1507"/>
+  <dimension ref="A1:R1521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84525,7 +84525,9 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84579,7 +84581,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84633,7 +84637,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84687,7 +84693,9 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
@@ -84741,7 +84749,9 @@
       <c r="Q1505" t="n">
         <v>0</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84795,7 +84805,9 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
@@ -84849,7 +84861,765 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45552.38541666666</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>592</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>592</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>578.5499877929688</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>586.5</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>586.5</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45552.42708333334</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>586.5</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>586.5</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>583</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>585.4500122070312</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>585.4500122070312</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>18424</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45552.46875</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>585.0999755859375</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>588.25</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>579.0999755859375</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>579.1500244140625</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>579.1500244140625</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>35258</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45552.51041666666</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>579.2000122070312</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>582</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>577</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>579</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>579</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>18763</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45552.55208333334</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>579</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>585.8499755859375</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>577.5499877929688</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>585.6500244140625</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>585.6500244140625</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>13235</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45552.59375</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>585.7000122070312</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>586.4000244140625</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>577.0499877929688</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>579</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>579</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>26416</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45552.63541666666</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>579</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>580.9000244140625</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>575.25</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>580.9000244140625</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>580.9000244140625</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>15388</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45553.38541666666</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>581.7999877929688</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>596.25</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>575.0499877929688</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>593.8499755859375</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>593.8499755859375</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45553.42708333334</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>594.9000244140625</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>594.9000244140625</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>581.25</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>583.5</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>583.5</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>30450</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45553.46875</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>584</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>583.2999877929688</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>584.0499877929688</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>584.0499877929688</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>12021</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45553.51041666666</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>584.6500244140625</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>582.0499877929688</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>582.2000122070312</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>582.2000122070312</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>10301</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45553.55208333334</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>582.9500122070312</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>584.7000122070312</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>580</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>584.0999755859375</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>584.0999755859375</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>11103</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45553.59375</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>584.2000122070312</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>580</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>584.6500244140625</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>584.6500244140625</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>22078</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45553.63541666666</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>584.9500122070312</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>583.5</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>584.9500122070312</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>584.9500122070312</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>4530</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1521"/>
+  <dimension ref="A1:R1528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84917,7 +84917,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84971,7 +84973,9 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
@@ -85025,7 +85029,9 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
@@ -85079,7 +85085,9 @@
       <c r="Q1511" t="n">
         <v>0</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
@@ -85133,7 +85141,9 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
@@ -85187,7 +85197,9 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
@@ -85241,7 +85253,9 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
@@ -85295,7 +85309,9 @@
       <c r="Q1515" t="n">
         <v>0</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85349,7 +85365,9 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
@@ -85403,7 +85421,9 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
@@ -85457,7 +85477,9 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
@@ -85511,7 +85533,9 @@
       <c r="Q1519" t="n">
         <v>0</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
@@ -85565,7 +85589,9 @@
       <c r="Q1520" t="n">
         <v>0</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
@@ -85619,7 +85645,387 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45554.38541666666</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>590.4000244140625</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>597.8499755859375</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>582.2000122070312</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>586.5</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>586.5</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>41187</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45554.42708333334</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>586.2000122070312</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>586.6500244140625</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>574.4000244140625</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>574.4000244140625</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>574.4000244140625</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>18942</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45554.46875</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>574.9500122070312</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>574.9500122070312</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>564.25</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>568.0499877929688</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>568.0499877929688</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>20819</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45554.51041666666</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>568.7000122070312</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>572.5499877929688</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>563.5999755859375</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>564.7000122070312</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>564.7000122070312</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>16333</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45554.55208333334</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>563.75</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>565.8499755859375</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>557.5</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>558.1500244140625</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>558.1500244140625</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>25213</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45554.59375</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>558.1500244140625</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>560.4500122070312</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>552.3499755859375</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>555.0499877929688</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>555.0499877929688</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>69809</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45554.63541666666</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>554.4500122070312</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>565</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>554.3499755859375</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>565</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>565</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>23317</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1528" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1528"/>
+  <dimension ref="A1:R1535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85693,7 +85693,7 @@
         <v>38</v>
       </c>
       <c r="O1522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1522" t="n">
         <v>0</v>
@@ -85701,7 +85701,9 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
@@ -85755,7 +85757,9 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1524">
       <c r="A1524" s="2" t="n">
@@ -85809,7 +85813,9 @@
       <c r="Q1524" t="n">
         <v>0</v>
       </c>
-      <c r="R1524" t="inlineStr"/>
+      <c r="R1524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
@@ -85863,7 +85869,9 @@
       <c r="Q1525" t="n">
         <v>0</v>
       </c>
-      <c r="R1525" t="inlineStr"/>
+      <c r="R1525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1526">
       <c r="A1526" s="2" t="n">
@@ -85917,7 +85925,9 @@
       <c r="Q1526" t="n">
         <v>0</v>
       </c>
-      <c r="R1526" t="inlineStr"/>
+      <c r="R1526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1527">
       <c r="A1527" s="2" t="n">
@@ -85971,7 +85981,9 @@
       <c r="Q1527" t="n">
         <v>0</v>
       </c>
-      <c r="R1527" t="inlineStr"/>
+      <c r="R1527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1528">
       <c r="A1528" s="2" t="n">
@@ -86025,7 +86037,387 @@
       <c r="Q1528" t="n">
         <v>0</v>
       </c>
-      <c r="R1528" t="inlineStr"/>
+      <c r="R1528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45555.38541666666</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>562.7999877929688</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>573.25</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>561.1500244140625</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>570.2000122070312</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>570.2000122070312</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>65433</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45555.42708333334</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>570.2999877929688</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>572.9500122070312</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>568.1500244140625</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>570.2999877929688</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>570.2999877929688</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>14196</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45555.46875</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>570.2000122070312</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>575.5999755859375</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>569.7000122070312</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>570.0999755859375</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>570.0999755859375</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>27005</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45555.51041666666</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>570.5999755859375</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>574.6500244140625</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>569</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>572.8499755859375</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>572.8499755859375</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>21308</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1532" t="inlineStr"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45555.55208333334</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>573.5999755859375</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>567.1500244140625</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>569.0499877929688</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>569.0499877929688</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>56150</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1533" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1533" t="inlineStr"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45555.59375</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>569</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>596.5</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>567</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>593.2999877929688</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>593.2999877929688</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>115689</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1534" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45555.63541666666</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>594.0999755859375</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>603.9000244140625</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>590.5999755859375</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>595</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>595</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>97366</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1535" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1535" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1535"/>
+  <dimension ref="A1:R1542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85973,7 +85973,7 @@
         <v>38</v>
       </c>
       <c r="O1527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1527" t="n">
         <v>0</v>
@@ -86093,7 +86093,9 @@
       <c r="Q1529" t="n">
         <v>0</v>
       </c>
-      <c r="R1529" t="inlineStr"/>
+      <c r="R1529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
@@ -86147,7 +86149,9 @@
       <c r="Q1530" t="n">
         <v>0</v>
       </c>
-      <c r="R1530" t="inlineStr"/>
+      <c r="R1530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
@@ -86201,7 +86205,9 @@
       <c r="Q1531" t="n">
         <v>0</v>
       </c>
-      <c r="R1531" t="inlineStr"/>
+      <c r="R1531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" s="2" t="n">
@@ -86255,7 +86261,9 @@
       <c r="Q1532" t="n">
         <v>0</v>
       </c>
-      <c r="R1532" t="inlineStr"/>
+      <c r="R1532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1533">
       <c r="A1533" s="2" t="n">
@@ -86309,7 +86317,9 @@
       <c r="Q1533" t="n">
         <v>0</v>
       </c>
-      <c r="R1533" t="inlineStr"/>
+      <c r="R1533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1534">
       <c r="A1534" s="2" t="n">
@@ -86363,7 +86373,9 @@
       <c r="Q1534" t="n">
         <v>0</v>
       </c>
-      <c r="R1534" t="inlineStr"/>
+      <c r="R1534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1535">
       <c r="A1535" s="2" t="n">
@@ -86417,7 +86429,387 @@
       <c r="Q1535" t="n">
         <v>0</v>
       </c>
-      <c r="R1535" t="inlineStr"/>
+      <c r="R1535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45558.38541666666</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>592.9500122070312</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>599</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>576.5499877929688</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>584.0999755859375</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>584.0999755859375</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1536" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1536" t="inlineStr"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45558.42708333334</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>583.9500122070312</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>593</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>583.6500244140625</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>591.9000244140625</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>591.9000244140625</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>10478</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1537" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45558.46875</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>592.5</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>600.0499877929688</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>591.6500244140625</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>596</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>596</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>16399</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1538" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1538" t="inlineStr"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45558.51041666666</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>595.7000122070312</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>599</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>591.1500244140625</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>591.2999877929688</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>591.2999877929688</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>19874</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1539" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45558.55208333334</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>593.5999755859375</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>595.4000244140625</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>590.2000122070312</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>595.3499755859375</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>595.3499755859375</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>13014</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1540" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1540" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45558.59375</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>594.9500122070312</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>595.0999755859375</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>590.5999755859375</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>591.5999755859375</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>591.5999755859375</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>23101</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1541" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1541" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1541" t="inlineStr"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45558.63541666666</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>590.6500244140625</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>591.7000122070312</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>588.0999755859375</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>590</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>590</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>22855</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1542" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1542" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1542" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1542"/>
+  <dimension ref="A1:R1549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86421,7 +86421,7 @@
         <v>38</v>
       </c>
       <c r="O1535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1535" t="n">
         <v>0</v>
@@ -86485,7 +86485,9 @@
       <c r="Q1536" t="n">
         <v>0</v>
       </c>
-      <c r="R1536" t="inlineStr"/>
+      <c r="R1536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1537">
       <c r="A1537" s="2" t="n">
@@ -86539,7 +86541,9 @@
       <c r="Q1537" t="n">
         <v>0</v>
       </c>
-      <c r="R1537" t="inlineStr"/>
+      <c r="R1537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1538">
       <c r="A1538" s="2" t="n">
@@ -86593,7 +86597,9 @@
       <c r="Q1538" t="n">
         <v>0</v>
       </c>
-      <c r="R1538" t="inlineStr"/>
+      <c r="R1538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1539">
       <c r="A1539" s="2" t="n">
@@ -86647,7 +86653,9 @@
       <c r="Q1539" t="n">
         <v>0</v>
       </c>
-      <c r="R1539" t="inlineStr"/>
+      <c r="R1539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1540">
       <c r="A1540" s="2" t="n">
@@ -86701,7 +86709,9 @@
       <c r="Q1540" t="n">
         <v>0</v>
       </c>
-      <c r="R1540" t="inlineStr"/>
+      <c r="R1540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1541">
       <c r="A1541" s="2" t="n">
@@ -86755,7 +86765,9 @@
       <c r="Q1541" t="n">
         <v>0</v>
       </c>
-      <c r="R1541" t="inlineStr"/>
+      <c r="R1541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1542">
       <c r="A1542" s="2" t="n">
@@ -86809,7 +86821,387 @@
       <c r="Q1542" t="n">
         <v>0</v>
       </c>
-      <c r="R1542" t="inlineStr"/>
+      <c r="R1542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="n">
+        <v>45559.38541666666</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>595.4000244140625</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>583</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>594.1500244140625</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>594.1500244140625</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>28629</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1543" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1543" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="n">
+        <v>45559.42708333334</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>593.6500244140625</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>598.9500122070312</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>593.6500244140625</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>598.8499755859375</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>598.8499755859375</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>11272</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1544" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1544" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="n">
+        <v>45559.46875</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>598.0999755859375</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>599</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>592.2000122070312</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>592.2000122070312</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>592.2000122070312</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>8188</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1545" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1545" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="n">
+        <v>45559.51041666666</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>592.2999877929688</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>595.9500122070312</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>592.1500244140625</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>593</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>593</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>10993</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1546" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1546" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1546" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1546" t="inlineStr"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="n">
+        <v>45559.55208333334</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>593</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>597</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>592.5</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>595.6500244140625</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>595.6500244140625</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>3929</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1547" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1547" t="inlineStr"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="n">
+        <v>45559.59375</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>595.5999755859375</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>595.7000122070312</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>587</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>588</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>588</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>6266</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1548" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1548" t="inlineStr"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="n">
+        <v>45559.63541666666</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>588</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>589.7000122070312</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>583.9500122070312</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>587.2999877929688</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>587.2999877929688</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>7441</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1549" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1549" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1549"/>
+  <dimension ref="A1:R1556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86877,7 +86877,9 @@
       <c r="Q1543" t="n">
         <v>0</v>
       </c>
-      <c r="R1543" t="inlineStr"/>
+      <c r="R1543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
@@ -86931,7 +86933,9 @@
       <c r="Q1544" t="n">
         <v>0</v>
       </c>
-      <c r="R1544" t="inlineStr"/>
+      <c r="R1544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
@@ -86985,7 +86989,9 @@
       <c r="Q1545" t="n">
         <v>0</v>
       </c>
-      <c r="R1545" t="inlineStr"/>
+      <c r="R1545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" s="2" t="n">
@@ -87039,7 +87045,9 @@
       <c r="Q1546" t="n">
         <v>2</v>
       </c>
-      <c r="R1546" t="inlineStr"/>
+      <c r="R1546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1547">
       <c r="A1547" s="2" t="n">
@@ -87093,7 +87101,9 @@
       <c r="Q1547" t="n">
         <v>0</v>
       </c>
-      <c r="R1547" t="inlineStr"/>
+      <c r="R1547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1548">
       <c r="A1548" s="2" t="n">
@@ -87147,7 +87157,9 @@
       <c r="Q1548" t="n">
         <v>0</v>
       </c>
-      <c r="R1548" t="inlineStr"/>
+      <c r="R1548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1549">
       <c r="A1549" s="2" t="n">
@@ -87201,7 +87213,387 @@
       <c r="Q1549" t="n">
         <v>0</v>
       </c>
-      <c r="R1549" t="inlineStr"/>
+      <c r="R1549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="n">
+        <v>45560.38541666666</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>595</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>601.7000122070312</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>591.7000122070312</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>597</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>597</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>50493</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1550" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="n">
+        <v>45560.42708333334</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>596.6500244140625</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>641.5</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>593.4500122070312</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>614.75</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>614.75</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>263182</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1551" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="n">
+        <v>45560.46875</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>614.5</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>619.2999877929688</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>608.8499755859375</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>612.4000244140625</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>612.4000244140625</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>62700</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1552" t="inlineStr"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="n">
+        <v>45560.51041666666</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>612.25</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>607.75</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>608.8499755859375</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>608.8499755859375</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>23183</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45560.55208333334</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>608</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>614</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>608</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>611</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>611</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>30346</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1554" t="inlineStr"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45560.59375</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>610.2000122070312</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>613.9500122070312</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>607.4000244140625</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>611</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>611</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>28664</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1555" t="inlineStr"/>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45560.63541666666</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>610.0999755859375</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>608.1500244140625</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>612.4500122070312</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>612.4500122070312</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>21706</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1556" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1556"/>
+  <dimension ref="A1:R1563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87269,7 +87269,9 @@
       <c r="Q1550" t="n">
         <v>0</v>
       </c>
-      <c r="R1550" t="inlineStr"/>
+      <c r="R1550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
@@ -87315,7 +87317,7 @@
         <v>39</v>
       </c>
       <c r="O1551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1551" t="n">
         <v>0</v>
@@ -87323,7 +87325,9 @@
       <c r="Q1551" t="n">
         <v>0</v>
       </c>
-      <c r="R1551" t="inlineStr"/>
+      <c r="R1551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" s="2" t="n">
@@ -87377,7 +87381,9 @@
       <c r="Q1552" t="n">
         <v>0</v>
       </c>
-      <c r="R1552" t="inlineStr"/>
+      <c r="R1552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1553">
       <c r="A1553" s="2" t="n">
@@ -87431,7 +87437,9 @@
       <c r="Q1553" t="n">
         <v>0</v>
       </c>
-      <c r="R1553" t="inlineStr"/>
+      <c r="R1553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" s="2" t="n">
@@ -87485,7 +87493,9 @@
       <c r="Q1554" t="n">
         <v>0</v>
       </c>
-      <c r="R1554" t="inlineStr"/>
+      <c r="R1554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1555">
       <c r="A1555" s="2" t="n">
@@ -87539,7 +87549,9 @@
       <c r="Q1555" t="n">
         <v>0</v>
       </c>
-      <c r="R1555" t="inlineStr"/>
+      <c r="R1555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1556">
       <c r="A1556" s="2" t="n">
@@ -87593,7 +87605,387 @@
       <c r="Q1556" t="n">
         <v>0</v>
       </c>
-      <c r="R1556" t="inlineStr"/>
+      <c r="R1556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45561.38541666666</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>618.9000244140625</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>618.9000244140625</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>600.3499755859375</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>601.4000244140625</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>601.4000244140625</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1557" t="inlineStr"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45561.42708333334</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>600.8499755859375</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>613.2000122070312</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>600.25</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>610</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>610</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>14404</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45561.46875</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>596.4000244140625</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>600</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>16111</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45561.51041666666</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>599.2000122070312</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>617.4000244140625</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>593.8499755859375</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>614.0999755859375</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>614.0999755859375</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>66201</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1560" t="inlineStr"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45561.55208333334</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>614.2000122070312</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>615.9000244140625</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>614</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>614.0499877929688</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>614.0499877929688</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>24739</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1561" t="inlineStr"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45561.59375</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>614.2000122070312</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>616.4500122070312</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>613.9500122070312</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>614</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>614</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>31415</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1562" t="inlineStr"/>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45561.63541666666</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>614.25</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>615.6500244140625</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>612.7000122070312</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>614</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>614</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>15080</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1563" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1563"/>
+  <dimension ref="A1:R1570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87661,7 +87661,9 @@
       <c r="Q1557" t="n">
         <v>0</v>
       </c>
-      <c r="R1557" t="inlineStr"/>
+      <c r="R1557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1558">
       <c r="A1558" s="2" t="n">
@@ -87715,7 +87717,9 @@
       <c r="Q1558" t="n">
         <v>0</v>
       </c>
-      <c r="R1558" t="inlineStr"/>
+      <c r="R1558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1559">
       <c r="A1559" s="2" t="n">
@@ -87769,7 +87773,9 @@
       <c r="Q1559" t="n">
         <v>0</v>
       </c>
-      <c r="R1559" t="inlineStr"/>
+      <c r="R1559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
@@ -87823,7 +87829,9 @@
       <c r="Q1560" t="n">
         <v>0</v>
       </c>
-      <c r="R1560" t="inlineStr"/>
+      <c r="R1560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1561">
       <c r="A1561" s="2" t="n">
@@ -87877,7 +87885,9 @@
       <c r="Q1561" t="n">
         <v>0</v>
       </c>
-      <c r="R1561" t="inlineStr"/>
+      <c r="R1561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1562">
       <c r="A1562" s="2" t="n">
@@ -87931,7 +87941,9 @@
       <c r="Q1562" t="n">
         <v>0</v>
       </c>
-      <c r="R1562" t="inlineStr"/>
+      <c r="R1562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1563">
       <c r="A1563" s="2" t="n">
@@ -87985,7 +87997,387 @@
       <c r="Q1563" t="n">
         <v>0</v>
       </c>
-      <c r="R1563" t="inlineStr"/>
+      <c r="R1563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45562.38541666666</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>611</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>612.4000244140625</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>603.5999755859375</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>608.7000122070312</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>608.7000122070312</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>23809</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45562.42708333334</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>609</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>609</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>597.1500244140625</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>599.5499877929688</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>599.5499877929688</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>124214</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45562.46875</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>600</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>604.75</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>599.5499877929688</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>603.5999755859375</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>603.5999755859375</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>32361</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45562.51041666666</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>603.75</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>608.7999877929688</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>608.4000244140625</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>608.4000244140625</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>37913</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1567" t="inlineStr"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45562.55208333334</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>608.5</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>608.5</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>604.9000244140625</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>606.1500244140625</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>606.1500244140625</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>19172</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45562.59375</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>606.1500244140625</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>610.4500122070312</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>605</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>607.5999755859375</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>607.5999755859375</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>55072</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1569" t="inlineStr"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45562.63541666666</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>608.5</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>610.5</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>603.4000244140625</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>608.4500122070312</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>608.4500122070312</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>12516</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1570" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1570"/>
+  <dimension ref="A1:R1577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88053,7 +88053,9 @@
       <c r="Q1564" t="n">
         <v>0</v>
       </c>
-      <c r="R1564" t="inlineStr"/>
+      <c r="R1564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" s="2" t="n">
@@ -88107,7 +88109,9 @@
       <c r="Q1565" t="n">
         <v>0</v>
       </c>
-      <c r="R1565" t="inlineStr"/>
+      <c r="R1565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" s="2" t="n">
@@ -88161,7 +88165,9 @@
       <c r="Q1566" t="n">
         <v>0</v>
       </c>
-      <c r="R1566" t="inlineStr"/>
+      <c r="R1566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" s="2" t="n">
@@ -88215,7 +88221,9 @@
       <c r="Q1567" t="n">
         <v>0</v>
       </c>
-      <c r="R1567" t="inlineStr"/>
+      <c r="R1567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1568">
       <c r="A1568" s="2" t="n">
@@ -88269,7 +88277,9 @@
       <c r="Q1568" t="n">
         <v>0</v>
       </c>
-      <c r="R1568" t="inlineStr"/>
+      <c r="R1568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1569">
       <c r="A1569" s="2" t="n">
@@ -88323,7 +88333,9 @@
       <c r="Q1569" t="n">
         <v>0</v>
       </c>
-      <c r="R1569" t="inlineStr"/>
+      <c r="R1569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1570">
       <c r="A1570" s="2" t="n">
@@ -88377,7 +88389,387 @@
       <c r="Q1570" t="n">
         <v>0</v>
       </c>
-      <c r="R1570" t="inlineStr"/>
+      <c r="R1570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45565.38541666666</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>624.9500122070312</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>627.9000244140625</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>615.0999755859375</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>622.7999877929688</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>622.7999877929688</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45565.42708333334</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>622.9000244140625</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>624</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>615</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>616.1500244140625</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>616.1500244140625</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>47592</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45565.46875</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>616.7999877929688</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>619.5999755859375</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>613.75</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>616.7000122070312</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>616.7000122070312</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>27223</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45565.51041666666</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>616.6500244140625</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>617.8499755859375</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>615</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>616.6500244140625</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>616.6500244140625</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>30870</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1574" t="inlineStr"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45565.55208333334</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>616.75</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>617.6500244140625</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>614.5499877929688</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>615.7000122070312</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>615.7000122070312</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>12821</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45565.59375</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>615.25</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>615</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>618</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>618</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>43497</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45565.63541666666</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>618</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>619.5</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>611.25</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>611.2999877929688</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>611.2999877929688</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>25597</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1577" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1577"/>
+  <dimension ref="A1:R1584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88437,7 +88437,7 @@
         <v>40</v>
       </c>
       <c r="O1571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1571" t="n">
         <v>0</v>
@@ -88445,7 +88445,9 @@
       <c r="Q1571" t="n">
         <v>0</v>
       </c>
-      <c r="R1571" t="inlineStr"/>
+      <c r="R1571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1572">
       <c r="A1572" s="2" t="n">
@@ -88499,7 +88501,9 @@
       <c r="Q1572" t="n">
         <v>0</v>
       </c>
-      <c r="R1572" t="inlineStr"/>
+      <c r="R1572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1573">
       <c r="A1573" s="2" t="n">
@@ -88553,7 +88557,9 @@
       <c r="Q1573" t="n">
         <v>0</v>
       </c>
-      <c r="R1573" t="inlineStr"/>
+      <c r="R1573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1574">
       <c r="A1574" s="2" t="n">
@@ -88607,7 +88613,9 @@
       <c r="Q1574" t="n">
         <v>0</v>
       </c>
-      <c r="R1574" t="inlineStr"/>
+      <c r="R1574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1575">
       <c r="A1575" s="2" t="n">
@@ -88661,7 +88669,9 @@
       <c r="Q1575" t="n">
         <v>0</v>
       </c>
-      <c r="R1575" t="inlineStr"/>
+      <c r="R1575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1576">
       <c r="A1576" s="2" t="n">
@@ -88715,7 +88725,9 @@
       <c r="Q1576" t="n">
         <v>0</v>
       </c>
-      <c r="R1576" t="inlineStr"/>
+      <c r="R1576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1577">
       <c r="A1577" s="2" t="n">
@@ -88769,7 +88781,387 @@
       <c r="Q1577" t="n">
         <v>0</v>
       </c>
-      <c r="R1577" t="inlineStr"/>
+      <c r="R1577" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45566.38541666666</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>615</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>619</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>593.0499877929688</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>593.0499877929688</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>593.0499877929688</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45566.42708333334</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>593.5</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>604.9500122070312</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>593.5</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>602.4000244140625</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>602.4000244140625</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>42696</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45566.46875</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>602.4500122070312</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>606.2000122070312</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>600.3499755859375</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>605.0499877929688</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>605.0499877929688</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>32267</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1580" t="inlineStr"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45566.51041666666</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>605.8499755859375</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>606.1500244140625</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>596.9500122070312</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>598.4000244140625</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>598.4000244140625</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>27015</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1581" t="inlineStr"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45566.55208333334</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>598.2000122070312</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>601.0499877929688</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>597.9500122070312</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>598.7999877929688</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>598.7999877929688</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>29436</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1582" t="inlineStr"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45566.59375</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>598.7999877929688</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>603.7000122070312</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>596.2000122070312</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>603.25</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>603.25</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>28327</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1583" t="inlineStr"/>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45566.63541666666</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>603.25</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>605.7999877929688</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>599.7999877929688</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>600</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>10987</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1584" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -88837,7 +88837,9 @@
       <c r="Q1578" t="n">
         <v>0</v>
       </c>
-      <c r="R1578" t="inlineStr"/>
+      <c r="R1578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1579">
       <c r="A1579" s="2" t="n">
@@ -88891,7 +88893,9 @@
       <c r="Q1579" t="n">
         <v>0</v>
       </c>
-      <c r="R1579" t="inlineStr"/>
+      <c r="R1579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1580">
       <c r="A1580" s="2" t="n">
@@ -88945,7 +88949,9 @@
       <c r="Q1580" t="n">
         <v>0</v>
       </c>
-      <c r="R1580" t="inlineStr"/>
+      <c r="R1580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1581">
       <c r="A1581" s="2" t="n">
@@ -88999,7 +89005,9 @@
       <c r="Q1581" t="n">
         <v>0</v>
       </c>
-      <c r="R1581" t="inlineStr"/>
+      <c r="R1581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1582">
       <c r="A1582" s="2" t="n">
@@ -89053,7 +89061,9 @@
       <c r="Q1582" t="n">
         <v>0</v>
       </c>
-      <c r="R1582" t="inlineStr"/>
+      <c r="R1582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1583">
       <c r="A1583" s="2" t="n">
@@ -89107,7 +89117,9 @@
       <c r="Q1583" t="n">
         <v>0</v>
       </c>
-      <c r="R1583" t="inlineStr"/>
+      <c r="R1583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1584">
       <c r="A1584" s="2" t="n">
@@ -89161,7 +89173,9 @@
       <c r="Q1584" t="n">
         <v>0</v>
       </c>
-      <c r="R1584" t="inlineStr"/>
+      <c r="R1584" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1584"/>
+  <dimension ref="A1:R1591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89177,6 +89177,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45568.38541666666</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>592</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>602.9500122070312</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>586.5499877929688</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>598.6500244140625</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>598.6500244140625</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>27650</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45568.42708333334</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>599.2999877929688</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>601.4500122070312</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>597.5999755859375</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>600</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>15711</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45568.46875</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>600</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>601.0999755859375</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>597</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>600</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>6821</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45568.51041666666</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>600</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>598.5499877929688</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>600</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>12890</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1588" t="inlineStr"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45568.55208333334</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>598.75</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>599.4500122070312</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>595.0999755859375</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>595.7999877929688</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>595.7999877929688</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>20057</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45568.59375</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>595.5499877929688</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>595.5499877929688</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>600.0499877929688</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>600.0499877929688</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>13226</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1590" t="inlineStr"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45568.63541666666</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>600</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>600.7000122070312</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>597</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>599.7000122070312</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>599.7000122070312</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>6303</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1591" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1591"/>
+  <dimension ref="A1:R1598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89229,7 +89229,9 @@
       <c r="Q1585" t="n">
         <v>0</v>
       </c>
-      <c r="R1585" t="inlineStr"/>
+      <c r="R1585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1586">
       <c r="A1586" s="2" t="n">
@@ -89283,7 +89285,9 @@
       <c r="Q1586" t="n">
         <v>0</v>
       </c>
-      <c r="R1586" t="inlineStr"/>
+      <c r="R1586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1587">
       <c r="A1587" s="2" t="n">
@@ -89337,7 +89341,9 @@
       <c r="Q1587" t="n">
         <v>0</v>
       </c>
-      <c r="R1587" t="inlineStr"/>
+      <c r="R1587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1588">
       <c r="A1588" s="2" t="n">
@@ -89391,7 +89397,9 @@
       <c r="Q1588" t="n">
         <v>0</v>
       </c>
-      <c r="R1588" t="inlineStr"/>
+      <c r="R1588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1589">
       <c r="A1589" s="2" t="n">
@@ -89445,7 +89453,9 @@
       <c r="Q1589" t="n">
         <v>0</v>
       </c>
-      <c r="R1589" t="inlineStr"/>
+      <c r="R1589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1590">
       <c r="A1590" s="2" t="n">
@@ -89499,7 +89509,9 @@
       <c r="Q1590" t="n">
         <v>0</v>
       </c>
-      <c r="R1590" t="inlineStr"/>
+      <c r="R1590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1591">
       <c r="A1591" s="2" t="n">
@@ -89553,7 +89565,387 @@
       <c r="Q1591" t="n">
         <v>0</v>
       </c>
-      <c r="R1591" t="inlineStr"/>
+      <c r="R1591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45569.38541666666</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>604.9000244140625</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>604.9000244140625</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>578.25</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>595.7000122070312</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>595.7000122070312</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45569.42708333334</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>596</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>608</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>593.25</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>605.4000244140625</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>605.4000244140625</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>21020</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45569.46875</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>600.5999755859375</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>603.4500122070312</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>595.2000122070312</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>598.2999877929688</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>598.2999877929688</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>42372</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45569.51041666666</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>598.0999755859375</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>599.9500122070312</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>588.5499877929688</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>594</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>594</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>20766</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45569.55208333334</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>593.9500122070312</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>599.8499755859375</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>593.9500122070312</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>598.6500244140625</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>598.6500244140625</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>12640</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1596" t="inlineStr"/>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45569.59375</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>598.6500244140625</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>597.5</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>610.7000122070312</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>610.7000122070312</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>30226</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45569.63541666666</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>610.7000122070312</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>613.5</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>599.7999877929688</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>607.2000122070312</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>607.2000122070312</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>16363</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1598" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1598"/>
+  <dimension ref="A1:R1605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89621,7 +89621,9 @@
       <c r="Q1592" t="n">
         <v>0</v>
       </c>
-      <c r="R1592" t="inlineStr"/>
+      <c r="R1592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1593">
       <c r="A1593" s="2" t="n">
@@ -89675,7 +89677,9 @@
       <c r="Q1593" t="n">
         <v>0</v>
       </c>
-      <c r="R1593" t="inlineStr"/>
+      <c r="R1593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" s="2" t="n">
@@ -89729,7 +89733,9 @@
       <c r="Q1594" t="n">
         <v>0</v>
       </c>
-      <c r="R1594" t="inlineStr"/>
+      <c r="R1594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1595">
       <c r="A1595" s="2" t="n">
@@ -89783,7 +89789,9 @@
       <c r="Q1595" t="n">
         <v>0</v>
       </c>
-      <c r="R1595" t="inlineStr"/>
+      <c r="R1595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" s="2" t="n">
@@ -89837,7 +89845,9 @@
       <c r="Q1596" t="n">
         <v>0</v>
       </c>
-      <c r="R1596" t="inlineStr"/>
+      <c r="R1596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1597">
       <c r="A1597" s="2" t="n">
@@ -89891,7 +89901,9 @@
       <c r="Q1597" t="n">
         <v>0</v>
       </c>
-      <c r="R1597" t="inlineStr"/>
+      <c r="R1597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" s="2" t="n">
@@ -89945,7 +89957,387 @@
       <c r="Q1598" t="n">
         <v>0</v>
       </c>
-      <c r="R1598" t="inlineStr"/>
+      <c r="R1598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45572.38541666666</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>607.9500122070312</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>610</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>589.9000244140625</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>595</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>595</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45572.42708333334</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>595.0999755859375</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>595.9000244140625</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>567.2000122070312</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>576</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>576</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>35612</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45572.46875</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>577</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>586.75</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>577</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>580.5999755859375</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>580.5999755859375</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>22537</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45572.51041666666</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>580.0499877929688</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>581.9500122070312</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>576</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>577</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>577</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>37084</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45572.55208333334</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>577</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>577.7000122070312</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>561.5499877929688</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>565.75</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>565.75</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>30629</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45572.59375</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>565.5999755859375</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>562.6500244140625</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>571.7999877929688</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>571.7999877929688</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>38657</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1604" t="inlineStr"/>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45572.63541666666</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>574.5499877929688</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>586</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>572.8499755859375</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>574</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>574</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>11897</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1605" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1605"/>
+  <dimension ref="A1:R1619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89893,7 +89893,7 @@
         <v>40</v>
       </c>
       <c r="O1597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1597" t="n">
         <v>0</v>
@@ -90013,7 +90013,9 @@
       <c r="Q1599" t="n">
         <v>0</v>
       </c>
-      <c r="R1599" t="inlineStr"/>
+      <c r="R1599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
@@ -90067,7 +90069,9 @@
       <c r="Q1600" t="n">
         <v>0</v>
       </c>
-      <c r="R1600" t="inlineStr"/>
+      <c r="R1600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
@@ -90121,7 +90125,9 @@
       <c r="Q1601" t="n">
         <v>0</v>
       </c>
-      <c r="R1601" t="inlineStr"/>
+      <c r="R1601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
@@ -90175,7 +90181,9 @@
       <c r="Q1602" t="n">
         <v>0</v>
       </c>
-      <c r="R1602" t="inlineStr"/>
+      <c r="R1602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
@@ -90221,7 +90229,7 @@
         <v>41</v>
       </c>
       <c r="O1603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1603" t="n">
         <v>0</v>
@@ -90229,7 +90237,9 @@
       <c r="Q1603" t="n">
         <v>0</v>
       </c>
-      <c r="R1603" t="inlineStr"/>
+      <c r="R1603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
@@ -90283,7 +90293,9 @@
       <c r="Q1604" t="n">
         <v>0</v>
       </c>
-      <c r="R1604" t="inlineStr"/>
+      <c r="R1604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1605">
       <c r="A1605" s="2" t="n">
@@ -90337,7 +90349,765 @@
       <c r="Q1605" t="n">
         <v>0</v>
       </c>
-      <c r="R1605" t="inlineStr"/>
+      <c r="R1605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45573.38541666666</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>577</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>580.5</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>563.4000244140625</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>576</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>576</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>28329</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45573.42708333334</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>575.0999755859375</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>583.8499755859375</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>575</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>580.9000244140625</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>580.9000244140625</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>8927</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45573.46875</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>582.2999877929688</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>586</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>577.3499755859375</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>577.9500122070312</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>577.9500122070312</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>10466</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45573.51041666666</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>577.7999877929688</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>580.9000244140625</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>575.9000244140625</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>579.1500244140625</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>579.1500244140625</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>13853</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1609" t="inlineStr"/>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45573.55208333334</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>579.1500244140625</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>595.6500244140625</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>579.1500244140625</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>587.0999755859375</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>587.0999755859375</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>47841</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45573.59375</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>587.0499877929688</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>595.1500244140625</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>581.5999755859375</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>590.9000244140625</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>590.9000244140625</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>41431</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45573.63541666666</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>591.2999877929688</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>591.2999877929688</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>596</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>596</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>12439</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45574.38541666666</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>597</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>599</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>591.75</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>593.6500244140625</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>593.6500244140625</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>13223</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45574.42708333334</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>592.4000244140625</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>597.5999755859375</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>591.9500122070312</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>595.7000122070312</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>595.7000122070312</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>4690</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45574.46875</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>596.75</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>598.75</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>594.0999755859375</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>595.75</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>595.75</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>5178</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45574.51041666666</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>595.75</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>598.7999877929688</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>594.0999755859375</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>595.0499877929688</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>595.0499877929688</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>4928</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45574.55208333334</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>596.25</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>596.6500244140625</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>592.3499755859375</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>592.5499877929688</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>592.5499877929688</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45574.59375</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>592.2000122070312</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>596.4500122070312</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>591.3499755859375</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>594.4500122070312</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>594.4500122070312</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>3918</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45574.63541666666</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>594.4500122070312</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>598.7000122070312</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>594</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>594.2000122070312</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>594.2000122070312</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>8023</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1619"/>
+  <dimension ref="A1:R1626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90405,7 +90405,9 @@
       <c r="Q1606" t="n">
         <v>0</v>
       </c>
-      <c r="R1606" t="inlineStr"/>
+      <c r="R1606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
@@ -90459,7 +90461,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90513,7 +90517,9 @@
       <c r="Q1608" t="n">
         <v>2</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
@@ -90567,7 +90573,9 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1610">
       <c r="A1610" s="2" t="n">
@@ -90621,7 +90629,9 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
@@ -90675,7 +90685,9 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
@@ -90729,7 +90741,9 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
@@ -90783,7 +90797,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90837,7 +90853,9 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
@@ -90891,7 +90909,9 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
@@ -90945,7 +90965,9 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
@@ -90999,7 +91021,9 @@
       <c r="Q1617" t="n">
         <v>0</v>
       </c>
-      <c r="R1617" t="inlineStr"/>
+      <c r="R1617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
@@ -91053,7 +91077,9 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
@@ -91107,7 +91133,387 @@
       <c r="Q1619" t="n">
         <v>0</v>
       </c>
-      <c r="R1619" t="inlineStr"/>
+      <c r="R1619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45575.38541666666</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>602</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>602.3499755859375</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>587.5499877929688</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>599.8499755859375</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>599.8499755859375</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45575.42708333334</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>599</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>600.7999877929688</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>598.0499877929688</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>598.0499877929688</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>2370</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45575.46875</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>598.0499877929688</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>599.8499755859375</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>596.2999877929688</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>599.0999755859375</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>599.0999755859375</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>2190</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1622" t="inlineStr"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45575.51041666666</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>598.75</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>604.7000122070312</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>597.0999755859375</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>599.7999877929688</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>599.7999877929688</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>7169</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1623" t="inlineStr"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45575.55208333334</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>599.9500122070312</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>608.7000122070312</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>599.9500122070312</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>607.7999877929688</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>607.7999877929688</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>14739</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45575.59375</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>616.25</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>603.7000122070312</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>614</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>614</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>16549</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45575.63541666666</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>614</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>613</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>615</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>615</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>27901</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1626"/>
+  <dimension ref="A1:R1633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91189,7 +91189,9 @@
       <c r="Q1620" t="n">
         <v>0</v>
       </c>
-      <c r="R1620" t="inlineStr"/>
+      <c r="R1620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
@@ -91243,7 +91245,9 @@
       <c r="Q1621" t="n">
         <v>0</v>
       </c>
-      <c r="R1621" t="inlineStr"/>
+      <c r="R1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -91297,7 +91301,9 @@
       <c r="Q1622" t="n">
         <v>0</v>
       </c>
-      <c r="R1622" t="inlineStr"/>
+      <c r="R1622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
@@ -91351,7 +91357,9 @@
       <c r="Q1623" t="n">
         <v>0</v>
       </c>
-      <c r="R1623" t="inlineStr"/>
+      <c r="R1623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
@@ -91405,7 +91413,9 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
@@ -91459,7 +91469,9 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" s="2" t="n">
@@ -91513,7 +91525,387 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45576.38541666666</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>614.7000122070312</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>616.7000122070312</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>605</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>615.5999755859375</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>615.5999755859375</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45576.42708333334</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>615.1500244140625</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>616.5</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>608.7000122070312</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>610.1500244140625</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>610.1500244140625</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>8145</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45576.46875</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>608</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>610</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>602.3499755859375</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>606.0499877929688</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>606.0499877929688</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>5874</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45576.51041666666</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>605.7999877929688</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>614.3499755859375</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>605.7999877929688</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>611.1500244140625</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>611.1500244140625</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>4440</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45576.55208333334</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>611</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>610.9000244140625</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>614.75</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>614.75</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>6719</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45576.59375</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>615.3499755859375</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>618.2000122070312</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>614.0499877929688</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>614.8499755859375</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>614.8499755859375</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>24048</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45576.63541666666</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>614.8499755859375</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>616</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>612.0499877929688</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>615.0499877929688</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>615.0499877929688</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>11736</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1633"/>
+  <dimension ref="A1:R1640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91517,7 +91517,7 @@
         <v>41</v>
       </c>
       <c r="O1626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1626" t="n">
         <v>0</v>
@@ -91581,7 +91581,9 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
@@ -91635,7 +91637,9 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
@@ -91689,7 +91693,9 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
@@ -91743,7 +91749,9 @@
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1631">
       <c r="A1631" s="2" t="n">
@@ -91797,7 +91805,9 @@
       <c r="Q1631" t="n">
         <v>0</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91851,7 +91861,9 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1633">
       <c r="A1633" s="2" t="n">
@@ -91905,7 +91917,387 @@
       <c r="Q1633" t="n">
         <v>0</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45579.38541666666</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>615.5999755859375</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>615.5999755859375</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>598.9000244140625</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>609.0999755859375</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>609.0999755859375</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45579.42708333334</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>609.25</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>609.9500122070312</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>605.4000244140625</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>606</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>606</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>10892</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45579.46875</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>606.9000244140625</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>609.0999755859375</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>605.2000122070312</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>606</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>606</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>3472</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45579.51041666666</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>606</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>608.4500122070312</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>606</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>607.0499877929688</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>607.0499877929688</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>9586</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45579.55208333334</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>607.5999755859375</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>607.6500244140625</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>600.8499755859375</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>604.0499877929688</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>604.0499877929688</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>11143</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45579.59375</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>603.6500244140625</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>606.5999755859375</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>599.7000122070312</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>603.5499877929688</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>603.5499877929688</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>16989</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45579.63541666666</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>603.5499877929688</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>606</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>601</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>601.3499755859375</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>601.3499755859375</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>6446</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1640" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1640"/>
+  <dimension ref="A1:R1647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91973,7 +91973,9 @@
       <c r="Q1634" t="n">
         <v>0</v>
       </c>
-      <c r="R1634" t="inlineStr"/>
+      <c r="R1634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
@@ -92027,7 +92029,9 @@
       <c r="Q1635" t="n">
         <v>0</v>
       </c>
-      <c r="R1635" t="inlineStr"/>
+      <c r="R1635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
@@ -92081,7 +92085,9 @@
       <c r="Q1636" t="n">
         <v>0</v>
       </c>
-      <c r="R1636" t="inlineStr"/>
+      <c r="R1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -92135,7 +92141,9 @@
       <c r="Q1637" t="n">
         <v>2</v>
       </c>
-      <c r="R1637" t="inlineStr"/>
+      <c r="R1637" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
@@ -92189,7 +92197,9 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -92243,7 +92253,9 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
@@ -92297,7 +92309,387 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45580.38541666666</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>605</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>619.0499877929688</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>597</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>608.7999877929688</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>608.7999877929688</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45580.42708333334</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>608.7999877929688</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>612.9500122070312</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>606.2000122070312</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>611.3499755859375</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>611.3499755859375</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>17043</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45580.46875</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>611.3499755859375</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>616.75</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>609.0499877929688</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>610</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>610</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>16049</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45580.51041666666</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>612</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>609.5999755859375</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>609.9500122070312</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>609.9500122070312</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>8260</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45580.55208333334</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>612</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>609.5999755859375</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>611.9500122070312</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>611.9500122070312</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>8561</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45580.59375</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>611.9500122070312</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>611.4000244140625</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>616.25</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>616.25</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>101787</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45580.63541666666</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>616.25</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>618</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>613.25</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>616.9500122070312</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>616.9500122070312</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>40201</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1647"/>
+  <dimension ref="A1:R1654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92357,7 +92357,7 @@
         <v>42</v>
       </c>
       <c r="O1641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1641" t="n">
         <v>0</v>
@@ -92365,7 +92365,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92419,7 +92421,9 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
@@ -92473,7 +92477,9 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
@@ -92527,7 +92533,9 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
@@ -92581,7 +92589,9 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -92635,7 +92645,9 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
@@ -92689,7 +92701,387 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45581.38541666666</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>615.25</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>632</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>615.0999755859375</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>618.9000244140625</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>618.9000244140625</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45581.42708333334</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>618.9000244140625</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>621.75</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>615.0499877929688</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>615.0499877929688</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>27922</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45581.46875</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>615</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>615.9000244140625</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>612.0999755859375</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>615.5</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>615.5</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>10644</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45581.51041666666</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>613.4500122070312</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>615.9000244140625</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>612.75</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>614.2000122070312</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>614.2000122070312</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>17736</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45581.55208333334</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>615</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>615.5499877929688</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>613.2999877929688</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>613.9000244140625</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>613.9000244140625</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>8088</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45581.59375</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>614.0499877929688</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>616</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>607.5499877929688</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>616</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>616</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>25694</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45581.63541666666</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>616.3499755859375</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>616.3499755859375</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>607.9500122070312</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>607.9500122070312</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>607.9500122070312</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>21636</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1654"/>
+  <dimension ref="A1:R1668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92749,7 +92749,7 @@
         <v>42</v>
       </c>
       <c r="O1648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1648" t="n">
         <v>0</v>
@@ -92757,7 +92757,9 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
@@ -92811,7 +92813,9 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
@@ -92865,7 +92869,9 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92919,7 +92925,9 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
@@ -92973,7 +92981,9 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -93027,7 +93037,9 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
@@ -93081,7 +93093,765 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45582.38541666666</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>611.9500122070312</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>617.7999877929688</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>602.25</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>603.4000244140625</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>603.4000244140625</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45582.42708333334</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>603.9500122070312</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>609.5</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>603</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>604.8499755859375</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>604.8499755859375</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>12554</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45582.46875</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>604.5999755859375</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>605.7000122070312</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>604.5499877929688</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>604.5499877929688</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>6500</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45582.51041666666</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>604.5499877929688</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>607.9500122070312</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>592.5</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>596.2000122070312</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>596.2000122070312</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>21949</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45582.55208333334</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>596.0999755859375</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>600.2999877929688</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>595.75</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>598</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>598</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>12190</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45582.59375</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>598.25</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>602.4500122070312</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>596.0999755859375</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>598.0499877929688</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>598.0499877929688</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>17696</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45582.63541666666</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>597.5</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>597.5</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>592.5999755859375</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>594.9000244140625</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>594.9000244140625</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>14549</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45583.38541666666</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>581.75</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>600.9500122070312</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>576.7999877929688</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>596.0999755859375</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>596.0999755859375</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45583.42708333334</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>596</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>596</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>605.4500122070312</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>605.4500122070312</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>18090</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45583.46875</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>604</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>611.3499755859375</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>602.4000244140625</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>608.75</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>608.75</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>14915</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45583.51041666666</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>609.5499877929688</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>610.3499755859375</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>606</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>606</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>606</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>5410</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45583.55208333334</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>606.4000244140625</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>608.2000122070312</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>604</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>604</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>604</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>14371</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45583.59375</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>603.4500122070312</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>611.5499877929688</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>603.1500244140625</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>610.1500244140625</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>610.1500244140625</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>30852</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45583.63541666666</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>611.1500244140625</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>618.2000122070312</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>610</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>611.9500122070312</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>611.9500122070312</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>18291</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1668"/>
+  <dimension ref="A1:R1689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -93149,7 +93149,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93203,7 +93205,9 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -93257,7 +93261,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93311,7 +93317,9 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
@@ -93365,7 +93373,9 @@
       <c r="Q1659" t="n">
         <v>2</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -93419,7 +93429,9 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -93473,7 +93485,9 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -93519,7 +93533,7 @@
         <v>42</v>
       </c>
       <c r="O1662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1662" t="n">
         <v>0</v>
@@ -93527,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93581,7 +93597,9 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -93635,7 +93653,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93689,7 +93709,9 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93743,7 +93765,9 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -93797,7 +93821,9 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -93851,7 +93877,1143 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45586.38541666666</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>617.1500244140625</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>619.7000122070312</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>605.0499877929688</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>611.7000122070312</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>611.7000122070312</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45586.42708333334</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>611.5999755859375</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>611.5999755859375</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>602</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>22827</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45586.46875</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>602</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>602.9000244140625</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>597.5999755859375</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>599.6500244140625</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>599.6500244140625</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>44717</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45586.51041666666</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>599.75</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>600.5</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>595.8499755859375</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>597.9500122070312</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>597.9500122070312</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>13600</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45586.55208333334</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>598.7000122070312</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>597.1500244140625</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>597.1500244140625</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>597.1500244140625</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>6954</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45586.59375</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>597.4000244140625</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>597.2000122070312</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>599.25</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>599.25</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>9157</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45586.63541666666</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>599.9000244140625</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>589.9500122070312</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>594.3499755859375</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>594.3499755859375</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>16729</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45587.38541666666</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>593.5</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>593.5</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>577</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>577</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>577</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>26058</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45587.42708333334</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>578.9000244140625</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>580.5</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>572.0499877929688</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>577.2999877929688</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>577.2999877929688</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>16613</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45587.46875</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>577.5499877929688</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>582.4000244140625</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>565.1500244140625</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>565.7000122070312</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>565.7000122070312</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>18454</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45587.51041666666</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>565.7999877929688</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>570.5</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>563.9500122070312</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>565.1500244140625</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>565.1500244140625</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>20020</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45587.55208333334</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>566.0499877929688</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>568.9500122070312</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>559.4500122070312</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>568</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>568</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>37206</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45587.59375</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>567.0499877929688</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>569</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>560.5499877929688</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>562.2000122070312</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>562.2000122070312</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>18822</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45587.63541666666</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>563.4000244140625</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>565</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>555</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>559.0999755859375</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>559.0999755859375</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>17524</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45588.38541666666</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>561.25</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>575</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>554.4000244140625</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>570.75</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>570.75</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45588.42708333334</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>570.25</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>574.2999877929688</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>563.75</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>568.4000244140625</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>568.4000244140625</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>31566</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45588.46875</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>567.7000122070312</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>577.4000244140625</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>566.8499755859375</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>568.9500122070312</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>568.9500122070312</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>23760</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45588.51041666666</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>568.9000244140625</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>575.9000244140625</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>566.5499877929688</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>570.75</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>570.75</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>14111</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45588.55208333334</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>570.3499755859375</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>576.8499755859375</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>569.2999877929688</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>573.9000244140625</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>573.9000244140625</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>12519</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45588.59375</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>573.9000244140625</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>577.8499755859375</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>567.25</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>14173</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45588.63541666666</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>576.25</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>570.0499877929688</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>573.4000244140625</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>573.4000244140625</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>7959</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1689"/>
+  <dimension ref="A1:R1696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -93933,7 +93933,9 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -93987,7 +93989,9 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -94041,7 +94045,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -94095,7 +94101,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94149,7 +94157,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94203,7 +94213,9 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -94257,7 +94269,9 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -94311,7 +94325,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94365,7 +94381,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94419,7 +94437,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94473,7 +94493,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94527,7 +94549,9 @@
       <c r="Q1680" t="n">
         <v>2</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -94581,7 +94605,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94635,7 +94661,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94681,7 +94709,7 @@
         <v>43</v>
       </c>
       <c r="O1683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1683" t="n">
         <v>0</v>
@@ -94689,7 +94717,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94743,7 +94773,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94797,7 +94829,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94851,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94905,7 +94941,9 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -94959,7 +94997,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -95013,7 +95053,387 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45589.38541666666</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>576.8499755859375</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>583.7000122070312</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>567.1500244140625</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>576.6500244140625</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>576.6500244140625</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>28551</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45589.42708333334</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>576.6500244140625</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>581.9500122070312</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>569.75</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>572.7000122070312</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>572.7000122070312</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>18623</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45589.46875</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>573</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>575.0499877929688</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>565.7999877929688</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>568.25</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>568.25</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>14216</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45589.51041666666</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>568.25</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>568.25</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>563.0999755859375</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>563.0999755859375</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>563.0999755859375</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>8152</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45589.55208333334</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>563.75</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>569.7000122070312</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>562.7999877929688</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>567.5999755859375</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>567.5999755859375</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>15903</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45589.59375</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>567.5</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>569.2999877929688</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>563.0499877929688</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>567.5499877929688</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>567.5499877929688</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>12544</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45589.63541666666</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>565.7999877929688</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>575.0499877929688</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>565.5499877929688</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>570</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>570</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>7012</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1696"/>
+  <dimension ref="A1:R1710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95109,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95163,7 +95165,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95217,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95271,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95325,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>1</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95379,7 +95389,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95433,7 +95445,765 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45590.38541666666</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>568</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>584.8499755859375</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>547.2999877929688</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>548.2999877929688</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>548.2999877929688</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45590.42708333334</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>548.25</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>550</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>532.9500122070312</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>539.9500122070312</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>539.9500122070312</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>50502</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45590.46875</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>540.2000122070312</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>550.9500122070312</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>539</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>548.4000244140625</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>548.4000244140625</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>49912</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45590.51041666666</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>548.2999877929688</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>550.75</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>545</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>548.7000122070312</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>548.7000122070312</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>11983</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45590.55208333334</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>548.75</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>549.0999755859375</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>540</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>544</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>544</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>36132</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45590.59375</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>544</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>553</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>541.5</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>546.3499755859375</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>546.3499755859375</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>21773</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45590.63541666666</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>545.9000244140625</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>553</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>541.5999755859375</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>545.75</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>545.75</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>15156</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45593.38541666666</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>552</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>569.7000122070312</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>538.5999755859375</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>568.4000244140625</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>568.4000244140625</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45593.42708333334</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>571.75</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>585.9000244140625</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>570.4500122070312</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>583</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>583</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>40391</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45593.46875</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>583.4500122070312</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>585.9500122070312</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>581.5999755859375</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>583.9500122070312</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>583.9500122070312</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>13354</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45593.51041666666</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>583.25</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>585.9500122070312</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>576</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>585.9500122070312</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>585.9500122070312</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>35647</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45593.55208333334</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>586</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>590</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>583</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>587</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>587</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>23922</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45593.59375</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>586.5</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>588</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>583.9000244140625</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>585</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>585</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>10834</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45593.63541666666</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>585</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>586.0499877929688</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>581.2000122070312</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>585</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>585</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>7343</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1710"/>
+  <dimension ref="A1:R1724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95501,7 +95501,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95555,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95609,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95663,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95717,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95771,7 +95781,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95825,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95879,7 +95893,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95933,7 +95949,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -95987,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96041,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96087,7 +96109,7 @@
         <v>44</v>
       </c>
       <c r="O1708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1708" t="n">
         <v>0</v>
@@ -96095,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96149,7 +96173,9 @@
       <c r="Q1709" t="n">
         <v>1</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96203,7 +96229,765 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45594.38541666666</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>590</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>590</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>556.5</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>557.25</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>557.25</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45594.42708333334</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>558.0999755859375</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>560.6500244140625</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>551</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>555</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>555</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>39786</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45594.46875</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>554.5499877929688</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>556</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>552</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>552.6500244140625</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>552.6500244140625</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>15381</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45594.51041666666</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>552.5499877929688</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>558.5</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>551.1500244140625</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>556.5</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>556.5</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>22464</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45594.55208333334</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>556.7000122070312</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>562.4500122070312</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>551.7999877929688</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>562.4500122070312</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>562.4500122070312</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>23698</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45594.59375</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>562</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>564</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>556.1500244140625</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>562</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>562</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>28193</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45594.63541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>562.9500122070312</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>564</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>557.4500122070312</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>560.0999755859375</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>560.0999755859375</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>5323</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45595.38541666666</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>564.8499755859375</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>569.2000122070312</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>558.7000122070312</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>566.0499877929688</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>566.0499877929688</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45595.42708333334</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>566.9500122070312</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>572</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>565</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>566.5999755859375</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>566.5999755859375</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>16883</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45595.46875</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>566.0999755859375</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>569.5499877929688</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>560.1500244140625</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>562.0999755859375</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>562.0999755859375</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>15324</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45595.51041666666</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>562.5</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>562.7999877929688</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>553</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>554.0999755859375</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>554.0999755859375</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>22327</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45595.55208333334</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>554.5</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>555.5</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>547</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>548.4000244140625</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>548.4000244140625</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>24972</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45595.59375</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>549.7999877929688</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>557.75</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>548</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>552.2000122070312</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>552.2000122070312</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>18164</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45595.63541666666</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>552.0499877929688</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>554.5999755859375</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>549.4500122070312</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>554.25</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>554.25</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>7996</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1724"/>
+  <dimension ref="A1:R1731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96285,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96339,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96393,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96447,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96501,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96555,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96609,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96663,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96717,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96771,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96825,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96879,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>2</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96933,7 +96957,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -96987,7 +97013,387 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45596.38541666666</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>549.9500122070312</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>561.8499755859375</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>545</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>556.7999877929688</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>556.7999877929688</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45596.42708333334</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>556.8499755859375</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>559.7000122070312</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>551.5</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>554</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>554</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>22056</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45596.46875</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>554</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>557</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>552.7999877929688</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>555.5499877929688</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>555.5499877929688</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>16998</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45596.51041666666</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>555.5499877929688</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>556.2999877929688</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>551.5499877929688</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>555.2000122070312</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>555.2000122070312</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>16684</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45596.55208333334</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>555.25</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>558.0999755859375</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>552.75</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>556</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>556</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>18129</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45596.59375</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>556</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>577.2999877929688</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>555.0999755859375</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>568.6500244140625</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>568.6500244140625</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>44419</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45596.63541666666</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>568.8499755859375</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>575.9500122070312</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>565.0999755859375</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>568.2000122070312</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>568.2000122070312</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>16695</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1731"/>
+  <dimension ref="A1:R1745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97061,7 +97061,7 @@
         <v>44</v>
       </c>
       <c r="O1725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1725" t="n">
         <v>0</v>
@@ -97069,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97123,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97177,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97231,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97285,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97339,7 +97349,9 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -97393,7 +97405,765 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45600.38541666666</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>568.5999755859375</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>572.8499755859375</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>561</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>565.5</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>565.5</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>4367</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45600.42708333334</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>566.2999877929688</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>569.5</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>566.2999877929688</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>569.2000122070312</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>569.2000122070312</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>2304</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45600.46875</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>568.5499877929688</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>586.9500122070312</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>568</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>584.0499877929688</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>584.0499877929688</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>24603</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45600.51041666666</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>582.9500122070312</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>584</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>579</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>583</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>583</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>5199</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45600.55208333334</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>584.75</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>579.1500244140625</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>583.2999877929688</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>583.2999877929688</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>7375</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45600.59375</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>583.8499755859375</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>583.9000244140625</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>579.75</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>581.0499877929688</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>581.0499877929688</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>9167</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45600.63541666666</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>581.0999755859375</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>581.0999755859375</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>575.0499877929688</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>579</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>579</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>3511</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45601.38541666666</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>579</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>586</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>573.0999755859375</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>581.7999877929688</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>581.7999877929688</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45601.42708333334</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>582.75</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>576.75</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>577.6500244140625</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>577.6500244140625</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>5697</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45601.46875</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>578.2999877929688</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>583</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>575.5499877929688</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>580.3499755859375</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>580.3499755859375</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>6009</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45601.51041666666</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>580.0999755859375</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>583</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>580</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>580.75</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>580.75</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>6668</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45601.55208333334</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>582.0999755859375</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>575.8499755859375</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>576.75</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>576.75</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>5859</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45601.59375</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>576.9000244140625</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>579.2000122070312</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>571.75</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>573.6500244140625</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>573.6500244140625</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>8180</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45601.63541666666</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>574.3499755859375</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>575</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>570</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>572.9000244140625</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>572.9000244140625</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>3663</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1745"/>
+  <dimension ref="A1:R1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97461,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97515,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97569,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97623,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97677,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>1</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97731,7 +97741,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97785,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97839,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97893,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97947,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98001,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98055,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98109,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98163,7 +98189,765 @@
       <c r="Q1745" t="n">
         <v>2</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45602.38541666666</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>575.0999755859375</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>577.5</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>569.5999755859375</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>570.7000122070312</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>570.7000122070312</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45602.42708333334</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>570.0999755859375</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>572.5</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>567.4000244140625</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>569.2000122070312</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>569.2000122070312</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>9495</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45602.46875</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>570.6500244140625</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>571.5</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>566.1500244140625</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>570.4500122070312</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>570.4500122070312</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>6908</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45602.51041666666</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>570.5</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>570.7000122070312</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>567.3499755859375</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>568.9000244140625</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>568.9000244140625</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>6610</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45602.55208333334</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>569.6500244140625</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>572</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>567.9000244140625</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>570</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>570</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>4790</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45602.59375</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>570</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>570.5</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>558.6500244140625</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>560</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>560</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>52806</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45602.63541666666</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>560</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>560</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>555</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>555</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>555</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>45390</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45603.38541666666</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>556</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>563.2000122070312</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>549.2999877929688</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>555.75</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>555.75</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45603.42708333334</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>555.4000244140625</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>559</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>553.6500244140625</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>558.9500122070312</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>558.9500122070312</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>7944</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45603.46875</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>558.9500122070312</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>559.7999877929688</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>551.7999877929688</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>552</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>552</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>14676</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45603.51041666666</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>552</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>554.5</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>549</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>550.5499877929688</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>550.5499877929688</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>17338</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45603.55208333334</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>550.5999755859375</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>552.5</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>549.4000244140625</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>550.0999755859375</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>550.0999755859375</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>33063</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45603.59375</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>550.0999755859375</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>553.9000244140625</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>549.4000244140625</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>552.6500244140625</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>552.6500244140625</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>15215</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45603.63541666666</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>552.6500244140625</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>553</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>548.3499755859375</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>550</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>550</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>9760</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1759"/>
+  <dimension ref="A1:R1773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98245,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98299,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98353,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98407,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98461,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98515,7 +98525,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98569,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98623,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98677,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98731,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98785,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98839,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98893,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98947,7 +98973,765 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45604.38541666666</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>550</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>552.75</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>539.2999877929688</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>541.2999877929688</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>541.2999877929688</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45604.42708333334</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>542.7000122070312</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>542.9500122070312</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>535.0999755859375</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>540.25</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>540.25</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>17576</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45604.46875</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>540.4500122070312</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>543.7999877929688</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>537.0999755859375</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>537.0999755859375</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>537.0999755859375</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>4824</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45604.51041666666</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>537.0999755859375</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>540.4000244140625</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>536.4500122070312</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>540.1500244140625</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>540.1500244140625</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>7417</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45604.55208333334</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>540</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>540</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>532.5499877929688</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>535.5999755859375</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>535.5999755859375</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>19230</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45604.59375</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>536.0499877929688</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>538</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>530.9500122070312</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>533.5999755859375</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>533.5999755859375</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>15359</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45604.63541666666</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>533.5999755859375</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>533.75</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>531.25</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>532.2999877929688</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>532.2999877929688</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>8195</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45607.38541666666</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>529.4500122070312</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>533</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>525</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>530</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>530</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45607.42708333334</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>530.4500122070312</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>535</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>530.4500122070312</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>534.9000244140625</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>534.9000244140625</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>6869</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45607.46875</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>534.4500122070312</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>536</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>524.25</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>527.4000244140625</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>527.4000244140625</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>18139</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45607.51041666666</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>527.3499755859375</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>532.25</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>525.0999755859375</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>532</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>532</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>8272</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45607.55208333334</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>531.2000122070312</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>532</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>527.2999877929688</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>528.9000244140625</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>528.9000244140625</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>6212</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45607.59375</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>528.9000244140625</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>529.9000244140625</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>524.2999877929688</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>526.1500244140625</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>526.1500244140625</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>19546</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45607.63541666666</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>526.5999755859375</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>528.5999755859375</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>525</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>526.7999877929688</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>526.7999877929688</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>6124</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1773"/>
+  <dimension ref="A1:R1787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99029,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99083,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99137,7 +99141,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99191,7 +99197,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99245,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99299,7 +99309,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99353,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99407,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99461,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99515,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99569,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99623,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99677,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99731,7 +99757,765 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45608.38541666666</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>528.3499755859375</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>533.25</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>520.5</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>530.4500122070312</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>530.4500122070312</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45608.42708333334</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>530.3499755859375</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>532</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>527.0999755859375</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>529.7999877929688</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>529.7999877929688</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>7889</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45608.46875</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>530.4000244140625</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>532</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>528.2000122070312</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>529.0999755859375</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>529.0999755859375</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>6574</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45608.51041666666</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>529.25</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>531.25</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>525.5499877929688</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>528.0499877929688</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>528.0499877929688</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>9254</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45608.55208333334</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>528.0499877929688</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>530.9000244140625</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>525.4500122070312</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>529.5999755859375</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>529.5999755859375</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>9869</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45608.59375</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>528.8499755859375</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>534.7999877929688</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>528.2999877929688</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>532.0499877929688</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>532.0499877929688</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>12903</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45608.63541666666</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>532.1500244140625</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>532.1500244140625</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>525.3499755859375</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>531.0999755859375</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>531.0999755859375</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>4602</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45609.38541666666</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>531.0999755859375</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>533.3499755859375</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>513.2000122070312</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>515.4000244140625</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>515.4000244140625</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45609.42708333334</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>515.4000244140625</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>518.0999755859375</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>508.75</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>516.5</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>516.5</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>32392</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45609.46875</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>515.2000122070312</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>528.7000122070312</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>509</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>509.9500122070312</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>509.9500122070312</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>27497</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45609.51041666666</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>509.8999938964844</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>515.9500122070312</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>509.1000061035156</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>510.3999938964844</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>510.3999938964844</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>10437</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45609.55208333334</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>510.3999938964844</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>515</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>507</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>511.3500061035156</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>511.3500061035156</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>34276</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45609.59375</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>511.4500122070312</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>512</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>500.1000061035156</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>502.1000061035156</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>502.1000061035156</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>63023</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45609.63541666666</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>501.5</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>500.8500061035156</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>503.25</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>503.25</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>21588</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1787"/>
+  <dimension ref="A1:R1794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99813,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99867,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99921,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99975,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -100029,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100083,7 +100093,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -100137,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100191,7 +100205,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100245,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100299,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100353,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100407,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100461,7 +100485,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100515,7 +100541,387 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45610.38541666666</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>495.4500122070312</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>515.6500244140625</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>495.4500122070312</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>511.6499938964844</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>511.6499938964844</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45610.42708333334</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>511.4500122070312</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>512.6500244140625</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>498.6000061035156</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>500.7000122070312</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>500.7000122070312</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>12302</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45610.46875</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>501.0499877929688</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>502.25</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>496.5</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>498.8500061035156</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>498.8500061035156</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>28754</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45610.51041666666</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>498.3999938964844</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>500.75</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>495</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>499.9500122070312</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>499.9500122070312</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>22545</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45610.55208333334</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>498.0499877929688</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>502</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>495</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>495.1000061035156</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>495.1000061035156</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>24264</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45610.59375</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>495.75</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>499.0499877929688</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>495.1000061035156</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>498.1499938964844</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>498.1499938964844</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>23246</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45610.63541666666</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>498.1499938964844</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>498.8500061035156</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>494</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>494</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>494</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>9364</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1794"/>
+  <dimension ref="A1:R1801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100597,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100651,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100705,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100759,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100813,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100867,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100921,7 +100933,387 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45614.38541666666</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>496.6499938964844</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>507</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>495.5</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>505.8999938964844</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>505.8999938964844</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45614.42708333334</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>506</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>506.7000122070312</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>500.2999877929688</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>500.2999877929688</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>500.2999877929688</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>11935</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45614.46875</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>500.1000061035156</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>501.4500122070312</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>499.3999938964844</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>501.0499877929688</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>501.0499877929688</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>4163</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45614.51041666666</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>501.0499877929688</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>501.2999877929688</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>497.8500061035156</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>500.9500122070312</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>500.9500122070312</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>6160</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45614.55208333334</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>500.9500122070312</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>501</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>497</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>497.7999877929688</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>497.7999877929688</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>3985</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45614.59375</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>496.5</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>497.5</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>495</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>496.4500122070312</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>496.4500122070312</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>8372</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45614.63541666666</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>496.4500122070312</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>496.4500122070312</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>491.3500061035156</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>492.6000061035156</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>492.6000061035156</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>13130</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1801"/>
+  <dimension ref="A1:R1808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100989,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101043,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101097,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101151,7 +101157,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101205,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101259,7 +101269,9 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101313,7 +101325,387 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45615.38541666666</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>499.7000122070312</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>508</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>496.1000061035156</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45615.42708333334</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>506.5</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>513.2999877929688</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>506</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>510.6499938964844</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>510.6499938964844</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>16231</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45615.46875</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>510.7000122070312</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>512.7000122070312</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>505.6000061035156</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>507.6499938964844</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>507.6499938964844</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>5629</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45615.51041666666</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>508.1499938964844</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>509</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>505.2999877929688</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>507.6499938964844</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>507.6499938964844</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>2160</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45615.55208333334</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>508.1499938964844</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>508.1499938964844</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>505.1499938964844</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>505.8999938964844</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>505.8999938964844</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>5562</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45615.59375</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>505.5499877929688</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>506.3999938964844</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>496.9500122070312</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>499.5</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>499.5</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>18187</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45615.63541666666</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>498.7000122070312</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>501.3999938964844</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>496.1000061035156</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>500</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>6395</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1808"/>
+  <dimension ref="A1:R1815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101381,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101427,7 +101429,7 @@
         <v>47</v>
       </c>
       <c r="O1803" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1803" t="n">
         <v>0</v>
@@ -101435,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101489,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101543,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101597,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101651,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101705,7 +101717,387 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45617.38541666666</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>497.4500122070312</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>500.9500122070312</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>488.2000122070312</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>497.1000061035156</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>497.1000061035156</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45617.42708333334</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>494.6499938964844</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>501.8999938964844</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>492</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>499.75</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>499.75</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>21682</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45617.46875</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>499</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>503</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>498.5</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>501.8500061035156</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>501.8500061035156</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>6326</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45617.51041666666</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>502.4500122070312</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>504.3500061035156</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>501.6499938964844</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>503.3999938964844</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>503.3999938964844</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>6515</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45617.55208333334</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>503.0499877929688</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>505.0499877929688</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>501.7000122070312</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>503.4500122070312</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>503.4500122070312</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>8929</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45617.59375</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>503.4500122070312</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>505.1499938964844</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>498.2999877929688</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>501.6000061035156</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>501.6000061035156</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>12314</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45617.63541666666</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>502</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>502.7000122070312</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>501.25</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>501.25</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>6271</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MAXESTATES.NS.xlsx
+++ b/stock_historical_data/60m/MAXESTATES.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1815"/>
+  <dimension ref="A1:R1829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101765,7 +101765,7 @@
         <v>47</v>
       </c>
       <c r="O1809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1809" t="n">
         <v>0</v>
@@ -101773,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101827,7 +101829,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101881,7 +101885,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101935,7 +101941,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101989,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102043,7 +102053,9 @@
       <c r="Q1814" t="n">
         <v>2</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -102097,7 +102109,765 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45618.38541666666</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>502.75</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>508.3500061035156</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>496.7000122070312</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>507.3500061035156</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>507.3500061035156</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45618.42708333334</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>507.3500061035156</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>509.7999877929688</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>506</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>509.2000122070312</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>509.2000122070312</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>6024</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45618.46875</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>510</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>510</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>506.5</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>3456</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45618.51041666666</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>507.0499877929688</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>507.4500122070312</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>504</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>505.25</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>505.25</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>3321</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45618.55208333334</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>505.25</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>506.6000061035156</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>504</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>504</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>504</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>3562</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45618.59375</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>504</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>507.8999938964844</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>501</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>506</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>506</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>9430</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45618.63541666666</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>504.2999877929688</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>507.9500122070312</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>502.7000122070312</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>507</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>507</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>6660</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45621.38541666666</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>512.2000122070312</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>518.9500122070312</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>511.2999877929688</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>512.8499755859375</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>512.8499755859375</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45621.42708333334</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>512.8499755859375</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>520.6500244140625</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>512.4500122070312</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>514.9000244140625</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>514.9000244140625</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>17305</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45621.46875</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>514.9000244140625</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>516.7000122070312</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>513.1500244140625</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>513.1500244140625</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>513.1500244140625</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>4513</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45621.51041666666</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>513.2000122070312</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>514.25</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>505.0499877929688</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>506.7000122070312</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>506.7000122070312</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>5641</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45621.55208333334</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>507</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>511.1499938964844</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>505.2999877929688</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>511.1499938964844</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>511.1499938964844</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>11803</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45621.59375</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>510.8999938964844</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>529.9500122070312</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>510.4500122070312</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>513.7999877929688</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>513.7999877929688</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>167516</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45621.63541666666</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>512</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>513.8499755859375</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>507</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>511.4500122070312</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>511.4500122070312</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>107330</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
